--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1707400</v>
+        <v>1228300</v>
       </c>
       <c r="E8" s="3">
-        <v>795400</v>
+        <v>1666600</v>
       </c>
       <c r="F8" s="3">
-        <v>464600</v>
+        <v>775800</v>
       </c>
       <c r="G8" s="3">
-        <v>30000</v>
+        <v>453200</v>
       </c>
       <c r="H8" s="3">
-        <v>4600</v>
+        <v>29300</v>
       </c>
       <c r="I8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>152300</v>
+        <v>93100</v>
       </c>
       <c r="E9" s="3">
-        <v>60000</v>
+        <v>148500</v>
       </c>
       <c r="F9" s="3">
-        <v>25800</v>
+        <v>58500</v>
       </c>
       <c r="G9" s="3">
+        <v>25200</v>
+      </c>
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1555100</v>
+        <v>1135200</v>
       </c>
       <c r="E10" s="3">
-        <v>735400</v>
+        <v>1518100</v>
       </c>
       <c r="F10" s="3">
-        <v>438700</v>
+        <v>717400</v>
       </c>
       <c r="G10" s="3">
-        <v>27800</v>
+        <v>428000</v>
       </c>
       <c r="H10" s="3">
-        <v>4100</v>
+        <v>27100</v>
       </c>
       <c r="I10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1501900</v>
+        <v>1048100</v>
       </c>
       <c r="E17" s="3">
-        <v>554700</v>
+        <v>1465100</v>
       </c>
       <c r="F17" s="3">
-        <v>308900</v>
+        <v>541100</v>
       </c>
       <c r="G17" s="3">
-        <v>20900</v>
+        <v>301400</v>
       </c>
       <c r="H17" s="3">
-        <v>5200</v>
+        <v>20400</v>
       </c>
       <c r="I17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>205500</v>
+        <v>180200</v>
       </c>
       <c r="E18" s="3">
-        <v>240700</v>
+        <v>201500</v>
       </c>
       <c r="F18" s="3">
-        <v>155600</v>
+        <v>234800</v>
       </c>
       <c r="G18" s="3">
-        <v>9100</v>
+        <v>151800</v>
       </c>
       <c r="H18" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,68 +1050,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>49100</v>
+        <v>15000</v>
       </c>
       <c r="E20" s="3">
-        <v>10800</v>
+        <v>46800</v>
       </c>
       <c r="F20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>260200</v>
+        <v>212800</v>
       </c>
       <c r="E21" s="3">
-        <v>254900</v>
+        <v>253800</v>
       </c>
       <c r="F21" s="3">
-        <v>159700</v>
+        <v>248700</v>
       </c>
       <c r="G21" s="3">
-        <v>9300</v>
+        <v>155800</v>
       </c>
       <c r="H21" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,69 +1146,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>254600</v>
+        <v>195200</v>
       </c>
       <c r="E23" s="3">
-        <v>251500</v>
+        <v>248300</v>
       </c>
       <c r="F23" s="3">
-        <v>158200</v>
+        <v>245300</v>
       </c>
       <c r="G23" s="3">
-        <v>9200</v>
+        <v>154300</v>
       </c>
       <c r="H23" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27900</v>
+        <v>33500</v>
       </c>
       <c r="E24" s="3">
-        <v>54700</v>
+        <v>27200</v>
       </c>
       <c r="F24" s="3">
+        <v>53400</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>226700</v>
+        <v>161700</v>
       </c>
       <c r="E26" s="3">
-        <v>196800</v>
+        <v>221100</v>
       </c>
       <c r="F26" s="3">
-        <v>160200</v>
+        <v>192000</v>
       </c>
       <c r="G26" s="3">
-        <v>6300</v>
+        <v>156300</v>
       </c>
       <c r="H26" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>226700</v>
+        <v>161700</v>
       </c>
       <c r="E27" s="3">
-        <v>196800</v>
+        <v>221100</v>
       </c>
       <c r="F27" s="3">
-        <v>160200</v>
+        <v>192000</v>
       </c>
       <c r="G27" s="3">
-        <v>6300</v>
+        <v>156300</v>
       </c>
       <c r="H27" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-49100</v>
+        <v>-15000</v>
       </c>
       <c r="E32" s="3">
-        <v>-10800</v>
+        <v>-46800</v>
       </c>
       <c r="F32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>226700</v>
+        <v>161700</v>
       </c>
       <c r="E33" s="3">
-        <v>196800</v>
+        <v>221100</v>
       </c>
       <c r="F33" s="3">
-        <v>160200</v>
+        <v>192000</v>
       </c>
       <c r="G33" s="3">
-        <v>6300</v>
+        <v>156300</v>
       </c>
       <c r="H33" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>226700</v>
+        <v>161700</v>
       </c>
       <c r="E35" s="3">
-        <v>196800</v>
+        <v>221100</v>
       </c>
       <c r="F35" s="3">
-        <v>160200</v>
+        <v>192000</v>
       </c>
       <c r="G35" s="3">
-        <v>6300</v>
+        <v>156300</v>
       </c>
       <c r="H35" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,38 +1646,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>374000</v>
+        <v>448200</v>
       </c>
       <c r="E41" s="3">
-        <v>266500</v>
+        <v>365400</v>
       </c>
       <c r="F41" s="3">
-        <v>138900</v>
+        <v>260300</v>
       </c>
       <c r="G41" s="3">
-        <v>18700</v>
+        <v>135700</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>18300</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,39 +1709,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>263800</v>
+        <v>226200</v>
       </c>
       <c r="E43" s="3">
-        <v>19900</v>
+        <v>257700</v>
       </c>
       <c r="F43" s="3">
-        <v>4300</v>
+        <v>19400</v>
       </c>
       <c r="G43" s="3">
-        <v>3800</v>
+        <v>4200</v>
       </c>
       <c r="H43" s="3">
-        <v>8900</v>
+        <v>3700</v>
       </c>
       <c r="I43" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,39 +1775,45 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>383500</v>
+        <v>27500</v>
       </c>
       <c r="E45" s="3">
-        <v>153400</v>
+        <v>374700</v>
       </c>
       <c r="F45" s="3">
-        <v>67000</v>
+        <v>149800</v>
       </c>
       <c r="G45" s="3">
-        <v>5500</v>
+        <v>65400</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>5300</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,69 +1841,78 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>981300</v>
+        <v>536900</v>
       </c>
       <c r="E47" s="3">
-        <v>253200</v>
+        <v>958600</v>
       </c>
       <c r="F47" s="3">
-        <v>233600</v>
+        <v>247400</v>
       </c>
       <c r="G47" s="3">
-        <v>5600</v>
+        <v>228200</v>
       </c>
       <c r="H47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>51100</v>
+        <v>74300</v>
       </c>
       <c r="E48" s="3">
-        <v>11800</v>
+        <v>49900</v>
       </c>
       <c r="F48" s="3">
-        <v>5100</v>
+        <v>11500</v>
       </c>
       <c r="G48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,26 +2006,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>87800</v>
+        <v>16300</v>
       </c>
       <c r="E52" s="3">
-        <v>374000</v>
+        <v>85700</v>
       </c>
       <c r="F52" s="3">
-        <v>237400</v>
+        <v>365400</v>
       </c>
       <c r="G52" s="3">
-        <v>14600</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>231900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>14300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2044900</v>
+        <v>1351800</v>
       </c>
       <c r="E54" s="3">
-        <v>1078800</v>
+        <v>1997500</v>
       </c>
       <c r="F54" s="3">
-        <v>686300</v>
+        <v>1053800</v>
       </c>
       <c r="G54" s="3">
-        <v>48500</v>
+        <v>670400</v>
       </c>
       <c r="H54" s="3">
-        <v>9300</v>
+        <v>47400</v>
       </c>
       <c r="I54" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,26 +2138,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44100</v>
+        <v>6100</v>
       </c>
       <c r="E57" s="3">
-        <v>4900</v>
+        <v>43000</v>
       </c>
       <c r="F57" s="3">
-        <v>2000</v>
+        <v>4700</v>
       </c>
       <c r="G57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,9 +2168,12 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2068,39 +2201,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1720600</v>
+        <v>379700</v>
       </c>
       <c r="E59" s="3">
-        <v>213300</v>
+        <v>1680800</v>
       </c>
       <c r="F59" s="3">
-        <v>202800</v>
+        <v>208400</v>
       </c>
       <c r="G59" s="3">
-        <v>12100</v>
+        <v>198100</v>
       </c>
       <c r="H59" s="3">
-        <v>4100</v>
+        <v>11800</v>
       </c>
       <c r="I59" s="3">
-        <v>300</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>4000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>200</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2128,17 +2267,20 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>27600</v>
+        <v>2600</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2158,21 +2300,24 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>69800</v>
+        <v>30700</v>
       </c>
       <c r="E62" s="3">
+        <v>68200</v>
+      </c>
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2097000</v>
+        <v>722400</v>
       </c>
       <c r="E66" s="3">
-        <v>652600</v>
+        <v>2048500</v>
       </c>
       <c r="F66" s="3">
-        <v>379300</v>
+        <v>637500</v>
       </c>
       <c r="G66" s="3">
-        <v>26900</v>
+        <v>370500</v>
       </c>
       <c r="H66" s="3">
-        <v>4100</v>
+        <v>26300</v>
       </c>
       <c r="I66" s="3">
-        <v>300</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>4000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>306600</v>
+        <v>-74800</v>
       </c>
       <c r="E72" s="3">
-        <v>263300</v>
+        <v>299500</v>
       </c>
       <c r="F72" s="3">
-        <v>168900</v>
+        <v>257200</v>
       </c>
       <c r="G72" s="3">
-        <v>4200</v>
+        <v>165000</v>
       </c>
       <c r="H72" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-2100</v>
       </c>
-      <c r="I72" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>-1400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-52100</v>
+        <v>629300</v>
       </c>
       <c r="E76" s="3">
-        <v>426100</v>
+        <v>-50900</v>
       </c>
       <c r="F76" s="3">
-        <v>307000</v>
+        <v>416300</v>
       </c>
       <c r="G76" s="3">
-        <v>21600</v>
+        <v>299900</v>
       </c>
       <c r="H76" s="3">
-        <v>5200</v>
+        <v>21100</v>
       </c>
       <c r="I76" s="3">
-        <v>500</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>226700</v>
+        <v>161700</v>
       </c>
       <c r="E81" s="3">
-        <v>196800</v>
+        <v>221100</v>
       </c>
       <c r="F81" s="3">
-        <v>160200</v>
+        <v>192000</v>
       </c>
       <c r="G81" s="3">
-        <v>6300</v>
+        <v>156300</v>
       </c>
       <c r="H81" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5700</v>
+        <v>17600</v>
       </c>
       <c r="E83" s="3">
-        <v>3400</v>
+        <v>5500</v>
       </c>
       <c r="F83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-568100</v>
+        <v>38400</v>
       </c>
       <c r="E89" s="3">
-        <v>389800</v>
+        <v>-554100</v>
       </c>
       <c r="F89" s="3">
-        <v>303200</v>
+        <v>380200</v>
       </c>
       <c r="G89" s="3">
-        <v>8600</v>
+        <v>295800</v>
       </c>
       <c r="H89" s="3">
-        <v>-5300</v>
+        <v>8400</v>
       </c>
       <c r="I89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7500</v>
+        <v>-6700</v>
       </c>
       <c r="E91" s="3">
-        <v>-10100</v>
+        <v>-7300</v>
       </c>
       <c r="F91" s="3">
-        <v>-4300</v>
+        <v>-9900</v>
       </c>
       <c r="G91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>473800</v>
+        <v>155400</v>
       </c>
       <c r="E94" s="3">
-        <v>-53700</v>
+        <v>462200</v>
       </c>
       <c r="F94" s="3">
-        <v>-204000</v>
+        <v>-52400</v>
       </c>
       <c r="G94" s="3">
-        <v>-6500</v>
+        <v>-199000</v>
       </c>
       <c r="H94" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,19 +3292,20 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-15300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-86800</v>
+        <v>-14900</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-84700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-113800</v>
+        <v>-160900</v>
       </c>
       <c r="E100" s="3">
-        <v>-121900</v>
+        <v>-111100</v>
       </c>
       <c r="F100" s="3">
-        <v>19400</v>
+        <v>-118900</v>
       </c>
       <c r="G100" s="3">
-        <v>16800</v>
+        <v>18900</v>
       </c>
       <c r="H100" s="3">
-        <v>5400</v>
+        <v>16400</v>
       </c>
       <c r="I100" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2300</v>
       </c>
-      <c r="F101" s="3">
-        <v>4200</v>
-      </c>
       <c r="G101" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-207600</v>
+        <v>32800</v>
       </c>
       <c r="E102" s="3">
-        <v>211800</v>
+        <v>-202500</v>
       </c>
       <c r="F102" s="3">
-        <v>122900</v>
+        <v>206600</v>
       </c>
       <c r="G102" s="3">
-        <v>18700</v>
+        <v>119900</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>18300</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1228300</v>
+        <v>1274600</v>
       </c>
       <c r="E8" s="3">
-        <v>1666600</v>
+        <v>1729400</v>
       </c>
       <c r="F8" s="3">
-        <v>775800</v>
+        <v>805100</v>
       </c>
       <c r="G8" s="3">
-        <v>453200</v>
+        <v>470300</v>
       </c>
       <c r="H8" s="3">
-        <v>29300</v>
+        <v>30400</v>
       </c>
       <c r="I8" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>93100</v>
+        <v>96600</v>
       </c>
       <c r="E9" s="3">
-        <v>148500</v>
+        <v>154100</v>
       </c>
       <c r="F9" s="3">
-        <v>58500</v>
+        <v>60700</v>
       </c>
       <c r="G9" s="3">
-        <v>25200</v>
+        <v>26200</v>
       </c>
       <c r="H9" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I9" s="3">
         <v>500</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1135200</v>
+        <v>1178000</v>
       </c>
       <c r="E10" s="3">
-        <v>1518100</v>
+        <v>1575300</v>
       </c>
       <c r="F10" s="3">
-        <v>717400</v>
+        <v>744400</v>
       </c>
       <c r="G10" s="3">
-        <v>428000</v>
+        <v>444100</v>
       </c>
       <c r="H10" s="3">
-        <v>27100</v>
+        <v>28100</v>
       </c>
       <c r="I10" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1048100</v>
+        <v>1087600</v>
       </c>
       <c r="E17" s="3">
-        <v>1465100</v>
+        <v>1520300</v>
       </c>
       <c r="F17" s="3">
-        <v>541100</v>
+        <v>561500</v>
       </c>
       <c r="G17" s="3">
-        <v>301400</v>
+        <v>312700</v>
       </c>
       <c r="H17" s="3">
-        <v>20400</v>
+        <v>21100</v>
       </c>
       <c r="I17" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="J17" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>180200</v>
+        <v>187000</v>
       </c>
       <c r="E18" s="3">
-        <v>201500</v>
+        <v>209100</v>
       </c>
       <c r="F18" s="3">
-        <v>234800</v>
+        <v>243600</v>
       </c>
       <c r="G18" s="3">
-        <v>151800</v>
+        <v>157500</v>
       </c>
       <c r="H18" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="I18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J18" s="3">
         <v>-1200</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15000</v>
+        <v>15600</v>
       </c>
       <c r="E20" s="3">
-        <v>46800</v>
+        <v>48500</v>
       </c>
       <c r="F20" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="G20" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>212800</v>
+        <v>220800</v>
       </c>
       <c r="E21" s="3">
-        <v>253800</v>
+        <v>263400</v>
       </c>
       <c r="F21" s="3">
-        <v>248700</v>
+        <v>258000</v>
       </c>
       <c r="G21" s="3">
-        <v>155800</v>
+        <v>161600</v>
       </c>
       <c r="H21" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="I21" s="3">
         <v>-600</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>195200</v>
+        <v>202600</v>
       </c>
       <c r="E23" s="3">
-        <v>248300</v>
+        <v>257700</v>
       </c>
       <c r="F23" s="3">
-        <v>245300</v>
+        <v>254600</v>
       </c>
       <c r="G23" s="3">
-        <v>154300</v>
+        <v>160100</v>
       </c>
       <c r="H23" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="I23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J23" s="3">
         <v>-1200</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33500</v>
+        <v>34700</v>
       </c>
       <c r="E24" s="3">
-        <v>27200</v>
+        <v>28200</v>
       </c>
       <c r="F24" s="3">
-        <v>53400</v>
+        <v>55400</v>
       </c>
       <c r="G24" s="3">
         <v>-2000</v>
       </c>
       <c r="H24" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>161700</v>
+        <v>167800</v>
       </c>
       <c r="E26" s="3">
-        <v>221100</v>
+        <v>229400</v>
       </c>
       <c r="F26" s="3">
-        <v>192000</v>
+        <v>199200</v>
       </c>
       <c r="G26" s="3">
-        <v>156300</v>
+        <v>162100</v>
       </c>
       <c r="H26" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="I26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J26" s="3">
         <v>-1200</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>161700</v>
+        <v>167800</v>
       </c>
       <c r="E27" s="3">
-        <v>221100</v>
+        <v>229400</v>
       </c>
       <c r="F27" s="3">
-        <v>192000</v>
+        <v>199200</v>
       </c>
       <c r="G27" s="3">
-        <v>156300</v>
+        <v>162100</v>
       </c>
       <c r="H27" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="I27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J27" s="3">
         <v>-1200</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15000</v>
+        <v>-15600</v>
       </c>
       <c r="E32" s="3">
-        <v>-46800</v>
+        <v>-48500</v>
       </c>
       <c r="F32" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="G32" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>161700</v>
+        <v>167800</v>
       </c>
       <c r="E33" s="3">
-        <v>221100</v>
+        <v>229400</v>
       </c>
       <c r="F33" s="3">
-        <v>192000</v>
+        <v>199200</v>
       </c>
       <c r="G33" s="3">
-        <v>156300</v>
+        <v>162100</v>
       </c>
       <c r="H33" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="I33" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J33" s="3">
         <v>-1200</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>161700</v>
+        <v>167800</v>
       </c>
       <c r="E35" s="3">
-        <v>221100</v>
+        <v>229400</v>
       </c>
       <c r="F35" s="3">
-        <v>192000</v>
+        <v>199200</v>
       </c>
       <c r="G35" s="3">
-        <v>156300</v>
+        <v>162100</v>
       </c>
       <c r="H35" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="I35" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J35" s="3">
         <v>-1200</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>448200</v>
+        <v>464500</v>
       </c>
       <c r="E41" s="3">
-        <v>365400</v>
+        <v>378600</v>
       </c>
       <c r="F41" s="3">
-        <v>260300</v>
+        <v>269700</v>
       </c>
       <c r="G41" s="3">
-        <v>135700</v>
+        <v>140600</v>
       </c>
       <c r="H41" s="3">
-        <v>18300</v>
+        <v>19000</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>226200</v>
+        <v>234300</v>
       </c>
       <c r="E43" s="3">
-        <v>257700</v>
+        <v>267000</v>
       </c>
       <c r="F43" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="G43" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H43" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I43" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27500</v>
+        <v>28400</v>
       </c>
       <c r="E45" s="3">
-        <v>374700</v>
+        <v>388200</v>
       </c>
       <c r="F45" s="3">
-        <v>149800</v>
+        <v>155200</v>
       </c>
       <c r="G45" s="3">
-        <v>65400</v>
+        <v>67800</v>
       </c>
       <c r="H45" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>536900</v>
+        <v>556300</v>
       </c>
       <c r="E47" s="3">
-        <v>958600</v>
+        <v>993300</v>
       </c>
       <c r="F47" s="3">
-        <v>247400</v>
+        <v>256300</v>
       </c>
       <c r="G47" s="3">
-        <v>228200</v>
+        <v>236400</v>
       </c>
       <c r="H47" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>74300</v>
+        <v>77000</v>
       </c>
       <c r="E48" s="3">
-        <v>49900</v>
+        <v>51700</v>
       </c>
       <c r="F48" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="G48" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="E52" s="3">
-        <v>85700</v>
+        <v>88800</v>
       </c>
       <c r="F52" s="3">
-        <v>365400</v>
+        <v>378600</v>
       </c>
       <c r="G52" s="3">
-        <v>231900</v>
+        <v>240300</v>
       </c>
       <c r="H52" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1351800</v>
+        <v>1400700</v>
       </c>
       <c r="E54" s="3">
-        <v>1997500</v>
+        <v>2069800</v>
       </c>
       <c r="F54" s="3">
-        <v>1053800</v>
+        <v>1091900</v>
       </c>
       <c r="G54" s="3">
-        <v>670400</v>
+        <v>694700</v>
       </c>
       <c r="H54" s="3">
-        <v>47400</v>
+        <v>49100</v>
       </c>
       <c r="I54" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="J54" s="3">
         <v>700</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E57" s="3">
-        <v>43000</v>
+        <v>44600</v>
       </c>
       <c r="F57" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="G57" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>379700</v>
+        <v>393400</v>
       </c>
       <c r="E59" s="3">
-        <v>1680800</v>
+        <v>1741600</v>
       </c>
       <c r="F59" s="3">
-        <v>208400</v>
+        <v>215900</v>
       </c>
       <c r="G59" s="3">
-        <v>198100</v>
+        <v>205200</v>
       </c>
       <c r="H59" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="I59" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2277,10 +2277,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E61" s="3">
-        <v>27000</v>
+        <v>27900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30700</v>
+        <v>31800</v>
       </c>
       <c r="E62" s="3">
-        <v>68200</v>
+        <v>70700</v>
       </c>
       <c r="F62" s="3">
         <v>1600</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>722400</v>
+        <v>748600</v>
       </c>
       <c r="E66" s="3">
-        <v>2048500</v>
+        <v>2122600</v>
       </c>
       <c r="F66" s="3">
-        <v>637500</v>
+        <v>660600</v>
       </c>
       <c r="G66" s="3">
-        <v>370500</v>
+        <v>383900</v>
       </c>
       <c r="H66" s="3">
-        <v>26300</v>
+        <v>27200</v>
       </c>
       <c r="I66" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-74800</v>
+        <v>-77500</v>
       </c>
       <c r="E72" s="3">
-        <v>299500</v>
+        <v>310400</v>
       </c>
       <c r="F72" s="3">
-        <v>257200</v>
+        <v>266500</v>
       </c>
       <c r="G72" s="3">
-        <v>165000</v>
+        <v>171000</v>
       </c>
       <c r="H72" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I72" s="3">
         <v>-2100</v>
       </c>
       <c r="J72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>629300</v>
+        <v>652100</v>
       </c>
       <c r="E76" s="3">
-        <v>-50900</v>
+        <v>-52800</v>
       </c>
       <c r="F76" s="3">
-        <v>416300</v>
+        <v>431300</v>
       </c>
       <c r="G76" s="3">
-        <v>299900</v>
+        <v>310800</v>
       </c>
       <c r="H76" s="3">
-        <v>21100</v>
+        <v>21900</v>
       </c>
       <c r="I76" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="J76" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>161700</v>
+        <v>167800</v>
       </c>
       <c r="E81" s="3">
-        <v>221100</v>
+        <v>229400</v>
       </c>
       <c r="F81" s="3">
-        <v>192000</v>
+        <v>199200</v>
       </c>
       <c r="G81" s="3">
-        <v>156300</v>
+        <v>162100</v>
       </c>
       <c r="H81" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="I81" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J81" s="3">
         <v>-1200</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17600</v>
+        <v>18300</v>
       </c>
       <c r="E83" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="F83" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G83" s="3">
         <v>1500</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38400</v>
+        <v>39800</v>
       </c>
       <c r="E89" s="3">
-        <v>-554100</v>
+        <v>-575000</v>
       </c>
       <c r="F89" s="3">
-        <v>380200</v>
+        <v>394500</v>
       </c>
       <c r="G89" s="3">
-        <v>295800</v>
+        <v>306900</v>
       </c>
       <c r="H89" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="I89" s="3">
-        <v>-5200</v>
+        <v>-5400</v>
       </c>
       <c r="J89" s="3">
         <v>-1600</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="E91" s="3">
-        <v>-7300</v>
+        <v>-7600</v>
       </c>
       <c r="F91" s="3">
-        <v>-9900</v>
+        <v>-10200</v>
       </c>
       <c r="G91" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>155400</v>
+        <v>161200</v>
       </c>
       <c r="E94" s="3">
-        <v>462200</v>
+        <v>479600</v>
       </c>
       <c r="F94" s="3">
-        <v>-52400</v>
+        <v>-54400</v>
       </c>
       <c r="G94" s="3">
-        <v>-199000</v>
+        <v>-206500</v>
       </c>
       <c r="H94" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -3302,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-14900</v>
+        <v>-15500</v>
       </c>
       <c r="F96" s="3">
-        <v>-84700</v>
+        <v>-87900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-160900</v>
+        <v>-167000</v>
       </c>
       <c r="E100" s="3">
-        <v>-111100</v>
+        <v>-115200</v>
       </c>
       <c r="F100" s="3">
-        <v>-118900</v>
+        <v>-123400</v>
       </c>
       <c r="G100" s="3">
-        <v>18900</v>
+        <v>19600</v>
       </c>
       <c r="H100" s="3">
-        <v>16400</v>
+        <v>17000</v>
       </c>
       <c r="I100" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="J100" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3473,7 +3473,7 @@
         <v>-2300</v>
       </c>
       <c r="G101" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H101" s="3">
         <v>-300</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32800</v>
+        <v>34100</v>
       </c>
       <c r="E102" s="3">
-        <v>-202500</v>
+        <v>-210100</v>
       </c>
       <c r="F102" s="3">
-        <v>206600</v>
+        <v>214400</v>
       </c>
       <c r="G102" s="3">
-        <v>119900</v>
+        <v>124400</v>
       </c>
       <c r="H102" s="3">
-        <v>18300</v>
+        <v>18900</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1274600</v>
+        <v>1335000</v>
       </c>
       <c r="E8" s="3">
-        <v>1729400</v>
+        <v>1811400</v>
       </c>
       <c r="F8" s="3">
-        <v>805100</v>
+        <v>843300</v>
       </c>
       <c r="G8" s="3">
-        <v>470300</v>
+        <v>492600</v>
       </c>
       <c r="H8" s="3">
-        <v>30400</v>
+        <v>31800</v>
       </c>
       <c r="I8" s="3">
-        <v>4600</v>
+        <v>4900</v>
       </c>
       <c r="J8" s="3">
         <v>500</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>96600</v>
+        <v>101200</v>
       </c>
       <c r="E9" s="3">
-        <v>154100</v>
+        <v>161400</v>
       </c>
       <c r="F9" s="3">
-        <v>60700</v>
+        <v>63600</v>
       </c>
       <c r="G9" s="3">
-        <v>26200</v>
+        <v>27400</v>
       </c>
       <c r="H9" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I9" s="3">
         <v>500</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1178000</v>
+        <v>1233900</v>
       </c>
       <c r="E10" s="3">
-        <v>1575300</v>
+        <v>1650000</v>
       </c>
       <c r="F10" s="3">
-        <v>744400</v>
+        <v>779700</v>
       </c>
       <c r="G10" s="3">
-        <v>444100</v>
+        <v>465200</v>
       </c>
       <c r="H10" s="3">
-        <v>28100</v>
+        <v>29400</v>
       </c>
       <c r="I10" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1087600</v>
+        <v>1139200</v>
       </c>
       <c r="E17" s="3">
-        <v>1520300</v>
+        <v>1592400</v>
       </c>
       <c r="F17" s="3">
-        <v>561500</v>
+        <v>588100</v>
       </c>
       <c r="G17" s="3">
-        <v>312700</v>
+        <v>327500</v>
       </c>
       <c r="H17" s="3">
-        <v>21100</v>
+        <v>22100</v>
       </c>
       <c r="I17" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="J17" s="3">
         <v>1700</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>187000</v>
+        <v>195800</v>
       </c>
       <c r="E18" s="3">
-        <v>209100</v>
+        <v>219100</v>
       </c>
       <c r="F18" s="3">
-        <v>243600</v>
+        <v>255200</v>
       </c>
       <c r="G18" s="3">
-        <v>157500</v>
+        <v>165000</v>
       </c>
       <c r="H18" s="3">
-        <v>9200</v>
+        <v>9700</v>
       </c>
       <c r="I18" s="3">
         <v>-700</v>
       </c>
       <c r="J18" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15600</v>
+        <v>16300</v>
       </c>
       <c r="E20" s="3">
-        <v>48500</v>
+        <v>50800</v>
       </c>
       <c r="F20" s="3">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="G20" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>220800</v>
+        <v>231300</v>
       </c>
       <c r="E21" s="3">
-        <v>263400</v>
+        <v>275900</v>
       </c>
       <c r="F21" s="3">
-        <v>258000</v>
+        <v>270300</v>
       </c>
       <c r="G21" s="3">
-        <v>161600</v>
+        <v>169300</v>
       </c>
       <c r="H21" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="I21" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J21" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>202600</v>
+        <v>212200</v>
       </c>
       <c r="E23" s="3">
-        <v>257700</v>
+        <v>269900</v>
       </c>
       <c r="F23" s="3">
-        <v>254600</v>
+        <v>266700</v>
       </c>
       <c r="G23" s="3">
-        <v>160100</v>
+        <v>167700</v>
       </c>
       <c r="H23" s="3">
-        <v>9300</v>
+        <v>9800</v>
       </c>
       <c r="I23" s="3">
         <v>-700</v>
       </c>
       <c r="J23" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34700</v>
+        <v>36400</v>
       </c>
       <c r="E24" s="3">
-        <v>28200</v>
+        <v>29600</v>
       </c>
       <c r="F24" s="3">
-        <v>55400</v>
+        <v>58000</v>
       </c>
       <c r="G24" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H24" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>167800</v>
+        <v>175800</v>
       </c>
       <c r="E26" s="3">
-        <v>229400</v>
+        <v>240300</v>
       </c>
       <c r="F26" s="3">
-        <v>199200</v>
+        <v>208700</v>
       </c>
       <c r="G26" s="3">
-        <v>162100</v>
+        <v>169800</v>
       </c>
       <c r="H26" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="I26" s="3">
         <v>-700</v>
       </c>
       <c r="J26" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>167800</v>
+        <v>175800</v>
       </c>
       <c r="E27" s="3">
-        <v>229400</v>
+        <v>240300</v>
       </c>
       <c r="F27" s="3">
-        <v>199200</v>
+        <v>208700</v>
       </c>
       <c r="G27" s="3">
-        <v>162100</v>
+        <v>169800</v>
       </c>
       <c r="H27" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="I27" s="3">
         <v>-700</v>
       </c>
       <c r="J27" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15600</v>
+        <v>-16300</v>
       </c>
       <c r="E32" s="3">
-        <v>-48500</v>
+        <v>-50800</v>
       </c>
       <c r="F32" s="3">
-        <v>-11000</v>
+        <v>-11500</v>
       </c>
       <c r="G32" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>167800</v>
+        <v>175800</v>
       </c>
       <c r="E33" s="3">
-        <v>229400</v>
+        <v>240300</v>
       </c>
       <c r="F33" s="3">
-        <v>199200</v>
+        <v>208700</v>
       </c>
       <c r="G33" s="3">
-        <v>162100</v>
+        <v>169800</v>
       </c>
       <c r="H33" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="I33" s="3">
         <v>-700</v>
       </c>
       <c r="J33" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>167800</v>
+        <v>175800</v>
       </c>
       <c r="E35" s="3">
-        <v>229400</v>
+        <v>240300</v>
       </c>
       <c r="F35" s="3">
-        <v>199200</v>
+        <v>208700</v>
       </c>
       <c r="G35" s="3">
-        <v>162100</v>
+        <v>169800</v>
       </c>
       <c r="H35" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="I35" s="3">
         <v>-700</v>
       </c>
       <c r="J35" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>464500</v>
+        <v>486500</v>
       </c>
       <c r="E41" s="3">
-        <v>378600</v>
+        <v>396600</v>
       </c>
       <c r="F41" s="3">
-        <v>269700</v>
+        <v>282500</v>
       </c>
       <c r="G41" s="3">
-        <v>140600</v>
+        <v>147300</v>
       </c>
       <c r="H41" s="3">
-        <v>19000</v>
+        <v>19900</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>234300</v>
+        <v>245500</v>
       </c>
       <c r="E43" s="3">
-        <v>267000</v>
+        <v>279700</v>
       </c>
       <c r="F43" s="3">
-        <v>20100</v>
+        <v>21100</v>
       </c>
       <c r="G43" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="H43" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="I43" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28400</v>
+        <v>29800</v>
       </c>
       <c r="E45" s="3">
-        <v>388200</v>
+        <v>406600</v>
       </c>
       <c r="F45" s="3">
-        <v>155200</v>
+        <v>162600</v>
       </c>
       <c r="G45" s="3">
-        <v>67800</v>
+        <v>71000</v>
       </c>
       <c r="H45" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -1851,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>556300</v>
+        <v>582700</v>
       </c>
       <c r="E47" s="3">
-        <v>993300</v>
+        <v>1040400</v>
       </c>
       <c r="F47" s="3">
-        <v>256300</v>
+        <v>268500</v>
       </c>
       <c r="G47" s="3">
-        <v>236400</v>
+        <v>247600</v>
       </c>
       <c r="H47" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>77000</v>
+        <v>80600</v>
       </c>
       <c r="E48" s="3">
-        <v>51700</v>
+        <v>54100</v>
       </c>
       <c r="F48" s="3">
-        <v>11900</v>
+        <v>12500</v>
       </c>
       <c r="G48" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16900</v>
+        <v>17700</v>
       </c>
       <c r="E52" s="3">
-        <v>88800</v>
+        <v>93000</v>
       </c>
       <c r="F52" s="3">
-        <v>378600</v>
+        <v>396500</v>
       </c>
       <c r="G52" s="3">
-        <v>240300</v>
+        <v>251700</v>
       </c>
       <c r="H52" s="3">
-        <v>14800</v>
+        <v>15500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1400700</v>
+        <v>1467100</v>
       </c>
       <c r="E54" s="3">
-        <v>2069800</v>
+        <v>2168000</v>
       </c>
       <c r="F54" s="3">
-        <v>1091900</v>
+        <v>1143700</v>
       </c>
       <c r="G54" s="3">
-        <v>694700</v>
+        <v>727600</v>
       </c>
       <c r="H54" s="3">
-        <v>49100</v>
+        <v>51400</v>
       </c>
       <c r="I54" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="J54" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="E57" s="3">
-        <v>44600</v>
+        <v>46700</v>
       </c>
       <c r="F57" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="G57" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>393400</v>
+        <v>412100</v>
       </c>
       <c r="E59" s="3">
-        <v>1741600</v>
+        <v>1824300</v>
       </c>
       <c r="F59" s="3">
-        <v>215900</v>
+        <v>226100</v>
       </c>
       <c r="G59" s="3">
-        <v>205200</v>
+        <v>215000</v>
       </c>
       <c r="H59" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="I59" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -2277,10 +2277,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E61" s="3">
-        <v>27900</v>
+        <v>29300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31800</v>
+        <v>33300</v>
       </c>
       <c r="E62" s="3">
-        <v>70700</v>
+        <v>74000</v>
       </c>
       <c r="F62" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>748600</v>
+        <v>784100</v>
       </c>
       <c r="E66" s="3">
-        <v>2122600</v>
+        <v>2223300</v>
       </c>
       <c r="F66" s="3">
-        <v>660600</v>
+        <v>691900</v>
       </c>
       <c r="G66" s="3">
-        <v>383900</v>
+        <v>402100</v>
       </c>
       <c r="H66" s="3">
-        <v>27200</v>
+        <v>28500</v>
       </c>
       <c r="I66" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
@@ -2622,22 +2622,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-77500</v>
+        <v>-81200</v>
       </c>
       <c r="E72" s="3">
-        <v>310400</v>
+        <v>325100</v>
       </c>
       <c r="F72" s="3">
-        <v>266500</v>
+        <v>279100</v>
       </c>
       <c r="G72" s="3">
-        <v>171000</v>
+        <v>179100</v>
       </c>
       <c r="H72" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="I72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J72" s="3">
         <v>-1500</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>652100</v>
+        <v>683000</v>
       </c>
       <c r="E76" s="3">
-        <v>-52800</v>
+        <v>-55300</v>
       </c>
       <c r="F76" s="3">
-        <v>431300</v>
+        <v>451800</v>
       </c>
       <c r="G76" s="3">
-        <v>310800</v>
+        <v>325500</v>
       </c>
       <c r="H76" s="3">
-        <v>21900</v>
+        <v>22900</v>
       </c>
       <c r="I76" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="J76" s="3">
         <v>500</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>167800</v>
+        <v>175800</v>
       </c>
       <c r="E81" s="3">
-        <v>229400</v>
+        <v>240300</v>
       </c>
       <c r="F81" s="3">
-        <v>199200</v>
+        <v>208700</v>
       </c>
       <c r="G81" s="3">
-        <v>162100</v>
+        <v>169800</v>
       </c>
       <c r="H81" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="I81" s="3">
         <v>-700</v>
       </c>
       <c r="J81" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18300</v>
+        <v>19100</v>
       </c>
       <c r="E83" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="F83" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="G83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>39800</v>
+        <v>41700</v>
       </c>
       <c r="E89" s="3">
-        <v>-575000</v>
+        <v>-602300</v>
       </c>
       <c r="F89" s="3">
-        <v>394500</v>
+        <v>413200</v>
       </c>
       <c r="G89" s="3">
-        <v>306900</v>
+        <v>321500</v>
       </c>
       <c r="H89" s="3">
-        <v>8700</v>
+        <v>9200</v>
       </c>
       <c r="I89" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="J89" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7000</v>
+        <v>-7300</v>
       </c>
       <c r="E91" s="3">
-        <v>-7600</v>
+        <v>-7900</v>
       </c>
       <c r="F91" s="3">
-        <v>-10200</v>
+        <v>-10700</v>
       </c>
       <c r="G91" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>161200</v>
+        <v>168900</v>
       </c>
       <c r="E94" s="3">
-        <v>479600</v>
+        <v>502300</v>
       </c>
       <c r="F94" s="3">
-        <v>-54400</v>
+        <v>-57000</v>
       </c>
       <c r="G94" s="3">
-        <v>-206500</v>
+        <v>-216300</v>
       </c>
       <c r="H94" s="3">
-        <v>-6500</v>
+        <v>-6800</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -3302,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-15500</v>
+        <v>-16200</v>
       </c>
       <c r="F96" s="3">
-        <v>-87900</v>
+        <v>-92100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-167000</v>
+        <v>-174900</v>
       </c>
       <c r="E100" s="3">
-        <v>-115200</v>
+        <v>-120700</v>
       </c>
       <c r="F100" s="3">
-        <v>-123400</v>
+        <v>-129200</v>
       </c>
       <c r="G100" s="3">
-        <v>19600</v>
+        <v>20600</v>
       </c>
       <c r="H100" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="I100" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="J100" s="3">
         <v>1700</v>
@@ -3467,13 +3467,13 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F101" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="G101" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H101" s="3">
         <v>-300</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>34100</v>
+        <v>35700</v>
       </c>
       <c r="E102" s="3">
-        <v>-210100</v>
+        <v>-220100</v>
       </c>
       <c r="F102" s="3">
-        <v>214400</v>
+        <v>224600</v>
       </c>
       <c r="G102" s="3">
-        <v>124400</v>
+        <v>130300</v>
       </c>
       <c r="H102" s="3">
-        <v>18900</v>
+        <v>19800</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1335000</v>
+        <v>1340800</v>
       </c>
       <c r="E8" s="3">
-        <v>1811400</v>
+        <v>1819300</v>
       </c>
       <c r="F8" s="3">
-        <v>843300</v>
+        <v>846900</v>
       </c>
       <c r="G8" s="3">
-        <v>492600</v>
+        <v>494700</v>
       </c>
       <c r="H8" s="3">
-        <v>31800</v>
+        <v>31900</v>
       </c>
       <c r="I8" s="3">
         <v>4900</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>101200</v>
+        <v>101600</v>
       </c>
       <c r="E9" s="3">
-        <v>161400</v>
+        <v>162100</v>
       </c>
       <c r="F9" s="3">
-        <v>63600</v>
+        <v>63800</v>
       </c>
       <c r="G9" s="3">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="H9" s="3">
         <v>2400</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1233900</v>
+        <v>1239200</v>
       </c>
       <c r="E10" s="3">
-        <v>1650000</v>
+        <v>1657200</v>
       </c>
       <c r="F10" s="3">
-        <v>779700</v>
+        <v>783100</v>
       </c>
       <c r="G10" s="3">
-        <v>465200</v>
+        <v>467200</v>
       </c>
       <c r="H10" s="3">
-        <v>29400</v>
+        <v>29600</v>
       </c>
       <c r="I10" s="3">
         <v>4300</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1139200</v>
+        <v>1144100</v>
       </c>
       <c r="E17" s="3">
-        <v>1592400</v>
+        <v>1599300</v>
       </c>
       <c r="F17" s="3">
-        <v>588100</v>
+        <v>590600</v>
       </c>
       <c r="G17" s="3">
-        <v>327500</v>
+        <v>329000</v>
       </c>
       <c r="H17" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="I17" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="J17" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>195800</v>
+        <v>196700</v>
       </c>
       <c r="E18" s="3">
-        <v>219100</v>
+        <v>220000</v>
       </c>
       <c r="F18" s="3">
-        <v>255200</v>
+        <v>256300</v>
       </c>
       <c r="G18" s="3">
-        <v>165000</v>
+        <v>165700</v>
       </c>
       <c r="H18" s="3">
         <v>9700</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="E20" s="3">
-        <v>50800</v>
+        <v>51000</v>
       </c>
       <c r="F20" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="G20" s="3">
         <v>2700</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>231300</v>
+        <v>232400</v>
       </c>
       <c r="E21" s="3">
-        <v>275900</v>
+        <v>277100</v>
       </c>
       <c r="F21" s="3">
-        <v>270300</v>
+        <v>271500</v>
       </c>
       <c r="G21" s="3">
-        <v>169300</v>
+        <v>170100</v>
       </c>
       <c r="H21" s="3">
         <v>9900</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>212200</v>
+        <v>213100</v>
       </c>
       <c r="E23" s="3">
-        <v>269900</v>
+        <v>271000</v>
       </c>
       <c r="F23" s="3">
-        <v>266700</v>
+        <v>267800</v>
       </c>
       <c r="G23" s="3">
-        <v>167700</v>
+        <v>168400</v>
       </c>
       <c r="H23" s="3">
         <v>9800</v>
@@ -1189,13 +1189,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36400</v>
+        <v>36500</v>
       </c>
       <c r="E24" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="F24" s="3">
-        <v>58000</v>
+        <v>58200</v>
       </c>
       <c r="G24" s="3">
         <v>-2100</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>175800</v>
+        <v>176600</v>
       </c>
       <c r="E26" s="3">
-        <v>240300</v>
+        <v>241400</v>
       </c>
       <c r="F26" s="3">
-        <v>208700</v>
+        <v>209600</v>
       </c>
       <c r="G26" s="3">
-        <v>169800</v>
+        <v>170600</v>
       </c>
       <c r="H26" s="3">
         <v>6700</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>175800</v>
+        <v>176600</v>
       </c>
       <c r="E27" s="3">
-        <v>240300</v>
+        <v>241400</v>
       </c>
       <c r="F27" s="3">
-        <v>208700</v>
+        <v>209600</v>
       </c>
       <c r="G27" s="3">
-        <v>169800</v>
+        <v>170600</v>
       </c>
       <c r="H27" s="3">
         <v>6700</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16300</v>
+        <v>-16400</v>
       </c>
       <c r="E32" s="3">
-        <v>-50800</v>
+        <v>-51000</v>
       </c>
       <c r="F32" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="G32" s="3">
         <v>-2700</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>175800</v>
+        <v>176600</v>
       </c>
       <c r="E33" s="3">
-        <v>240300</v>
+        <v>241400</v>
       </c>
       <c r="F33" s="3">
-        <v>208700</v>
+        <v>209600</v>
       </c>
       <c r="G33" s="3">
-        <v>169800</v>
+        <v>170600</v>
       </c>
       <c r="H33" s="3">
         <v>6700</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>175800</v>
+        <v>176600</v>
       </c>
       <c r="E35" s="3">
-        <v>240300</v>
+        <v>241400</v>
       </c>
       <c r="F35" s="3">
-        <v>208700</v>
+        <v>209600</v>
       </c>
       <c r="G35" s="3">
-        <v>169800</v>
+        <v>170600</v>
       </c>
       <c r="H35" s="3">
         <v>6700</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>486500</v>
+        <v>488600</v>
       </c>
       <c r="E41" s="3">
-        <v>396600</v>
+        <v>398300</v>
       </c>
       <c r="F41" s="3">
-        <v>282500</v>
+        <v>283700</v>
       </c>
       <c r="G41" s="3">
-        <v>147300</v>
+        <v>147900</v>
       </c>
       <c r="H41" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -1719,13 +1719,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>245500</v>
+        <v>246500</v>
       </c>
       <c r="E43" s="3">
-        <v>279700</v>
+        <v>280900</v>
       </c>
       <c r="F43" s="3">
-        <v>21100</v>
+        <v>21200</v>
       </c>
       <c r="G43" s="3">
         <v>4600</v>
@@ -1734,7 +1734,7 @@
         <v>4000</v>
       </c>
       <c r="I43" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="E45" s="3">
-        <v>406600</v>
+        <v>408400</v>
       </c>
       <c r="F45" s="3">
-        <v>162600</v>
+        <v>163300</v>
       </c>
       <c r="G45" s="3">
-        <v>71000</v>
+        <v>71300</v>
       </c>
       <c r="H45" s="3">
         <v>5800</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>582700</v>
+        <v>585200</v>
       </c>
       <c r="E47" s="3">
-        <v>1040400</v>
+        <v>1044900</v>
       </c>
       <c r="F47" s="3">
-        <v>268500</v>
+        <v>269600</v>
       </c>
       <c r="G47" s="3">
-        <v>247600</v>
+        <v>248700</v>
       </c>
       <c r="H47" s="3">
         <v>5900</v>
@@ -1884,13 +1884,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80600</v>
+        <v>81000</v>
       </c>
       <c r="E48" s="3">
-        <v>54100</v>
+        <v>54400</v>
       </c>
       <c r="F48" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="G48" s="3">
         <v>5400</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="E52" s="3">
-        <v>93000</v>
+        <v>93500</v>
       </c>
       <c r="F52" s="3">
-        <v>396500</v>
+        <v>398300</v>
       </c>
       <c r="G52" s="3">
-        <v>251700</v>
+        <v>252800</v>
       </c>
       <c r="H52" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1467100</v>
+        <v>1473500</v>
       </c>
       <c r="E54" s="3">
-        <v>2168000</v>
+        <v>2177400</v>
       </c>
       <c r="F54" s="3">
-        <v>1143700</v>
+        <v>1148700</v>
       </c>
       <c r="G54" s="3">
-        <v>727600</v>
+        <v>730800</v>
       </c>
       <c r="H54" s="3">
-        <v>51400</v>
+        <v>51700</v>
       </c>
       <c r="I54" s="3">
         <v>9900</v>
@@ -2145,13 +2145,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E57" s="3">
-        <v>46700</v>
+        <v>46900</v>
       </c>
       <c r="F57" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G57" s="3">
         <v>2100</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>412100</v>
+        <v>413900</v>
       </c>
       <c r="E59" s="3">
-        <v>1824300</v>
+        <v>1832200</v>
       </c>
       <c r="F59" s="3">
-        <v>226100</v>
+        <v>227100</v>
       </c>
       <c r="G59" s="3">
-        <v>215000</v>
+        <v>215900</v>
       </c>
       <c r="H59" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="I59" s="3">
         <v>4400</v>
@@ -2280,7 +2280,7 @@
         <v>2800</v>
       </c>
       <c r="E61" s="3">
-        <v>29300</v>
+        <v>29400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="E62" s="3">
-        <v>74000</v>
+        <v>74400</v>
       </c>
       <c r="F62" s="3">
         <v>1700</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>784100</v>
+        <v>787500</v>
       </c>
       <c r="E66" s="3">
-        <v>2223300</v>
+        <v>2232900</v>
       </c>
       <c r="F66" s="3">
-        <v>691900</v>
+        <v>694900</v>
       </c>
       <c r="G66" s="3">
-        <v>402100</v>
+        <v>403900</v>
       </c>
       <c r="H66" s="3">
-        <v>28500</v>
+        <v>28600</v>
       </c>
       <c r="I66" s="3">
         <v>4400</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-81200</v>
+        <v>-81500</v>
       </c>
       <c r="E72" s="3">
-        <v>325100</v>
+        <v>326500</v>
       </c>
       <c r="F72" s="3">
-        <v>279100</v>
+        <v>280400</v>
       </c>
       <c r="G72" s="3">
-        <v>179100</v>
+        <v>179800</v>
       </c>
       <c r="H72" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I72" s="3">
         <v>-2200</v>
       </c>
       <c r="J72" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>683000</v>
+        <v>686000</v>
       </c>
       <c r="E76" s="3">
-        <v>-55300</v>
+        <v>-55500</v>
       </c>
       <c r="F76" s="3">
-        <v>451800</v>
+        <v>453800</v>
       </c>
       <c r="G76" s="3">
-        <v>325500</v>
+        <v>326900</v>
       </c>
       <c r="H76" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="I76" s="3">
         <v>5500</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>175800</v>
+        <v>176600</v>
       </c>
       <c r="E81" s="3">
-        <v>240300</v>
+        <v>241400</v>
       </c>
       <c r="F81" s="3">
-        <v>208700</v>
+        <v>209600</v>
       </c>
       <c r="G81" s="3">
-        <v>169800</v>
+        <v>170600</v>
       </c>
       <c r="H81" s="3">
         <v>6700</v>
@@ -2906,7 +2906,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="E83" s="3">
         <v>6000</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>41700</v>
+        <v>41900</v>
       </c>
       <c r="E89" s="3">
-        <v>-602300</v>
+        <v>-604900</v>
       </c>
       <c r="F89" s="3">
-        <v>413200</v>
+        <v>415000</v>
       </c>
       <c r="G89" s="3">
-        <v>321500</v>
+        <v>322900</v>
       </c>
       <c r="H89" s="3">
         <v>9200</v>
@@ -3155,10 +3155,10 @@
         <v>-7300</v>
       </c>
       <c r="E91" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="F91" s="3">
-        <v>-10700</v>
+        <v>-10800</v>
       </c>
       <c r="G91" s="3">
         <v>-4600</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>168900</v>
+        <v>169600</v>
       </c>
       <c r="E94" s="3">
-        <v>502300</v>
+        <v>504500</v>
       </c>
       <c r="F94" s="3">
-        <v>-57000</v>
+        <v>-57200</v>
       </c>
       <c r="G94" s="3">
-        <v>-216300</v>
+        <v>-217200</v>
       </c>
       <c r="H94" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -3302,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="F96" s="3">
-        <v>-92100</v>
+        <v>-92500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-174900</v>
+        <v>-175700</v>
       </c>
       <c r="E100" s="3">
-        <v>-120700</v>
+        <v>-121200</v>
       </c>
       <c r="F100" s="3">
-        <v>-129200</v>
+        <v>-129800</v>
       </c>
       <c r="G100" s="3">
-        <v>20600</v>
+        <v>20700</v>
       </c>
       <c r="H100" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="I100" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="J100" s="3">
         <v>1700</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>35700</v>
+        <v>35900</v>
       </c>
       <c r="E102" s="3">
-        <v>-220100</v>
+        <v>-221000</v>
       </c>
       <c r="F102" s="3">
-        <v>224600</v>
+        <v>225600</v>
       </c>
       <c r="G102" s="3">
-        <v>130300</v>
+        <v>130800</v>
       </c>
       <c r="H102" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1340800</v>
+        <v>618100</v>
       </c>
       <c r="E8" s="3">
-        <v>1819300</v>
+        <v>1369200</v>
       </c>
       <c r="F8" s="3">
-        <v>846900</v>
+        <v>1857800</v>
       </c>
       <c r="G8" s="3">
-        <v>494700</v>
+        <v>864800</v>
       </c>
       <c r="H8" s="3">
-        <v>31900</v>
+        <v>505200</v>
       </c>
       <c r="I8" s="3">
-        <v>4900</v>
+        <v>32600</v>
       </c>
       <c r="J8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>101600</v>
+        <v>172300</v>
       </c>
       <c r="E9" s="3">
-        <v>162100</v>
+        <v>103800</v>
       </c>
       <c r="F9" s="3">
-        <v>63800</v>
+        <v>165600</v>
       </c>
       <c r="G9" s="3">
-        <v>27500</v>
+        <v>65200</v>
       </c>
       <c r="H9" s="3">
+        <v>28100</v>
+      </c>
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
-        <v>500</v>
-      </c>
       <c r="J9" s="3">
+        <v>600</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1239200</v>
+        <v>445800</v>
       </c>
       <c r="E10" s="3">
-        <v>1657200</v>
+        <v>1265400</v>
       </c>
       <c r="F10" s="3">
-        <v>783100</v>
+        <v>1692200</v>
       </c>
       <c r="G10" s="3">
-        <v>467200</v>
+        <v>799600</v>
       </c>
       <c r="H10" s="3">
-        <v>29600</v>
+        <v>477100</v>
       </c>
       <c r="I10" s="3">
-        <v>4300</v>
+        <v>30200</v>
       </c>
       <c r="J10" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,32 +907,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>102300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -924,9 +943,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1144100</v>
+        <v>728200</v>
       </c>
       <c r="E17" s="3">
-        <v>1599300</v>
+        <v>1168300</v>
       </c>
       <c r="F17" s="3">
-        <v>590600</v>
+        <v>1633100</v>
       </c>
       <c r="G17" s="3">
-        <v>329000</v>
+        <v>603100</v>
       </c>
       <c r="H17" s="3">
-        <v>22200</v>
+        <v>335900</v>
       </c>
       <c r="I17" s="3">
-        <v>5600</v>
+        <v>22700</v>
       </c>
       <c r="J17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>196700</v>
+        <v>-110100</v>
       </c>
       <c r="E18" s="3">
-        <v>220000</v>
+        <v>200900</v>
       </c>
       <c r="F18" s="3">
-        <v>256300</v>
+        <v>224700</v>
       </c>
       <c r="G18" s="3">
-        <v>165700</v>
+        <v>261700</v>
       </c>
       <c r="H18" s="3">
-        <v>9700</v>
+        <v>169200</v>
       </c>
       <c r="I18" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,74 +1083,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16400</v>
+        <v>-10500</v>
       </c>
       <c r="E20" s="3">
-        <v>51000</v>
+        <v>16800</v>
       </c>
       <c r="F20" s="3">
-        <v>11600</v>
+        <v>52100</v>
       </c>
       <c r="G20" s="3">
-        <v>2700</v>
+        <v>11800</v>
       </c>
       <c r="H20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>232400</v>
+        <v>-106400</v>
       </c>
       <c r="E21" s="3">
-        <v>277100</v>
+        <v>237200</v>
       </c>
       <c r="F21" s="3">
-        <v>271500</v>
+        <v>299800</v>
       </c>
       <c r="G21" s="3">
-        <v>170100</v>
+        <v>277200</v>
       </c>
       <c r="H21" s="3">
-        <v>9900</v>
+        <v>173600</v>
       </c>
       <c r="I21" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,75 +1188,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>213100</v>
+        <v>-120700</v>
       </c>
       <c r="E23" s="3">
-        <v>271000</v>
+        <v>217600</v>
       </c>
       <c r="F23" s="3">
-        <v>267800</v>
+        <v>276800</v>
       </c>
       <c r="G23" s="3">
-        <v>168400</v>
+        <v>273500</v>
       </c>
       <c r="H23" s="3">
-        <v>9800</v>
+        <v>172000</v>
       </c>
       <c r="I23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36500</v>
+        <v>-12600</v>
       </c>
       <c r="E24" s="3">
-        <v>29700</v>
+        <v>37300</v>
       </c>
       <c r="F24" s="3">
-        <v>58200</v>
+        <v>30300</v>
       </c>
       <c r="G24" s="3">
-        <v>-2100</v>
+        <v>59500</v>
       </c>
       <c r="H24" s="3">
-        <v>3100</v>
+        <v>-2200</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>176600</v>
+        <v>-108100</v>
       </c>
       <c r="E26" s="3">
-        <v>241400</v>
+        <v>180300</v>
       </c>
       <c r="F26" s="3">
-        <v>209600</v>
+        <v>246500</v>
       </c>
       <c r="G26" s="3">
-        <v>170600</v>
+        <v>214000</v>
       </c>
       <c r="H26" s="3">
-        <v>6700</v>
+        <v>174200</v>
       </c>
       <c r="I26" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>176600</v>
+        <v>-108100</v>
       </c>
       <c r="E27" s="3">
-        <v>241400</v>
+        <v>180300</v>
       </c>
       <c r="F27" s="3">
-        <v>209600</v>
+        <v>246500</v>
       </c>
       <c r="G27" s="3">
-        <v>170600</v>
+        <v>214000</v>
       </c>
       <c r="H27" s="3">
-        <v>6700</v>
+        <v>174200</v>
       </c>
       <c r="I27" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16400</v>
+        <v>10500</v>
       </c>
       <c r="E32" s="3">
-        <v>-51000</v>
+        <v>-16800</v>
       </c>
       <c r="F32" s="3">
-        <v>-11600</v>
+        <v>-52100</v>
       </c>
       <c r="G32" s="3">
-        <v>-2700</v>
+        <v>-11800</v>
       </c>
       <c r="H32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>176600</v>
+        <v>-108100</v>
       </c>
       <c r="E33" s="3">
-        <v>241400</v>
+        <v>180300</v>
       </c>
       <c r="F33" s="3">
-        <v>209600</v>
+        <v>246500</v>
       </c>
       <c r="G33" s="3">
-        <v>170600</v>
+        <v>214000</v>
       </c>
       <c r="H33" s="3">
-        <v>6700</v>
+        <v>174200</v>
       </c>
       <c r="I33" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>176600</v>
+        <v>-108100</v>
       </c>
       <c r="E35" s="3">
-        <v>241400</v>
+        <v>180300</v>
       </c>
       <c r="F35" s="3">
-        <v>209600</v>
+        <v>246500</v>
       </c>
       <c r="G35" s="3">
-        <v>170600</v>
+        <v>214000</v>
       </c>
       <c r="H35" s="3">
-        <v>6700</v>
+        <v>174200</v>
       </c>
       <c r="I35" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,41 +1732,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>488600</v>
+        <v>385300</v>
       </c>
       <c r="E41" s="3">
-        <v>398300</v>
+        <v>498900</v>
       </c>
       <c r="F41" s="3">
-        <v>283700</v>
+        <v>406700</v>
       </c>
       <c r="G41" s="3">
-        <v>147900</v>
+        <v>289700</v>
       </c>
       <c r="H41" s="3">
-        <v>20000</v>
+        <v>151100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,42 +1801,48 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>246500</v>
+        <v>179700</v>
       </c>
       <c r="E43" s="3">
-        <v>280900</v>
+        <v>251700</v>
       </c>
       <c r="F43" s="3">
-        <v>21200</v>
+        <v>286800</v>
       </c>
       <c r="G43" s="3">
-        <v>4600</v>
+        <v>21600</v>
       </c>
       <c r="H43" s="3">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="I43" s="3">
-        <v>9500</v>
+        <v>4100</v>
       </c>
       <c r="J43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,42 +1873,48 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29900</v>
+        <v>17100</v>
       </c>
       <c r="E45" s="3">
-        <v>408400</v>
+        <v>30600</v>
       </c>
       <c r="F45" s="3">
-        <v>163300</v>
+        <v>417000</v>
       </c>
       <c r="G45" s="3">
-        <v>71300</v>
+        <v>166800</v>
       </c>
       <c r="H45" s="3">
-        <v>5800</v>
+        <v>72800</v>
       </c>
       <c r="I45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1844,75 +1945,84 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>585200</v>
+        <v>370500</v>
       </c>
       <c r="E47" s="3">
-        <v>1044900</v>
+        <v>597600</v>
       </c>
       <c r="F47" s="3">
-        <v>269600</v>
+        <v>1067000</v>
       </c>
       <c r="G47" s="3">
-        <v>248700</v>
+        <v>275300</v>
       </c>
       <c r="H47" s="3">
-        <v>5900</v>
+        <v>254000</v>
       </c>
       <c r="I47" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>81000</v>
+        <v>39400</v>
       </c>
       <c r="E48" s="3">
-        <v>54400</v>
+        <v>82700</v>
       </c>
       <c r="F48" s="3">
-        <v>12600</v>
+        <v>55500</v>
       </c>
       <c r="G48" s="3">
-        <v>5400</v>
+        <v>12800</v>
       </c>
       <c r="H48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17800</v>
+        <v>39600</v>
       </c>
       <c r="E52" s="3">
-        <v>93500</v>
+        <v>18200</v>
       </c>
       <c r="F52" s="3">
-        <v>398300</v>
+        <v>95400</v>
       </c>
       <c r="G52" s="3">
-        <v>252800</v>
+        <v>406700</v>
       </c>
       <c r="H52" s="3">
-        <v>15600</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>258100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>15900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1473500</v>
+        <v>1045600</v>
       </c>
       <c r="E54" s="3">
-        <v>2177400</v>
+        <v>1504600</v>
       </c>
       <c r="F54" s="3">
-        <v>1148700</v>
+        <v>2223400</v>
       </c>
       <c r="G54" s="3">
-        <v>730800</v>
+        <v>1173000</v>
       </c>
       <c r="H54" s="3">
-        <v>51700</v>
+        <v>746300</v>
       </c>
       <c r="I54" s="3">
-        <v>9900</v>
+        <v>52800</v>
       </c>
       <c r="J54" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,29 +2268,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6700</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
-        <v>46900</v>
+        <v>6800</v>
       </c>
       <c r="F57" s="3">
-        <v>5200</v>
+        <v>47900</v>
       </c>
       <c r="G57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,9 +2301,12 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2204,42 +2337,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>413900</v>
+        <v>361000</v>
       </c>
       <c r="E59" s="3">
-        <v>1832200</v>
+        <v>422700</v>
       </c>
       <c r="F59" s="3">
-        <v>227100</v>
+        <v>1870900</v>
       </c>
       <c r="G59" s="3">
-        <v>215900</v>
+        <v>231900</v>
       </c>
       <c r="H59" s="3">
-        <v>12900</v>
+        <v>220500</v>
       </c>
       <c r="I59" s="3">
-        <v>4400</v>
+        <v>13100</v>
       </c>
       <c r="J59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2270,20 +2409,23 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2800</v>
+        <v>78100</v>
       </c>
       <c r="E61" s="3">
-        <v>29400</v>
+        <v>2900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2303,23 +2445,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33400</v>
+        <v>6000</v>
       </c>
       <c r="E62" s="3">
-        <v>74400</v>
+        <v>34100</v>
       </c>
       <c r="F62" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>75900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>787500</v>
+        <v>456300</v>
       </c>
       <c r="E66" s="3">
-        <v>2232900</v>
+        <v>804100</v>
       </c>
       <c r="F66" s="3">
-        <v>694900</v>
+        <v>2280100</v>
       </c>
       <c r="G66" s="3">
-        <v>403900</v>
+        <v>709600</v>
       </c>
       <c r="H66" s="3">
-        <v>28600</v>
+        <v>412400</v>
       </c>
       <c r="I66" s="3">
-        <v>4400</v>
+        <v>29200</v>
       </c>
       <c r="J66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-81500</v>
+        <v>-196200</v>
       </c>
       <c r="E72" s="3">
-        <v>326500</v>
+        <v>-83200</v>
       </c>
       <c r="F72" s="3">
-        <v>280400</v>
+        <v>333400</v>
       </c>
       <c r="G72" s="3">
-        <v>179800</v>
+        <v>286300</v>
       </c>
       <c r="H72" s="3">
-        <v>4500</v>
+        <v>183600</v>
       </c>
       <c r="I72" s="3">
-        <v>-2200</v>
+        <v>4600</v>
       </c>
       <c r="J72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>686000</v>
+        <v>589400</v>
       </c>
       <c r="E76" s="3">
-        <v>-55500</v>
+        <v>700500</v>
       </c>
       <c r="F76" s="3">
-        <v>453800</v>
+        <v>-56700</v>
       </c>
       <c r="G76" s="3">
-        <v>326900</v>
+        <v>463400</v>
       </c>
       <c r="H76" s="3">
-        <v>23000</v>
+        <v>333800</v>
       </c>
       <c r="I76" s="3">
-        <v>5500</v>
+        <v>23500</v>
       </c>
       <c r="J76" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>176600</v>
+        <v>-108100</v>
       </c>
       <c r="E81" s="3">
-        <v>241400</v>
+        <v>180300</v>
       </c>
       <c r="F81" s="3">
-        <v>209600</v>
+        <v>246500</v>
       </c>
       <c r="G81" s="3">
-        <v>170600</v>
+        <v>214000</v>
       </c>
       <c r="H81" s="3">
-        <v>6700</v>
+        <v>174200</v>
       </c>
       <c r="I81" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19200</v>
+        <v>14300</v>
       </c>
       <c r="E83" s="3">
-        <v>6000</v>
+        <v>19600</v>
       </c>
       <c r="F83" s="3">
-        <v>3600</v>
+        <v>23100</v>
       </c>
       <c r="G83" s="3">
-        <v>1600</v>
+        <v>3700</v>
       </c>
       <c r="H83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>41900</v>
+        <v>44000</v>
       </c>
       <c r="E89" s="3">
-        <v>-604900</v>
+        <v>42800</v>
       </c>
       <c r="F89" s="3">
-        <v>415000</v>
+        <v>-617700</v>
       </c>
       <c r="G89" s="3">
-        <v>322900</v>
+        <v>423800</v>
       </c>
       <c r="H89" s="3">
-        <v>9200</v>
+        <v>329700</v>
       </c>
       <c r="I89" s="3">
-        <v>-5600</v>
+        <v>9400</v>
       </c>
       <c r="J89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7300</v>
+        <v>-2100</v>
       </c>
       <c r="E91" s="3">
-        <v>-8000</v>
+        <v>-7500</v>
       </c>
       <c r="F91" s="3">
-        <v>-10800</v>
+        <v>-22000</v>
       </c>
       <c r="G91" s="3">
-        <v>-4600</v>
+        <v>-11000</v>
       </c>
       <c r="H91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>169600</v>
+        <v>-280300</v>
       </c>
       <c r="E94" s="3">
-        <v>504500</v>
+        <v>173200</v>
       </c>
       <c r="F94" s="3">
-        <v>-57200</v>
+        <v>514500</v>
       </c>
       <c r="G94" s="3">
-        <v>-217200</v>
+        <v>-58400</v>
       </c>
       <c r="H94" s="3">
-        <v>-6900</v>
+        <v>-221800</v>
       </c>
       <c r="I94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3302,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-16300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-92500</v>
+        <v>-16600</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-94400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-175700</v>
+        <v>149100</v>
       </c>
       <c r="E100" s="3">
-        <v>-121200</v>
+        <v>-179400</v>
       </c>
       <c r="F100" s="3">
-        <v>-129800</v>
+        <v>-122900</v>
       </c>
       <c r="G100" s="3">
-        <v>20700</v>
+        <v>-132500</v>
       </c>
       <c r="H100" s="3">
-        <v>17900</v>
+        <v>21100</v>
       </c>
       <c r="I100" s="3">
-        <v>5800</v>
+        <v>18300</v>
       </c>
       <c r="J100" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2500</v>
       </c>
-      <c r="G101" s="3">
-        <v>4500</v>
-      </c>
       <c r="H101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>35900</v>
+        <v>-87700</v>
       </c>
       <c r="E102" s="3">
-        <v>-221000</v>
+        <v>36600</v>
       </c>
       <c r="F102" s="3">
-        <v>225600</v>
+        <v>-225600</v>
       </c>
       <c r="G102" s="3">
-        <v>130800</v>
+        <v>230300</v>
       </c>
       <c r="H102" s="3">
-        <v>19900</v>
+        <v>133600</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>20300</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>618100</v>
+        <v>610100</v>
       </c>
       <c r="E8" s="3">
-        <v>1369200</v>
+        <v>1351400</v>
       </c>
       <c r="F8" s="3">
-        <v>1857800</v>
+        <v>1833600</v>
       </c>
       <c r="G8" s="3">
-        <v>864800</v>
+        <v>853600</v>
       </c>
       <c r="H8" s="3">
-        <v>505200</v>
+        <v>498600</v>
       </c>
       <c r="I8" s="3">
-        <v>32600</v>
+        <v>32200</v>
       </c>
       <c r="J8" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>172300</v>
+        <v>170100</v>
       </c>
       <c r="E9" s="3">
-        <v>103800</v>
+        <v>102400</v>
       </c>
       <c r="F9" s="3">
-        <v>165600</v>
+        <v>163400</v>
       </c>
       <c r="G9" s="3">
-        <v>65200</v>
+        <v>64300</v>
       </c>
       <c r="H9" s="3">
-        <v>28100</v>
+        <v>27700</v>
       </c>
       <c r="I9" s="3">
         <v>2400</v>
       </c>
       <c r="J9" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>445800</v>
+        <v>440000</v>
       </c>
       <c r="E10" s="3">
-        <v>1265400</v>
+        <v>1248900</v>
       </c>
       <c r="F10" s="3">
-        <v>1692200</v>
+        <v>1670200</v>
       </c>
       <c r="G10" s="3">
-        <v>799600</v>
+        <v>789200</v>
       </c>
       <c r="H10" s="3">
-        <v>477100</v>
+        <v>470900</v>
       </c>
       <c r="I10" s="3">
-        <v>30200</v>
+        <v>29800</v>
       </c>
       <c r="J10" s="3">
         <v>4400</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>102300</v>
+        <v>101000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>728200</v>
+        <v>718700</v>
       </c>
       <c r="E17" s="3">
-        <v>1168300</v>
+        <v>1153100</v>
       </c>
       <c r="F17" s="3">
-        <v>1633100</v>
+        <v>1611900</v>
       </c>
       <c r="G17" s="3">
-        <v>603100</v>
+        <v>595300</v>
       </c>
       <c r="H17" s="3">
-        <v>335900</v>
+        <v>331600</v>
       </c>
       <c r="I17" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="J17" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="K17" s="3">
         <v>1800</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-110100</v>
+        <v>-108700</v>
       </c>
       <c r="E18" s="3">
-        <v>200900</v>
+        <v>198200</v>
       </c>
       <c r="F18" s="3">
-        <v>224700</v>
+        <v>221700</v>
       </c>
       <c r="G18" s="3">
-        <v>261700</v>
+        <v>258300</v>
       </c>
       <c r="H18" s="3">
-        <v>169200</v>
+        <v>167000</v>
       </c>
       <c r="I18" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="J18" s="3">
         <v>-700</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="E20" s="3">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="F20" s="3">
-        <v>52100</v>
+        <v>51400</v>
       </c>
       <c r="G20" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="H20" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-106400</v>
+        <v>-104900</v>
       </c>
       <c r="E21" s="3">
-        <v>237200</v>
+        <v>234200</v>
       </c>
       <c r="F21" s="3">
-        <v>299800</v>
+        <v>296000</v>
       </c>
       <c r="G21" s="3">
-        <v>277200</v>
+        <v>273600</v>
       </c>
       <c r="H21" s="3">
-        <v>173600</v>
+        <v>171400</v>
       </c>
       <c r="I21" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="J21" s="3">
         <v>-700</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-120700</v>
+        <v>-119100</v>
       </c>
       <c r="E23" s="3">
-        <v>217600</v>
+        <v>214800</v>
       </c>
       <c r="F23" s="3">
-        <v>276800</v>
+        <v>273200</v>
       </c>
       <c r="G23" s="3">
-        <v>273500</v>
+        <v>269900</v>
       </c>
       <c r="H23" s="3">
-        <v>172000</v>
+        <v>169800</v>
       </c>
       <c r="I23" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="J23" s="3">
         <v>-700</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-12600</v>
+        <v>-12400</v>
       </c>
       <c r="E24" s="3">
-        <v>37300</v>
+        <v>36800</v>
       </c>
       <c r="F24" s="3">
-        <v>30300</v>
+        <v>29900</v>
       </c>
       <c r="G24" s="3">
-        <v>59500</v>
+        <v>58700</v>
       </c>
       <c r="H24" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="I24" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-108100</v>
+        <v>-106700</v>
       </c>
       <c r="E26" s="3">
-        <v>180300</v>
+        <v>177900</v>
       </c>
       <c r="F26" s="3">
-        <v>246500</v>
+        <v>243300</v>
       </c>
       <c r="G26" s="3">
-        <v>214000</v>
+        <v>211200</v>
       </c>
       <c r="H26" s="3">
-        <v>174200</v>
+        <v>171900</v>
       </c>
       <c r="I26" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="J26" s="3">
         <v>-700</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-108100</v>
+        <v>-106700</v>
       </c>
       <c r="E27" s="3">
-        <v>180300</v>
+        <v>177900</v>
       </c>
       <c r="F27" s="3">
-        <v>246500</v>
+        <v>243300</v>
       </c>
       <c r="G27" s="3">
-        <v>214000</v>
+        <v>211200</v>
       </c>
       <c r="H27" s="3">
-        <v>174200</v>
+        <v>171900</v>
       </c>
       <c r="I27" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="J27" s="3">
         <v>-700</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="E32" s="3">
-        <v>-16800</v>
+        <v>-16500</v>
       </c>
       <c r="F32" s="3">
-        <v>-52100</v>
+        <v>-51400</v>
       </c>
       <c r="G32" s="3">
-        <v>-11800</v>
+        <v>-11600</v>
       </c>
       <c r="H32" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-108100</v>
+        <v>-106700</v>
       </c>
       <c r="E33" s="3">
-        <v>180300</v>
+        <v>177900</v>
       </c>
       <c r="F33" s="3">
-        <v>246500</v>
+        <v>243300</v>
       </c>
       <c r="G33" s="3">
-        <v>214000</v>
+        <v>211200</v>
       </c>
       <c r="H33" s="3">
-        <v>174200</v>
+        <v>171900</v>
       </c>
       <c r="I33" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="J33" s="3">
         <v>-700</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-108100</v>
+        <v>-106700</v>
       </c>
       <c r="E35" s="3">
-        <v>180300</v>
+        <v>177900</v>
       </c>
       <c r="F35" s="3">
-        <v>246500</v>
+        <v>243300</v>
       </c>
       <c r="G35" s="3">
-        <v>214000</v>
+        <v>211200</v>
       </c>
       <c r="H35" s="3">
-        <v>174200</v>
+        <v>171900</v>
       </c>
       <c r="I35" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="J35" s="3">
         <v>-700</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>385300</v>
+        <v>380300</v>
       </c>
       <c r="E41" s="3">
-        <v>498900</v>
+        <v>492400</v>
       </c>
       <c r="F41" s="3">
-        <v>406700</v>
+        <v>401400</v>
       </c>
       <c r="G41" s="3">
-        <v>289700</v>
+        <v>286000</v>
       </c>
       <c r="H41" s="3">
-        <v>151100</v>
+        <v>149100</v>
       </c>
       <c r="I41" s="3">
-        <v>20400</v>
+        <v>20100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>179700</v>
+        <v>177400</v>
       </c>
       <c r="E43" s="3">
-        <v>251700</v>
+        <v>248500</v>
       </c>
       <c r="F43" s="3">
-        <v>286800</v>
+        <v>283100</v>
       </c>
       <c r="G43" s="3">
-        <v>21600</v>
+        <v>21300</v>
       </c>
       <c r="H43" s="3">
         <v>4700</v>
       </c>
       <c r="I43" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J43" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="K43" s="3">
         <v>600</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17100</v>
+        <v>16800</v>
       </c>
       <c r="E45" s="3">
-        <v>30600</v>
+        <v>30200</v>
       </c>
       <c r="F45" s="3">
-        <v>417000</v>
+        <v>411600</v>
       </c>
       <c r="G45" s="3">
-        <v>166800</v>
+        <v>164600</v>
       </c>
       <c r="H45" s="3">
-        <v>72800</v>
+        <v>71900</v>
       </c>
       <c r="I45" s="3">
         <v>5900</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>370500</v>
+        <v>365600</v>
       </c>
       <c r="E47" s="3">
-        <v>597600</v>
+        <v>589800</v>
       </c>
       <c r="F47" s="3">
-        <v>1067000</v>
+        <v>1053100</v>
       </c>
       <c r="G47" s="3">
-        <v>275300</v>
+        <v>271800</v>
       </c>
       <c r="H47" s="3">
-        <v>254000</v>
+        <v>250700</v>
       </c>
       <c r="I47" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
@@ -1991,16 +1991,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39400</v>
+        <v>38900</v>
       </c>
       <c r="E48" s="3">
-        <v>82700</v>
+        <v>81600</v>
       </c>
       <c r="F48" s="3">
-        <v>55500</v>
+        <v>54800</v>
       </c>
       <c r="G48" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="H48" s="3">
         <v>5500</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39600</v>
+        <v>39100</v>
       </c>
       <c r="E52" s="3">
-        <v>18200</v>
+        <v>17900</v>
       </c>
       <c r="F52" s="3">
-        <v>95400</v>
+        <v>94200</v>
       </c>
       <c r="G52" s="3">
-        <v>406700</v>
+        <v>401400</v>
       </c>
       <c r="H52" s="3">
-        <v>258100</v>
+        <v>254800</v>
       </c>
       <c r="I52" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1045600</v>
+        <v>1032000</v>
       </c>
       <c r="E54" s="3">
-        <v>1504600</v>
+        <v>1485000</v>
       </c>
       <c r="F54" s="3">
-        <v>2223400</v>
+        <v>2194500</v>
       </c>
       <c r="G54" s="3">
-        <v>1173000</v>
+        <v>1157700</v>
       </c>
       <c r="H54" s="3">
-        <v>746300</v>
+        <v>736500</v>
       </c>
       <c r="I54" s="3">
-        <v>52800</v>
+        <v>52100</v>
       </c>
       <c r="J54" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="K54" s="3">
         <v>800</v>
@@ -2278,13 +2278,13 @@
         <v>1500</v>
       </c>
       <c r="E57" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="F57" s="3">
-        <v>47900</v>
+        <v>47300</v>
       </c>
       <c r="G57" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="H57" s="3">
         <v>2100</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>361000</v>
+        <v>356300</v>
       </c>
       <c r="E59" s="3">
-        <v>422700</v>
+        <v>417200</v>
       </c>
       <c r="F59" s="3">
-        <v>1870900</v>
+        <v>1846600</v>
       </c>
       <c r="G59" s="3">
-        <v>231900</v>
+        <v>228900</v>
       </c>
       <c r="H59" s="3">
-        <v>220500</v>
+        <v>217600</v>
       </c>
       <c r="I59" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="J59" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>78100</v>
+        <v>77100</v>
       </c>
       <c r="E61" s="3">
         <v>2900</v>
       </c>
       <c r="F61" s="3">
-        <v>30000</v>
+        <v>29600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>6000</v>
       </c>
       <c r="E62" s="3">
-        <v>34100</v>
+        <v>33700</v>
       </c>
       <c r="F62" s="3">
-        <v>75900</v>
+        <v>75000</v>
       </c>
       <c r="G62" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>456300</v>
+        <v>450300</v>
       </c>
       <c r="E66" s="3">
-        <v>804100</v>
+        <v>793700</v>
       </c>
       <c r="F66" s="3">
-        <v>2280100</v>
+        <v>2250500</v>
       </c>
       <c r="G66" s="3">
-        <v>709600</v>
+        <v>700400</v>
       </c>
       <c r="H66" s="3">
-        <v>412400</v>
+        <v>407000</v>
       </c>
       <c r="I66" s="3">
-        <v>29200</v>
+        <v>28800</v>
       </c>
       <c r="J66" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-196200</v>
+        <v>-193600</v>
       </c>
       <c r="E72" s="3">
-        <v>-83200</v>
+        <v>-82100</v>
       </c>
       <c r="F72" s="3">
-        <v>333400</v>
+        <v>329100</v>
       </c>
       <c r="G72" s="3">
-        <v>286300</v>
+        <v>282600</v>
       </c>
       <c r="H72" s="3">
-        <v>183600</v>
+        <v>181300</v>
       </c>
       <c r="I72" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J72" s="3">
         <v>-2300</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>589400</v>
+        <v>581700</v>
       </c>
       <c r="E76" s="3">
-        <v>700500</v>
+        <v>691400</v>
       </c>
       <c r="F76" s="3">
-        <v>-56700</v>
+        <v>-56000</v>
       </c>
       <c r="G76" s="3">
-        <v>463400</v>
+        <v>457300</v>
       </c>
       <c r="H76" s="3">
-        <v>333800</v>
+        <v>329500</v>
       </c>
       <c r="I76" s="3">
-        <v>23500</v>
+        <v>23200</v>
       </c>
       <c r="J76" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="K76" s="3">
         <v>500</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-108100</v>
+        <v>-106700</v>
       </c>
       <c r="E81" s="3">
-        <v>180300</v>
+        <v>177900</v>
       </c>
       <c r="F81" s="3">
-        <v>246500</v>
+        <v>243300</v>
       </c>
       <c r="G81" s="3">
-        <v>214000</v>
+        <v>211200</v>
       </c>
       <c r="H81" s="3">
-        <v>174200</v>
+        <v>171900</v>
       </c>
       <c r="I81" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="J81" s="3">
         <v>-700</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="E83" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="F83" s="3">
-        <v>23100</v>
+        <v>22800</v>
       </c>
       <c r="G83" s="3">
         <v>3700</v>
       </c>
       <c r="H83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44000</v>
+        <v>43400</v>
       </c>
       <c r="E89" s="3">
-        <v>42800</v>
+        <v>42200</v>
       </c>
       <c r="F89" s="3">
-        <v>-617700</v>
+        <v>-609600</v>
       </c>
       <c r="G89" s="3">
-        <v>423800</v>
+        <v>418300</v>
       </c>
       <c r="H89" s="3">
-        <v>329700</v>
+        <v>325400</v>
       </c>
       <c r="I89" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="J89" s="3">
         <v>-5700</v>
@@ -3375,16 +3375,16 @@
         <v>-2100</v>
       </c>
       <c r="E91" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="F91" s="3">
-        <v>-22000</v>
+        <v>-21700</v>
       </c>
       <c r="G91" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="H91" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-280300</v>
+        <v>-276700</v>
       </c>
       <c r="E94" s="3">
-        <v>173200</v>
+        <v>170900</v>
       </c>
       <c r="F94" s="3">
-        <v>514500</v>
+        <v>507800</v>
       </c>
       <c r="G94" s="3">
-        <v>-58400</v>
+        <v>-57700</v>
       </c>
       <c r="H94" s="3">
-        <v>-221800</v>
+        <v>-218900</v>
       </c>
       <c r="I94" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="G96" s="3">
-        <v>-94400</v>
+        <v>-93200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>149100</v>
+        <v>147100</v>
       </c>
       <c r="E100" s="3">
-        <v>-179400</v>
+        <v>-177000</v>
       </c>
       <c r="F100" s="3">
-        <v>-122900</v>
+        <v>-121300</v>
       </c>
       <c r="G100" s="3">
-        <v>-132500</v>
+        <v>-130800</v>
       </c>
       <c r="H100" s="3">
-        <v>21100</v>
+        <v>20800</v>
       </c>
       <c r="I100" s="3">
-        <v>18300</v>
+        <v>18000</v>
       </c>
       <c r="J100" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="K100" s="3">
         <v>1700</v>
@@ -3724,7 +3724,7 @@
         <v>-2500</v>
       </c>
       <c r="H101" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="I101" s="3">
         <v>-300</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-87700</v>
+        <v>-86500</v>
       </c>
       <c r="E102" s="3">
-        <v>36600</v>
+        <v>36100</v>
       </c>
       <c r="F102" s="3">
-        <v>-225600</v>
+        <v>-222600</v>
       </c>
       <c r="G102" s="3">
-        <v>230300</v>
+        <v>227300</v>
       </c>
       <c r="H102" s="3">
-        <v>133600</v>
+        <v>131900</v>
       </c>
       <c r="I102" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>610100</v>
+        <v>620300</v>
       </c>
       <c r="E8" s="3">
-        <v>1351400</v>
+        <v>1374000</v>
       </c>
       <c r="F8" s="3">
-        <v>1833600</v>
+        <v>1864300</v>
       </c>
       <c r="G8" s="3">
-        <v>853600</v>
+        <v>867900</v>
       </c>
       <c r="H8" s="3">
-        <v>498600</v>
+        <v>506900</v>
       </c>
       <c r="I8" s="3">
-        <v>32200</v>
+        <v>32700</v>
       </c>
       <c r="J8" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>170100</v>
+        <v>172900</v>
       </c>
       <c r="E9" s="3">
-        <v>102400</v>
+        <v>104100</v>
       </c>
       <c r="F9" s="3">
-        <v>163400</v>
+        <v>166200</v>
       </c>
       <c r="G9" s="3">
-        <v>64300</v>
+        <v>65400</v>
       </c>
       <c r="H9" s="3">
-        <v>27700</v>
+        <v>28200</v>
       </c>
       <c r="I9" s="3">
         <v>2400</v>
       </c>
       <c r="J9" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>440000</v>
+        <v>447300</v>
       </c>
       <c r="E10" s="3">
-        <v>1248900</v>
+        <v>1269900</v>
       </c>
       <c r="F10" s="3">
-        <v>1670200</v>
+        <v>1698200</v>
       </c>
       <c r="G10" s="3">
-        <v>789200</v>
+        <v>802400</v>
       </c>
       <c r="H10" s="3">
-        <v>470900</v>
+        <v>478700</v>
       </c>
       <c r="I10" s="3">
-        <v>29800</v>
+        <v>30300</v>
       </c>
       <c r="J10" s="3">
         <v>4400</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>101000</v>
+        <v>102700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>718700</v>
+        <v>730800</v>
       </c>
       <c r="E17" s="3">
-        <v>1153100</v>
+        <v>1172400</v>
       </c>
       <c r="F17" s="3">
-        <v>1611900</v>
+        <v>1638900</v>
       </c>
       <c r="G17" s="3">
-        <v>595300</v>
+        <v>605300</v>
       </c>
       <c r="H17" s="3">
-        <v>331600</v>
+        <v>337100</v>
       </c>
       <c r="I17" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="J17" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="K17" s="3">
         <v>1800</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-108700</v>
+        <v>-110500</v>
       </c>
       <c r="E18" s="3">
-        <v>198200</v>
+        <v>201600</v>
       </c>
       <c r="F18" s="3">
-        <v>221700</v>
+        <v>225500</v>
       </c>
       <c r="G18" s="3">
-        <v>258300</v>
+        <v>262600</v>
       </c>
       <c r="H18" s="3">
-        <v>167000</v>
+        <v>169800</v>
       </c>
       <c r="I18" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="J18" s="3">
         <v>-700</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10400</v>
+        <v>-10600</v>
       </c>
       <c r="E20" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="F20" s="3">
-        <v>51400</v>
+        <v>52300</v>
       </c>
       <c r="G20" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="H20" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-104900</v>
+        <v>-106700</v>
       </c>
       <c r="E21" s="3">
-        <v>234200</v>
+        <v>238100</v>
       </c>
       <c r="F21" s="3">
-        <v>296000</v>
+        <v>300900</v>
       </c>
       <c r="G21" s="3">
-        <v>273600</v>
+        <v>278200</v>
       </c>
       <c r="H21" s="3">
-        <v>171400</v>
+        <v>174300</v>
       </c>
       <c r="I21" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="J21" s="3">
         <v>-700</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-119100</v>
+        <v>-121100</v>
       </c>
       <c r="E23" s="3">
-        <v>214800</v>
+        <v>218400</v>
       </c>
       <c r="F23" s="3">
-        <v>273200</v>
+        <v>277800</v>
       </c>
       <c r="G23" s="3">
-        <v>269900</v>
+        <v>274400</v>
       </c>
       <c r="H23" s="3">
-        <v>169800</v>
+        <v>172600</v>
       </c>
       <c r="I23" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="J23" s="3">
         <v>-700</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-12400</v>
+        <v>-12600</v>
       </c>
       <c r="E24" s="3">
-        <v>36800</v>
+        <v>37500</v>
       </c>
       <c r="F24" s="3">
-        <v>29900</v>
+        <v>30400</v>
       </c>
       <c r="G24" s="3">
-        <v>58700</v>
+        <v>59700</v>
       </c>
       <c r="H24" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="I24" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-106700</v>
+        <v>-108500</v>
       </c>
       <c r="E26" s="3">
-        <v>177900</v>
+        <v>180900</v>
       </c>
       <c r="F26" s="3">
-        <v>243300</v>
+        <v>247300</v>
       </c>
       <c r="G26" s="3">
-        <v>211200</v>
+        <v>214800</v>
       </c>
       <c r="H26" s="3">
-        <v>171900</v>
+        <v>174800</v>
       </c>
       <c r="I26" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="J26" s="3">
         <v>-700</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-106700</v>
+        <v>-108500</v>
       </c>
       <c r="E27" s="3">
-        <v>177900</v>
+        <v>180900</v>
       </c>
       <c r="F27" s="3">
-        <v>243300</v>
+        <v>247300</v>
       </c>
       <c r="G27" s="3">
-        <v>211200</v>
+        <v>214800</v>
       </c>
       <c r="H27" s="3">
-        <v>171900</v>
+        <v>174800</v>
       </c>
       <c r="I27" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="J27" s="3">
         <v>-700</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="E32" s="3">
-        <v>-16500</v>
+        <v>-16800</v>
       </c>
       <c r="F32" s="3">
-        <v>-51400</v>
+        <v>-52300</v>
       </c>
       <c r="G32" s="3">
-        <v>-11600</v>
+        <v>-11800</v>
       </c>
       <c r="H32" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-106700</v>
+        <v>-108500</v>
       </c>
       <c r="E33" s="3">
-        <v>177900</v>
+        <v>180900</v>
       </c>
       <c r="F33" s="3">
-        <v>243300</v>
+        <v>247300</v>
       </c>
       <c r="G33" s="3">
-        <v>211200</v>
+        <v>214800</v>
       </c>
       <c r="H33" s="3">
-        <v>171900</v>
+        <v>174800</v>
       </c>
       <c r="I33" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="J33" s="3">
         <v>-700</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-106700</v>
+        <v>-108500</v>
       </c>
       <c r="E35" s="3">
-        <v>177900</v>
+        <v>180900</v>
       </c>
       <c r="F35" s="3">
-        <v>243300</v>
+        <v>247300</v>
       </c>
       <c r="G35" s="3">
-        <v>211200</v>
+        <v>214800</v>
       </c>
       <c r="H35" s="3">
-        <v>171900</v>
+        <v>174800</v>
       </c>
       <c r="I35" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="J35" s="3">
         <v>-700</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>380300</v>
+        <v>386700</v>
       </c>
       <c r="E41" s="3">
-        <v>492400</v>
+        <v>500700</v>
       </c>
       <c r="F41" s="3">
-        <v>401400</v>
+        <v>408100</v>
       </c>
       <c r="G41" s="3">
-        <v>286000</v>
+        <v>290800</v>
       </c>
       <c r="H41" s="3">
-        <v>149100</v>
+        <v>151600</v>
       </c>
       <c r="I41" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>177400</v>
+        <v>180400</v>
       </c>
       <c r="E43" s="3">
-        <v>248500</v>
+        <v>252600</v>
       </c>
       <c r="F43" s="3">
-        <v>283100</v>
+        <v>287800</v>
       </c>
       <c r="G43" s="3">
-        <v>21300</v>
+        <v>21700</v>
       </c>
       <c r="H43" s="3">
         <v>4700</v>
       </c>
       <c r="I43" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J43" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="K43" s="3">
         <v>600</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="E45" s="3">
-        <v>30200</v>
+        <v>30700</v>
       </c>
       <c r="F45" s="3">
-        <v>411600</v>
+        <v>418500</v>
       </c>
       <c r="G45" s="3">
-        <v>164600</v>
+        <v>167400</v>
       </c>
       <c r="H45" s="3">
-        <v>71900</v>
+        <v>73100</v>
       </c>
       <c r="I45" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>365600</v>
+        <v>371800</v>
       </c>
       <c r="E47" s="3">
-        <v>589800</v>
+        <v>599700</v>
       </c>
       <c r="F47" s="3">
-        <v>1053100</v>
+        <v>1070800</v>
       </c>
       <c r="G47" s="3">
-        <v>271800</v>
+        <v>276300</v>
       </c>
       <c r="H47" s="3">
-        <v>250700</v>
+        <v>254900</v>
       </c>
       <c r="I47" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38900</v>
+        <v>39600</v>
       </c>
       <c r="E48" s="3">
-        <v>81600</v>
+        <v>83000</v>
       </c>
       <c r="F48" s="3">
-        <v>54800</v>
+        <v>55700</v>
       </c>
       <c r="G48" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="H48" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39100</v>
+        <v>39800</v>
       </c>
       <c r="E52" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="F52" s="3">
-        <v>94200</v>
+        <v>95800</v>
       </c>
       <c r="G52" s="3">
-        <v>401400</v>
+        <v>408100</v>
       </c>
       <c r="H52" s="3">
-        <v>254800</v>
+        <v>259100</v>
       </c>
       <c r="I52" s="3">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1032000</v>
+        <v>1049300</v>
       </c>
       <c r="E54" s="3">
-        <v>1485000</v>
+        <v>1509900</v>
       </c>
       <c r="F54" s="3">
-        <v>2194500</v>
+        <v>2231300</v>
       </c>
       <c r="G54" s="3">
-        <v>1157700</v>
+        <v>1177100</v>
       </c>
       <c r="H54" s="3">
-        <v>736500</v>
+        <v>748900</v>
       </c>
       <c r="I54" s="3">
-        <v>52100</v>
+        <v>52900</v>
       </c>
       <c r="J54" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="K54" s="3">
         <v>800</v>
@@ -2275,16 +2275,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="F57" s="3">
-        <v>47300</v>
+        <v>48100</v>
       </c>
       <c r="G57" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="H57" s="3">
         <v>2100</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>356300</v>
+        <v>362200</v>
       </c>
       <c r="E59" s="3">
-        <v>417200</v>
+        <v>424100</v>
       </c>
       <c r="F59" s="3">
-        <v>1846600</v>
+        <v>1877500</v>
       </c>
       <c r="G59" s="3">
-        <v>228900</v>
+        <v>232700</v>
       </c>
       <c r="H59" s="3">
-        <v>217600</v>
+        <v>221200</v>
       </c>
       <c r="I59" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="J59" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>77100</v>
+        <v>78400</v>
       </c>
       <c r="E61" s="3">
         <v>2900</v>
       </c>
       <c r="F61" s="3">
-        <v>29600</v>
+        <v>30100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E62" s="3">
-        <v>33700</v>
+        <v>34300</v>
       </c>
       <c r="F62" s="3">
-        <v>75000</v>
+        <v>76200</v>
       </c>
       <c r="G62" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>450300</v>
+        <v>457900</v>
       </c>
       <c r="E66" s="3">
-        <v>793700</v>
+        <v>807000</v>
       </c>
       <c r="F66" s="3">
-        <v>2250500</v>
+        <v>2288200</v>
       </c>
       <c r="G66" s="3">
-        <v>700400</v>
+        <v>712100</v>
       </c>
       <c r="H66" s="3">
-        <v>407000</v>
+        <v>413900</v>
       </c>
       <c r="I66" s="3">
-        <v>28800</v>
+        <v>29300</v>
       </c>
       <c r="J66" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-193600</v>
+        <v>-196900</v>
       </c>
       <c r="E72" s="3">
-        <v>-82100</v>
+        <v>-83500</v>
       </c>
       <c r="F72" s="3">
-        <v>329100</v>
+        <v>334600</v>
       </c>
       <c r="G72" s="3">
-        <v>282600</v>
+        <v>287300</v>
       </c>
       <c r="H72" s="3">
-        <v>181300</v>
+        <v>184300</v>
       </c>
       <c r="I72" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J72" s="3">
         <v>-2300</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>581700</v>
+        <v>591400</v>
       </c>
       <c r="E76" s="3">
-        <v>691400</v>
+        <v>703000</v>
       </c>
       <c r="F76" s="3">
-        <v>-56000</v>
+        <v>-56900</v>
       </c>
       <c r="G76" s="3">
-        <v>457300</v>
+        <v>465000</v>
       </c>
       <c r="H76" s="3">
-        <v>329500</v>
+        <v>335000</v>
       </c>
       <c r="I76" s="3">
-        <v>23200</v>
+        <v>23600</v>
       </c>
       <c r="J76" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K76" s="3">
         <v>500</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-106700</v>
+        <v>-108500</v>
       </c>
       <c r="E81" s="3">
-        <v>177900</v>
+        <v>180900</v>
       </c>
       <c r="F81" s="3">
-        <v>243300</v>
+        <v>247300</v>
       </c>
       <c r="G81" s="3">
-        <v>211200</v>
+        <v>214800</v>
       </c>
       <c r="H81" s="3">
-        <v>171900</v>
+        <v>174800</v>
       </c>
       <c r="I81" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="J81" s="3">
         <v>-700</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="E83" s="3">
-        <v>19400</v>
+        <v>19700</v>
       </c>
       <c r="F83" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="G83" s="3">
         <v>3700</v>
       </c>
       <c r="H83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>43400</v>
+        <v>44200</v>
       </c>
       <c r="E89" s="3">
-        <v>42200</v>
+        <v>42900</v>
       </c>
       <c r="F89" s="3">
-        <v>-609600</v>
+        <v>-619800</v>
       </c>
       <c r="G89" s="3">
-        <v>418300</v>
+        <v>425300</v>
       </c>
       <c r="H89" s="3">
-        <v>325400</v>
+        <v>330900</v>
       </c>
       <c r="I89" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="J89" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K89" s="3">
         <v>-1700</v>
@@ -3375,16 +3375,16 @@
         <v>-2100</v>
       </c>
       <c r="E91" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="F91" s="3">
-        <v>-21700</v>
+        <v>-22000</v>
       </c>
       <c r="G91" s="3">
-        <v>-10900</v>
+        <v>-11000</v>
       </c>
       <c r="H91" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-276700</v>
+        <v>-281300</v>
       </c>
       <c r="E94" s="3">
-        <v>170900</v>
+        <v>173800</v>
       </c>
       <c r="F94" s="3">
-        <v>507800</v>
+        <v>516300</v>
       </c>
       <c r="G94" s="3">
-        <v>-57700</v>
+        <v>-58600</v>
       </c>
       <c r="H94" s="3">
-        <v>-218900</v>
+        <v>-222600</v>
       </c>
       <c r="I94" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-16400</v>
+        <v>-16700</v>
       </c>
       <c r="G96" s="3">
-        <v>-93200</v>
+        <v>-94800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>147100</v>
+        <v>149600</v>
       </c>
       <c r="E100" s="3">
-        <v>-177000</v>
+        <v>-180000</v>
       </c>
       <c r="F100" s="3">
-        <v>-121300</v>
+        <v>-123400</v>
       </c>
       <c r="G100" s="3">
-        <v>-130800</v>
+        <v>-133000</v>
       </c>
       <c r="H100" s="3">
-        <v>20800</v>
+        <v>21200</v>
       </c>
       <c r="I100" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="J100" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K100" s="3">
         <v>1700</v>
@@ -3724,7 +3724,7 @@
         <v>-2500</v>
       </c>
       <c r="H101" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I101" s="3">
         <v>-300</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-86500</v>
+        <v>-88000</v>
       </c>
       <c r="E102" s="3">
-        <v>36100</v>
+        <v>36700</v>
       </c>
       <c r="F102" s="3">
-        <v>-222600</v>
+        <v>-226400</v>
       </c>
       <c r="G102" s="3">
-        <v>227300</v>
+        <v>231100</v>
       </c>
       <c r="H102" s="3">
-        <v>131900</v>
+        <v>134100</v>
       </c>
       <c r="I102" s="3">
-        <v>20100</v>
+        <v>20400</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>620300</v>
+        <v>625000</v>
       </c>
       <c r="E8" s="3">
-        <v>1374000</v>
+        <v>1384500</v>
       </c>
       <c r="F8" s="3">
-        <v>1864300</v>
+        <v>1878600</v>
       </c>
       <c r="G8" s="3">
-        <v>867900</v>
+        <v>874500</v>
       </c>
       <c r="H8" s="3">
-        <v>506900</v>
+        <v>510800</v>
       </c>
       <c r="I8" s="3">
-        <v>32700</v>
+        <v>33000</v>
       </c>
       <c r="J8" s="3">
         <v>5000</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>172900</v>
+        <v>174300</v>
       </c>
       <c r="E9" s="3">
-        <v>104100</v>
+        <v>104900</v>
       </c>
       <c r="F9" s="3">
-        <v>166200</v>
+        <v>167400</v>
       </c>
       <c r="G9" s="3">
-        <v>65400</v>
+        <v>65900</v>
       </c>
       <c r="H9" s="3">
-        <v>28200</v>
+        <v>28400</v>
       </c>
       <c r="I9" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J9" s="3">
         <v>600</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>447300</v>
+        <v>450800</v>
       </c>
       <c r="E10" s="3">
-        <v>1269900</v>
+        <v>1279600</v>
       </c>
       <c r="F10" s="3">
-        <v>1698200</v>
+        <v>1711200</v>
       </c>
       <c r="G10" s="3">
-        <v>802400</v>
+        <v>808600</v>
       </c>
       <c r="H10" s="3">
-        <v>478700</v>
+        <v>482400</v>
       </c>
       <c r="I10" s="3">
-        <v>30300</v>
+        <v>30500</v>
       </c>
       <c r="J10" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>102700</v>
+        <v>103500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>730800</v>
+        <v>736400</v>
       </c>
       <c r="E17" s="3">
-        <v>1172400</v>
+        <v>1181400</v>
       </c>
       <c r="F17" s="3">
-        <v>1638900</v>
+        <v>1651400</v>
       </c>
       <c r="G17" s="3">
-        <v>605300</v>
+        <v>609900</v>
       </c>
       <c r="H17" s="3">
-        <v>337100</v>
+        <v>339700</v>
       </c>
       <c r="I17" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="J17" s="3">
         <v>5700</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-110500</v>
+        <v>-111400</v>
       </c>
       <c r="E18" s="3">
-        <v>201600</v>
+        <v>203100</v>
       </c>
       <c r="F18" s="3">
-        <v>225500</v>
+        <v>227200</v>
       </c>
       <c r="G18" s="3">
-        <v>262600</v>
+        <v>264600</v>
       </c>
       <c r="H18" s="3">
-        <v>169800</v>
+        <v>171100</v>
       </c>
       <c r="I18" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="J18" s="3">
         <v>-700</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10600</v>
+        <v>-10700</v>
       </c>
       <c r="E20" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="F20" s="3">
-        <v>52300</v>
+        <v>52700</v>
       </c>
       <c r="G20" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="H20" s="3">
         <v>2800</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-106700</v>
+        <v>-107500</v>
       </c>
       <c r="E21" s="3">
-        <v>238100</v>
+        <v>240000</v>
       </c>
       <c r="F21" s="3">
-        <v>300900</v>
+        <v>303300</v>
       </c>
       <c r="G21" s="3">
-        <v>278200</v>
+        <v>280300</v>
       </c>
       <c r="H21" s="3">
-        <v>174300</v>
+        <v>175600</v>
       </c>
       <c r="I21" s="3">
         <v>10200</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-121100</v>
+        <v>-122000</v>
       </c>
       <c r="E23" s="3">
-        <v>218400</v>
+        <v>220000</v>
       </c>
       <c r="F23" s="3">
-        <v>277800</v>
+        <v>279900</v>
       </c>
       <c r="G23" s="3">
-        <v>274400</v>
+        <v>276600</v>
       </c>
       <c r="H23" s="3">
-        <v>172600</v>
+        <v>173900</v>
       </c>
       <c r="I23" s="3">
         <v>10100</v>
@@ -1234,16 +1234,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="E24" s="3">
-        <v>37500</v>
+        <v>37700</v>
       </c>
       <c r="F24" s="3">
-        <v>30400</v>
+        <v>30700</v>
       </c>
       <c r="G24" s="3">
-        <v>59700</v>
+        <v>60100</v>
       </c>
       <c r="H24" s="3">
         <v>-2200</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-108500</v>
+        <v>-109300</v>
       </c>
       <c r="E26" s="3">
-        <v>180900</v>
+        <v>182300</v>
       </c>
       <c r="F26" s="3">
-        <v>247300</v>
+        <v>249200</v>
       </c>
       <c r="G26" s="3">
-        <v>214800</v>
+        <v>216400</v>
       </c>
       <c r="H26" s="3">
-        <v>174800</v>
+        <v>176100</v>
       </c>
       <c r="I26" s="3">
         <v>6900</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-108500</v>
+        <v>-109300</v>
       </c>
       <c r="E27" s="3">
-        <v>180900</v>
+        <v>182300</v>
       </c>
       <c r="F27" s="3">
-        <v>247300</v>
+        <v>249200</v>
       </c>
       <c r="G27" s="3">
-        <v>214800</v>
+        <v>216400</v>
       </c>
       <c r="H27" s="3">
-        <v>174800</v>
+        <v>176100</v>
       </c>
       <c r="I27" s="3">
         <v>6900</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="E32" s="3">
-        <v>-16800</v>
+        <v>-16900</v>
       </c>
       <c r="F32" s="3">
-        <v>-52300</v>
+        <v>-52700</v>
       </c>
       <c r="G32" s="3">
-        <v>-11800</v>
+        <v>-11900</v>
       </c>
       <c r="H32" s="3">
         <v>-2800</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-108500</v>
+        <v>-109300</v>
       </c>
       <c r="E33" s="3">
-        <v>180900</v>
+        <v>182300</v>
       </c>
       <c r="F33" s="3">
-        <v>247300</v>
+        <v>249200</v>
       </c>
       <c r="G33" s="3">
-        <v>214800</v>
+        <v>216400</v>
       </c>
       <c r="H33" s="3">
-        <v>174800</v>
+        <v>176100</v>
       </c>
       <c r="I33" s="3">
         <v>6900</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-108500</v>
+        <v>-109300</v>
       </c>
       <c r="E35" s="3">
-        <v>180900</v>
+        <v>182300</v>
       </c>
       <c r="F35" s="3">
-        <v>247300</v>
+        <v>249200</v>
       </c>
       <c r="G35" s="3">
-        <v>214800</v>
+        <v>216400</v>
       </c>
       <c r="H35" s="3">
-        <v>174800</v>
+        <v>176100</v>
       </c>
       <c r="I35" s="3">
         <v>6900</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>386700</v>
+        <v>389700</v>
       </c>
       <c r="E41" s="3">
-        <v>500700</v>
+        <v>504500</v>
       </c>
       <c r="F41" s="3">
-        <v>408100</v>
+        <v>411300</v>
       </c>
       <c r="G41" s="3">
-        <v>290800</v>
+        <v>293000</v>
       </c>
       <c r="H41" s="3">
-        <v>151600</v>
+        <v>152700</v>
       </c>
       <c r="I41" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>180400</v>
+        <v>181700</v>
       </c>
       <c r="E43" s="3">
-        <v>252600</v>
+        <v>254600</v>
       </c>
       <c r="F43" s="3">
-        <v>287800</v>
+        <v>290000</v>
       </c>
       <c r="G43" s="3">
-        <v>21700</v>
+        <v>21900</v>
       </c>
       <c r="H43" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="I43" s="3">
         <v>4100</v>
       </c>
       <c r="J43" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="K43" s="3">
         <v>600</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="E45" s="3">
-        <v>30700</v>
+        <v>30900</v>
       </c>
       <c r="F45" s="3">
-        <v>418500</v>
+        <v>421700</v>
       </c>
       <c r="G45" s="3">
-        <v>167400</v>
+        <v>168600</v>
       </c>
       <c r="H45" s="3">
-        <v>73100</v>
+        <v>73600</v>
       </c>
       <c r="I45" s="3">
         <v>6000</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>371800</v>
+        <v>374600</v>
       </c>
       <c r="E47" s="3">
-        <v>599700</v>
+        <v>604300</v>
       </c>
       <c r="F47" s="3">
-        <v>1070800</v>
+        <v>1079000</v>
       </c>
       <c r="G47" s="3">
-        <v>276300</v>
+        <v>278400</v>
       </c>
       <c r="H47" s="3">
-        <v>254900</v>
+        <v>256800</v>
       </c>
       <c r="I47" s="3">
         <v>6100</v>
@@ -1991,16 +1991,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="E48" s="3">
-        <v>83000</v>
+        <v>83600</v>
       </c>
       <c r="F48" s="3">
-        <v>55700</v>
+        <v>56100</v>
       </c>
       <c r="G48" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="H48" s="3">
         <v>5600</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39800</v>
+        <v>40100</v>
       </c>
       <c r="E52" s="3">
-        <v>18200</v>
+        <v>18400</v>
       </c>
       <c r="F52" s="3">
-        <v>95800</v>
+        <v>96500</v>
       </c>
       <c r="G52" s="3">
-        <v>408100</v>
+        <v>411200</v>
       </c>
       <c r="H52" s="3">
-        <v>259100</v>
+        <v>261000</v>
       </c>
       <c r="I52" s="3">
-        <v>15900</v>
+        <v>16100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1049300</v>
+        <v>1057300</v>
       </c>
       <c r="E54" s="3">
-        <v>1509900</v>
+        <v>1521500</v>
       </c>
       <c r="F54" s="3">
-        <v>2231300</v>
+        <v>2248400</v>
       </c>
       <c r="G54" s="3">
-        <v>1177100</v>
+        <v>1186100</v>
       </c>
       <c r="H54" s="3">
-        <v>748900</v>
+        <v>754600</v>
       </c>
       <c r="I54" s="3">
-        <v>52900</v>
+        <v>53300</v>
       </c>
       <c r="J54" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="K54" s="3">
         <v>800</v>
@@ -2278,16 +2278,16 @@
         <v>1600</v>
       </c>
       <c r="E57" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="F57" s="3">
-        <v>48100</v>
+        <v>48400</v>
       </c>
       <c r="G57" s="3">
         <v>5300</v>
       </c>
       <c r="H57" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>362200</v>
+        <v>365000</v>
       </c>
       <c r="E59" s="3">
-        <v>424100</v>
+        <v>427400</v>
       </c>
       <c r="F59" s="3">
-        <v>1877500</v>
+        <v>1891900</v>
       </c>
       <c r="G59" s="3">
-        <v>232700</v>
+        <v>234500</v>
       </c>
       <c r="H59" s="3">
-        <v>221200</v>
+        <v>222900</v>
       </c>
       <c r="I59" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="J59" s="3">
         <v>4500</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>78400</v>
+        <v>79000</v>
       </c>
       <c r="E61" s="3">
         <v>2900</v>
       </c>
       <c r="F61" s="3">
-        <v>30100</v>
+        <v>30400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2458,10 +2458,10 @@
         <v>6100</v>
       </c>
       <c r="E62" s="3">
-        <v>34300</v>
+        <v>34500</v>
       </c>
       <c r="F62" s="3">
-        <v>76200</v>
+        <v>76800</v>
       </c>
       <c r="G62" s="3">
         <v>1800</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>457900</v>
+        <v>461400</v>
       </c>
       <c r="E66" s="3">
-        <v>807000</v>
+        <v>813100</v>
       </c>
       <c r="F66" s="3">
-        <v>2288200</v>
+        <v>2305700</v>
       </c>
       <c r="G66" s="3">
-        <v>712100</v>
+        <v>717600</v>
       </c>
       <c r="H66" s="3">
-        <v>413900</v>
+        <v>417000</v>
       </c>
       <c r="I66" s="3">
-        <v>29300</v>
+        <v>29500</v>
       </c>
       <c r="J66" s="3">
         <v>4500</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-196900</v>
+        <v>-198400</v>
       </c>
       <c r="E72" s="3">
-        <v>-83500</v>
+        <v>-84200</v>
       </c>
       <c r="F72" s="3">
-        <v>334600</v>
+        <v>337200</v>
       </c>
       <c r="G72" s="3">
-        <v>287300</v>
+        <v>289500</v>
       </c>
       <c r="H72" s="3">
-        <v>184300</v>
+        <v>185700</v>
       </c>
       <c r="I72" s="3">
         <v>4600</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>591400</v>
+        <v>596000</v>
       </c>
       <c r="E76" s="3">
-        <v>703000</v>
+        <v>708400</v>
       </c>
       <c r="F76" s="3">
-        <v>-56900</v>
+        <v>-57300</v>
       </c>
       <c r="G76" s="3">
-        <v>465000</v>
+        <v>468600</v>
       </c>
       <c r="H76" s="3">
-        <v>335000</v>
+        <v>337600</v>
       </c>
       <c r="I76" s="3">
-        <v>23600</v>
+        <v>23800</v>
       </c>
       <c r="J76" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="K76" s="3">
         <v>500</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-108500</v>
+        <v>-109300</v>
       </c>
       <c r="E81" s="3">
-        <v>180900</v>
+        <v>182300</v>
       </c>
       <c r="F81" s="3">
-        <v>247300</v>
+        <v>249200</v>
       </c>
       <c r="G81" s="3">
-        <v>214800</v>
+        <v>216400</v>
       </c>
       <c r="H81" s="3">
-        <v>174800</v>
+        <v>176100</v>
       </c>
       <c r="I81" s="3">
         <v>6900</v>
@@ -3104,13 +3104,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="E83" s="3">
-        <v>19700</v>
+        <v>19900</v>
       </c>
       <c r="F83" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="G83" s="3">
         <v>3700</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44200</v>
+        <v>44500</v>
       </c>
       <c r="E89" s="3">
-        <v>42900</v>
+        <v>43300</v>
       </c>
       <c r="F89" s="3">
-        <v>-619800</v>
+        <v>-624600</v>
       </c>
       <c r="G89" s="3">
-        <v>425300</v>
+        <v>428600</v>
       </c>
       <c r="H89" s="3">
-        <v>330900</v>
+        <v>333400</v>
       </c>
       <c r="I89" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="J89" s="3">
         <v>-5800</v>
@@ -3372,16 +3372,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="E91" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="F91" s="3">
-        <v>-22000</v>
+        <v>-22200</v>
       </c>
       <c r="G91" s="3">
-        <v>-11000</v>
+        <v>-11100</v>
       </c>
       <c r="H91" s="3">
         <v>-4700</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-281300</v>
+        <v>-283400</v>
       </c>
       <c r="E94" s="3">
-        <v>173800</v>
+        <v>175100</v>
       </c>
       <c r="F94" s="3">
-        <v>516300</v>
+        <v>520200</v>
       </c>
       <c r="G94" s="3">
-        <v>-58600</v>
+        <v>-59100</v>
       </c>
       <c r="H94" s="3">
-        <v>-222600</v>
+        <v>-224300</v>
       </c>
       <c r="I94" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="G96" s="3">
-        <v>-94800</v>
+        <v>-95500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>149600</v>
+        <v>150700</v>
       </c>
       <c r="E100" s="3">
-        <v>-180000</v>
+        <v>-181400</v>
       </c>
       <c r="F100" s="3">
-        <v>-123400</v>
+        <v>-124300</v>
       </c>
       <c r="G100" s="3">
-        <v>-133000</v>
+        <v>-134000</v>
       </c>
       <c r="H100" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="I100" s="3">
-        <v>18300</v>
+        <v>18500</v>
       </c>
       <c r="J100" s="3">
         <v>5900</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-88000</v>
+        <v>-88700</v>
       </c>
       <c r="E102" s="3">
-        <v>36700</v>
+        <v>37000</v>
       </c>
       <c r="F102" s="3">
-        <v>-226400</v>
+        <v>-228100</v>
       </c>
       <c r="G102" s="3">
-        <v>231100</v>
+        <v>232900</v>
       </c>
       <c r="H102" s="3">
-        <v>134100</v>
+        <v>135100</v>
       </c>
       <c r="I102" s="3">
-        <v>20400</v>
+        <v>20600</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>625000</v>
+        <v>583800</v>
       </c>
       <c r="E8" s="3">
-        <v>1384500</v>
+        <v>1293300</v>
       </c>
       <c r="F8" s="3">
-        <v>1878600</v>
+        <v>1754800</v>
       </c>
       <c r="G8" s="3">
-        <v>874500</v>
+        <v>816900</v>
       </c>
       <c r="H8" s="3">
-        <v>510800</v>
+        <v>477200</v>
       </c>
       <c r="I8" s="3">
-        <v>33000</v>
+        <v>30800</v>
       </c>
       <c r="J8" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>174300</v>
+        <v>162800</v>
       </c>
       <c r="E9" s="3">
-        <v>104900</v>
+        <v>98000</v>
       </c>
       <c r="F9" s="3">
-        <v>167400</v>
+        <v>156400</v>
       </c>
       <c r="G9" s="3">
-        <v>65900</v>
+        <v>61600</v>
       </c>
       <c r="H9" s="3">
-        <v>28400</v>
+        <v>26500</v>
       </c>
       <c r="I9" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="J9" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>450800</v>
+        <v>421000</v>
       </c>
       <c r="E10" s="3">
-        <v>1279600</v>
+        <v>1195300</v>
       </c>
       <c r="F10" s="3">
-        <v>1711200</v>
+        <v>1598400</v>
       </c>
       <c r="G10" s="3">
-        <v>808600</v>
+        <v>755300</v>
       </c>
       <c r="H10" s="3">
-        <v>482400</v>
+        <v>450600</v>
       </c>
       <c r="I10" s="3">
-        <v>30500</v>
+        <v>28500</v>
       </c>
       <c r="J10" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>103500</v>
+        <v>96600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>736400</v>
+        <v>687800</v>
       </c>
       <c r="E17" s="3">
-        <v>1181400</v>
+        <v>1103500</v>
       </c>
       <c r="F17" s="3">
-        <v>1651400</v>
+        <v>1542600</v>
       </c>
       <c r="G17" s="3">
-        <v>609900</v>
+        <v>569700</v>
       </c>
       <c r="H17" s="3">
-        <v>339700</v>
+        <v>317300</v>
       </c>
       <c r="I17" s="3">
-        <v>23000</v>
+        <v>21500</v>
       </c>
       <c r="J17" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="K17" s="3">
         <v>1800</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-111400</v>
+        <v>-104000</v>
       </c>
       <c r="E18" s="3">
-        <v>203100</v>
+        <v>189700</v>
       </c>
       <c r="F18" s="3">
-        <v>227200</v>
+        <v>212200</v>
       </c>
       <c r="G18" s="3">
-        <v>264600</v>
+        <v>247200</v>
       </c>
       <c r="H18" s="3">
-        <v>171100</v>
+        <v>159900</v>
       </c>
       <c r="I18" s="3">
-        <v>10000</v>
+        <v>9400</v>
       </c>
       <c r="J18" s="3">
         <v>-700</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10700</v>
+        <v>-9900</v>
       </c>
       <c r="E20" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="F20" s="3">
-        <v>52700</v>
+        <v>49200</v>
       </c>
       <c r="G20" s="3">
-        <v>11900</v>
+        <v>11100</v>
       </c>
       <c r="H20" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-107500</v>
+        <v>-100300</v>
       </c>
       <c r="E21" s="3">
-        <v>240000</v>
+        <v>224300</v>
       </c>
       <c r="F21" s="3">
-        <v>303300</v>
+        <v>283500</v>
       </c>
       <c r="G21" s="3">
-        <v>280300</v>
+        <v>261900</v>
       </c>
       <c r="H21" s="3">
-        <v>175600</v>
+        <v>164000</v>
       </c>
       <c r="I21" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="J21" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K21" s="3">
         <v>-1300</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-122000</v>
+        <v>-114000</v>
       </c>
       <c r="E23" s="3">
-        <v>220000</v>
+        <v>205500</v>
       </c>
       <c r="F23" s="3">
-        <v>279900</v>
+        <v>261400</v>
       </c>
       <c r="G23" s="3">
-        <v>276600</v>
+        <v>258300</v>
       </c>
       <c r="H23" s="3">
-        <v>173900</v>
+        <v>162500</v>
       </c>
       <c r="I23" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="J23" s="3">
         <v>-700</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-12700</v>
+        <v>-11900</v>
       </c>
       <c r="E24" s="3">
-        <v>37700</v>
+        <v>35300</v>
       </c>
       <c r="F24" s="3">
-        <v>30700</v>
+        <v>28600</v>
       </c>
       <c r="G24" s="3">
-        <v>60100</v>
+        <v>56200</v>
       </c>
       <c r="H24" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="I24" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-109300</v>
+        <v>-102100</v>
       </c>
       <c r="E26" s="3">
-        <v>182300</v>
+        <v>170300</v>
       </c>
       <c r="F26" s="3">
-        <v>249200</v>
+        <v>232800</v>
       </c>
       <c r="G26" s="3">
-        <v>216400</v>
+        <v>202100</v>
       </c>
       <c r="H26" s="3">
-        <v>176100</v>
+        <v>164500</v>
       </c>
       <c r="I26" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="J26" s="3">
         <v>-700</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-109300</v>
+        <v>-102100</v>
       </c>
       <c r="E27" s="3">
-        <v>182300</v>
+        <v>170300</v>
       </c>
       <c r="F27" s="3">
-        <v>249200</v>
+        <v>232800</v>
       </c>
       <c r="G27" s="3">
-        <v>216400</v>
+        <v>202100</v>
       </c>
       <c r="H27" s="3">
-        <v>176100</v>
+        <v>164500</v>
       </c>
       <c r="I27" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="J27" s="3">
         <v>-700</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10700</v>
+        <v>9900</v>
       </c>
       <c r="E32" s="3">
-        <v>-16900</v>
+        <v>-15800</v>
       </c>
       <c r="F32" s="3">
-        <v>-52700</v>
+        <v>-49200</v>
       </c>
       <c r="G32" s="3">
-        <v>-11900</v>
+        <v>-11100</v>
       </c>
       <c r="H32" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-109300</v>
+        <v>-102100</v>
       </c>
       <c r="E33" s="3">
-        <v>182300</v>
+        <v>170300</v>
       </c>
       <c r="F33" s="3">
-        <v>249200</v>
+        <v>232800</v>
       </c>
       <c r="G33" s="3">
-        <v>216400</v>
+        <v>202100</v>
       </c>
       <c r="H33" s="3">
-        <v>176100</v>
+        <v>164500</v>
       </c>
       <c r="I33" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="J33" s="3">
         <v>-700</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-109300</v>
+        <v>-102100</v>
       </c>
       <c r="E35" s="3">
-        <v>182300</v>
+        <v>170300</v>
       </c>
       <c r="F35" s="3">
-        <v>249200</v>
+        <v>232800</v>
       </c>
       <c r="G35" s="3">
-        <v>216400</v>
+        <v>202100</v>
       </c>
       <c r="H35" s="3">
-        <v>176100</v>
+        <v>164500</v>
       </c>
       <c r="I35" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="J35" s="3">
         <v>-700</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>389700</v>
+        <v>364000</v>
       </c>
       <c r="E41" s="3">
-        <v>504500</v>
+        <v>471300</v>
       </c>
       <c r="F41" s="3">
-        <v>411300</v>
+        <v>384200</v>
       </c>
       <c r="G41" s="3">
-        <v>293000</v>
+        <v>273700</v>
       </c>
       <c r="H41" s="3">
-        <v>152700</v>
+        <v>142700</v>
       </c>
       <c r="I41" s="3">
-        <v>20600</v>
+        <v>19300</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>181700</v>
+        <v>169800</v>
       </c>
       <c r="E43" s="3">
-        <v>254600</v>
+        <v>237800</v>
       </c>
       <c r="F43" s="3">
-        <v>290000</v>
+        <v>270900</v>
       </c>
       <c r="G43" s="3">
-        <v>21900</v>
+        <v>20400</v>
       </c>
       <c r="H43" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="I43" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="J43" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="K43" s="3">
         <v>600</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="E45" s="3">
-        <v>30900</v>
+        <v>28900</v>
       </c>
       <c r="F45" s="3">
-        <v>421700</v>
+        <v>393900</v>
       </c>
       <c r="G45" s="3">
-        <v>168600</v>
+        <v>157500</v>
       </c>
       <c r="H45" s="3">
-        <v>73600</v>
+        <v>68800</v>
       </c>
       <c r="I45" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>374600</v>
+        <v>349900</v>
       </c>
       <c r="E47" s="3">
-        <v>604300</v>
+        <v>564500</v>
       </c>
       <c r="F47" s="3">
-        <v>1079000</v>
+        <v>1007800</v>
       </c>
       <c r="G47" s="3">
-        <v>278400</v>
+        <v>260100</v>
       </c>
       <c r="H47" s="3">
-        <v>256800</v>
+        <v>239900</v>
       </c>
       <c r="I47" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39900</v>
+        <v>37300</v>
       </c>
       <c r="E48" s="3">
-        <v>83600</v>
+        <v>78100</v>
       </c>
       <c r="F48" s="3">
-        <v>56100</v>
+        <v>52400</v>
       </c>
       <c r="G48" s="3">
-        <v>13000</v>
+        <v>12100</v>
       </c>
       <c r="H48" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>40100</v>
+        <v>37400</v>
       </c>
       <c r="E52" s="3">
-        <v>18400</v>
+        <v>17200</v>
       </c>
       <c r="F52" s="3">
-        <v>96500</v>
+        <v>90100</v>
       </c>
       <c r="G52" s="3">
-        <v>411200</v>
+        <v>384100</v>
       </c>
       <c r="H52" s="3">
-        <v>261000</v>
+        <v>243800</v>
       </c>
       <c r="I52" s="3">
-        <v>16100</v>
+        <v>15000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1057300</v>
+        <v>987600</v>
       </c>
       <c r="E54" s="3">
-        <v>1521500</v>
+        <v>1421200</v>
       </c>
       <c r="F54" s="3">
-        <v>2248400</v>
+        <v>2100100</v>
       </c>
       <c r="G54" s="3">
-        <v>1186100</v>
+        <v>1108000</v>
       </c>
       <c r="H54" s="3">
-        <v>754600</v>
+        <v>704900</v>
       </c>
       <c r="I54" s="3">
-        <v>53300</v>
+        <v>49800</v>
       </c>
       <c r="J54" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="K54" s="3">
         <v>800</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="F57" s="3">
-        <v>48400</v>
+        <v>45200</v>
       </c>
       <c r="G57" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="H57" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>365000</v>
+        <v>340900</v>
       </c>
       <c r="E59" s="3">
-        <v>427400</v>
+        <v>399200</v>
       </c>
       <c r="F59" s="3">
-        <v>1891900</v>
+        <v>1767200</v>
       </c>
       <c r="G59" s="3">
-        <v>234500</v>
+        <v>219100</v>
       </c>
       <c r="H59" s="3">
-        <v>222900</v>
+        <v>208200</v>
       </c>
       <c r="I59" s="3">
-        <v>13300</v>
+        <v>12400</v>
       </c>
       <c r="J59" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>79000</v>
+        <v>73800</v>
       </c>
       <c r="E61" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="F61" s="3">
-        <v>30400</v>
+        <v>28400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="E62" s="3">
-        <v>34500</v>
+        <v>32300</v>
       </c>
       <c r="F62" s="3">
-        <v>76800</v>
+        <v>71700</v>
       </c>
       <c r="G62" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>461400</v>
+        <v>431000</v>
       </c>
       <c r="E66" s="3">
-        <v>813100</v>
+        <v>759500</v>
       </c>
       <c r="F66" s="3">
-        <v>2305700</v>
+        <v>2153700</v>
       </c>
       <c r="G66" s="3">
-        <v>717600</v>
+        <v>670300</v>
       </c>
       <c r="H66" s="3">
-        <v>417000</v>
+        <v>389500</v>
       </c>
       <c r="I66" s="3">
-        <v>29500</v>
+        <v>27600</v>
       </c>
       <c r="J66" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-198400</v>
+        <v>-185300</v>
       </c>
       <c r="E72" s="3">
-        <v>-84200</v>
+        <v>-78600</v>
       </c>
       <c r="F72" s="3">
-        <v>337200</v>
+        <v>314900</v>
       </c>
       <c r="G72" s="3">
-        <v>289500</v>
+        <v>270400</v>
       </c>
       <c r="H72" s="3">
-        <v>185700</v>
+        <v>173500</v>
       </c>
       <c r="I72" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="J72" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K72" s="3">
         <v>-1600</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>596000</v>
+        <v>556700</v>
       </c>
       <c r="E76" s="3">
-        <v>708400</v>
+        <v>661700</v>
       </c>
       <c r="F76" s="3">
-        <v>-57300</v>
+        <v>-53600</v>
       </c>
       <c r="G76" s="3">
-        <v>468600</v>
+        <v>437700</v>
       </c>
       <c r="H76" s="3">
-        <v>337600</v>
+        <v>315300</v>
       </c>
       <c r="I76" s="3">
-        <v>23800</v>
+        <v>22200</v>
       </c>
       <c r="J76" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="K76" s="3">
         <v>500</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-109300</v>
+        <v>-102100</v>
       </c>
       <c r="E81" s="3">
-        <v>182300</v>
+        <v>170300</v>
       </c>
       <c r="F81" s="3">
-        <v>249200</v>
+        <v>232800</v>
       </c>
       <c r="G81" s="3">
-        <v>216400</v>
+        <v>202100</v>
       </c>
       <c r="H81" s="3">
-        <v>176100</v>
+        <v>164500</v>
       </c>
       <c r="I81" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="J81" s="3">
         <v>-700</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="E83" s="3">
-        <v>19900</v>
+        <v>18500</v>
       </c>
       <c r="F83" s="3">
-        <v>23300</v>
+        <v>21800</v>
       </c>
       <c r="G83" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44500</v>
+        <v>41600</v>
       </c>
       <c r="E89" s="3">
-        <v>43300</v>
+        <v>40400</v>
       </c>
       <c r="F89" s="3">
-        <v>-624600</v>
+        <v>-583400</v>
       </c>
       <c r="G89" s="3">
-        <v>428600</v>
+        <v>400300</v>
       </c>
       <c r="H89" s="3">
-        <v>333400</v>
+        <v>311400</v>
       </c>
       <c r="I89" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="J89" s="3">
-        <v>-5800</v>
+        <v>-5400</v>
       </c>
       <c r="K89" s="3">
         <v>-1700</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="E91" s="3">
-        <v>-7600</v>
+        <v>-7100</v>
       </c>
       <c r="F91" s="3">
-        <v>-22200</v>
+        <v>-20700</v>
       </c>
       <c r="G91" s="3">
-        <v>-11100</v>
+        <v>-10400</v>
       </c>
       <c r="H91" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-283400</v>
+        <v>-264800</v>
       </c>
       <c r="E94" s="3">
-        <v>175100</v>
+        <v>163600</v>
       </c>
       <c r="F94" s="3">
-        <v>520200</v>
+        <v>485900</v>
       </c>
       <c r="G94" s="3">
-        <v>-59100</v>
+        <v>-55200</v>
       </c>
       <c r="H94" s="3">
-        <v>-224300</v>
+        <v>-209500</v>
       </c>
       <c r="I94" s="3">
-        <v>-7100</v>
+        <v>-6600</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-16800</v>
+        <v>-15700</v>
       </c>
       <c r="G96" s="3">
-        <v>-95500</v>
+        <v>-89200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>150700</v>
+        <v>140800</v>
       </c>
       <c r="E100" s="3">
-        <v>-181400</v>
+        <v>-169400</v>
       </c>
       <c r="F100" s="3">
-        <v>-124300</v>
+        <v>-116100</v>
       </c>
       <c r="G100" s="3">
-        <v>-134000</v>
+        <v>-125200</v>
       </c>
       <c r="H100" s="3">
-        <v>21300</v>
+        <v>19900</v>
       </c>
       <c r="I100" s="3">
-        <v>18500</v>
+        <v>17200</v>
       </c>
       <c r="J100" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="K100" s="3">
         <v>1700</v>
@@ -3718,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G101" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="H101" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="I101" s="3">
         <v>-300</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-88700</v>
+        <v>-82800</v>
       </c>
       <c r="E102" s="3">
-        <v>37000</v>
+        <v>34600</v>
       </c>
       <c r="F102" s="3">
-        <v>-228100</v>
+        <v>-213100</v>
       </c>
       <c r="G102" s="3">
-        <v>232900</v>
+        <v>217600</v>
       </c>
       <c r="H102" s="3">
-        <v>135100</v>
+        <v>126200</v>
       </c>
       <c r="I102" s="3">
-        <v>20600</v>
+        <v>19200</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>583800</v>
+        <v>578600</v>
       </c>
       <c r="E8" s="3">
-        <v>1293300</v>
+        <v>1281600</v>
       </c>
       <c r="F8" s="3">
-        <v>1754800</v>
+        <v>1738900</v>
       </c>
       <c r="G8" s="3">
-        <v>816900</v>
+        <v>809500</v>
       </c>
       <c r="H8" s="3">
-        <v>477200</v>
+        <v>472800</v>
       </c>
       <c r="I8" s="3">
-        <v>30800</v>
+        <v>30500</v>
       </c>
       <c r="J8" s="3">
         <v>4700</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>162800</v>
+        <v>161300</v>
       </c>
       <c r="E9" s="3">
-        <v>98000</v>
+        <v>97100</v>
       </c>
       <c r="F9" s="3">
-        <v>156400</v>
+        <v>155000</v>
       </c>
       <c r="G9" s="3">
-        <v>61600</v>
+        <v>61000</v>
       </c>
       <c r="H9" s="3">
-        <v>26500</v>
+        <v>26300</v>
       </c>
       <c r="I9" s="3">
         <v>2300</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>421000</v>
+        <v>417200</v>
       </c>
       <c r="E10" s="3">
-        <v>1195300</v>
+        <v>1184500</v>
       </c>
       <c r="F10" s="3">
-        <v>1598400</v>
+        <v>1583900</v>
       </c>
       <c r="G10" s="3">
-        <v>755300</v>
+        <v>748500</v>
       </c>
       <c r="H10" s="3">
-        <v>450600</v>
+        <v>446500</v>
       </c>
       <c r="I10" s="3">
-        <v>28500</v>
+        <v>28300</v>
       </c>
       <c r="J10" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>96600</v>
+        <v>95800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>687800</v>
+        <v>681600</v>
       </c>
       <c r="E17" s="3">
-        <v>1103500</v>
+        <v>1093600</v>
       </c>
       <c r="F17" s="3">
-        <v>1542600</v>
+        <v>1528600</v>
       </c>
       <c r="G17" s="3">
-        <v>569700</v>
+        <v>564500</v>
       </c>
       <c r="H17" s="3">
-        <v>317300</v>
+        <v>314400</v>
       </c>
       <c r="I17" s="3">
-        <v>21500</v>
+        <v>21300</v>
       </c>
       <c r="J17" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K17" s="3">
         <v>1800</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-104000</v>
+        <v>-103100</v>
       </c>
       <c r="E18" s="3">
-        <v>189700</v>
+        <v>188000</v>
       </c>
       <c r="F18" s="3">
-        <v>212200</v>
+        <v>210300</v>
       </c>
       <c r="G18" s="3">
-        <v>247200</v>
+        <v>244900</v>
       </c>
       <c r="H18" s="3">
-        <v>159900</v>
+        <v>158400</v>
       </c>
       <c r="I18" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="J18" s="3">
         <v>-700</v>
@@ -1093,13 +1093,13 @@
         <v>-9900</v>
       </c>
       <c r="E20" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="F20" s="3">
-        <v>49200</v>
+        <v>48800</v>
       </c>
       <c r="G20" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="H20" s="3">
         <v>2600</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100300</v>
+        <v>-99600</v>
       </c>
       <c r="E21" s="3">
-        <v>224300</v>
+        <v>222000</v>
       </c>
       <c r="F21" s="3">
-        <v>283500</v>
+        <v>280700</v>
       </c>
       <c r="G21" s="3">
-        <v>261900</v>
+        <v>259400</v>
       </c>
       <c r="H21" s="3">
-        <v>164000</v>
+        <v>162500</v>
       </c>
       <c r="I21" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="J21" s="3">
         <v>-600</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-114000</v>
+        <v>-112900</v>
       </c>
       <c r="E23" s="3">
-        <v>205500</v>
+        <v>203700</v>
       </c>
       <c r="F23" s="3">
-        <v>261400</v>
+        <v>259100</v>
       </c>
       <c r="G23" s="3">
-        <v>258300</v>
+        <v>256000</v>
       </c>
       <c r="H23" s="3">
-        <v>162500</v>
+        <v>161000</v>
       </c>
       <c r="I23" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J23" s="3">
         <v>-700</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="E24" s="3">
-        <v>35300</v>
+        <v>34900</v>
       </c>
       <c r="F24" s="3">
-        <v>28600</v>
+        <v>28400</v>
       </c>
       <c r="G24" s="3">
-        <v>56200</v>
+        <v>55700</v>
       </c>
       <c r="H24" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="I24" s="3">
         <v>3000</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-102100</v>
+        <v>-101200</v>
       </c>
       <c r="E26" s="3">
-        <v>170300</v>
+        <v>168800</v>
       </c>
       <c r="F26" s="3">
-        <v>232800</v>
+        <v>230700</v>
       </c>
       <c r="G26" s="3">
-        <v>202100</v>
+        <v>200300</v>
       </c>
       <c r="H26" s="3">
-        <v>164500</v>
+        <v>163000</v>
       </c>
       <c r="I26" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J26" s="3">
         <v>-700</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-102100</v>
+        <v>-101200</v>
       </c>
       <c r="E27" s="3">
-        <v>170300</v>
+        <v>168800</v>
       </c>
       <c r="F27" s="3">
-        <v>232800</v>
+        <v>230700</v>
       </c>
       <c r="G27" s="3">
-        <v>202100</v>
+        <v>200300</v>
       </c>
       <c r="H27" s="3">
-        <v>164500</v>
+        <v>163000</v>
       </c>
       <c r="I27" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J27" s="3">
         <v>-700</v>
@@ -1525,13 +1525,13 @@
         <v>9900</v>
       </c>
       <c r="E32" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="F32" s="3">
-        <v>-49200</v>
+        <v>-48800</v>
       </c>
       <c r="G32" s="3">
-        <v>-11100</v>
+        <v>-11000</v>
       </c>
       <c r="H32" s="3">
         <v>-2600</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-102100</v>
+        <v>-101200</v>
       </c>
       <c r="E33" s="3">
-        <v>170300</v>
+        <v>168800</v>
       </c>
       <c r="F33" s="3">
-        <v>232800</v>
+        <v>230700</v>
       </c>
       <c r="G33" s="3">
-        <v>202100</v>
+        <v>200300</v>
       </c>
       <c r="H33" s="3">
-        <v>164500</v>
+        <v>163000</v>
       </c>
       <c r="I33" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J33" s="3">
         <v>-700</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-102100</v>
+        <v>-101200</v>
       </c>
       <c r="E35" s="3">
-        <v>170300</v>
+        <v>168800</v>
       </c>
       <c r="F35" s="3">
-        <v>232800</v>
+        <v>230700</v>
       </c>
       <c r="G35" s="3">
-        <v>202100</v>
+        <v>200300</v>
       </c>
       <c r="H35" s="3">
-        <v>164500</v>
+        <v>163000</v>
       </c>
       <c r="I35" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J35" s="3">
         <v>-700</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>364000</v>
+        <v>360700</v>
       </c>
       <c r="E41" s="3">
-        <v>471300</v>
+        <v>467000</v>
       </c>
       <c r="F41" s="3">
-        <v>384200</v>
+        <v>380700</v>
       </c>
       <c r="G41" s="3">
-        <v>273700</v>
+        <v>271200</v>
       </c>
       <c r="H41" s="3">
-        <v>142700</v>
+        <v>141400</v>
       </c>
       <c r="I41" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>169800</v>
+        <v>168200</v>
       </c>
       <c r="E43" s="3">
-        <v>237800</v>
+        <v>235600</v>
       </c>
       <c r="F43" s="3">
-        <v>270900</v>
+        <v>268500</v>
       </c>
       <c r="G43" s="3">
-        <v>20400</v>
+        <v>20200</v>
       </c>
       <c r="H43" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I43" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J43" s="3">
         <v>9100</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="E45" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="F45" s="3">
-        <v>393900</v>
+        <v>390400</v>
       </c>
       <c r="G45" s="3">
-        <v>157500</v>
+        <v>156100</v>
       </c>
       <c r="H45" s="3">
-        <v>68800</v>
+        <v>68200</v>
       </c>
       <c r="I45" s="3">
         <v>5600</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>349900</v>
+        <v>346800</v>
       </c>
       <c r="E47" s="3">
-        <v>564500</v>
+        <v>559400</v>
       </c>
       <c r="F47" s="3">
-        <v>1007800</v>
+        <v>998800</v>
       </c>
       <c r="G47" s="3">
-        <v>260100</v>
+        <v>257700</v>
       </c>
       <c r="H47" s="3">
-        <v>239900</v>
+        <v>237700</v>
       </c>
       <c r="I47" s="3">
         <v>5700</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1991,16 +1991,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37300</v>
+        <v>36900</v>
       </c>
       <c r="E48" s="3">
-        <v>78100</v>
+        <v>77400</v>
       </c>
       <c r="F48" s="3">
-        <v>52400</v>
+        <v>52000</v>
       </c>
       <c r="G48" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="H48" s="3">
         <v>5200</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37400</v>
+        <v>37100</v>
       </c>
       <c r="E52" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="F52" s="3">
-        <v>90100</v>
+        <v>89300</v>
       </c>
       <c r="G52" s="3">
-        <v>384100</v>
+        <v>380700</v>
       </c>
       <c r="H52" s="3">
-        <v>243800</v>
+        <v>241600</v>
       </c>
       <c r="I52" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>987600</v>
+        <v>978700</v>
       </c>
       <c r="E54" s="3">
-        <v>1421200</v>
+        <v>1408400</v>
       </c>
       <c r="F54" s="3">
-        <v>2100100</v>
+        <v>2081200</v>
       </c>
       <c r="G54" s="3">
-        <v>1108000</v>
+        <v>1098000</v>
       </c>
       <c r="H54" s="3">
-        <v>704900</v>
+        <v>698500</v>
       </c>
       <c r="I54" s="3">
-        <v>49800</v>
+        <v>49400</v>
       </c>
       <c r="J54" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="K54" s="3">
         <v>800</v>
@@ -2275,16 +2275,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
         <v>6400</v>
       </c>
       <c r="F57" s="3">
-        <v>45200</v>
+        <v>44800</v>
       </c>
       <c r="G57" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="H57" s="3">
         <v>2000</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>340900</v>
+        <v>337900</v>
       </c>
       <c r="E59" s="3">
-        <v>399200</v>
+        <v>395600</v>
       </c>
       <c r="F59" s="3">
-        <v>1767200</v>
+        <v>1751200</v>
       </c>
       <c r="G59" s="3">
-        <v>219100</v>
+        <v>217100</v>
       </c>
       <c r="H59" s="3">
-        <v>208200</v>
+        <v>206400</v>
       </c>
       <c r="I59" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="J59" s="3">
         <v>4200</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73800</v>
+        <v>73100</v>
       </c>
       <c r="E61" s="3">
         <v>2700</v>
       </c>
       <c r="F61" s="3">
-        <v>28400</v>
+        <v>28100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>5700</v>
       </c>
       <c r="E62" s="3">
-        <v>32300</v>
+        <v>32000</v>
       </c>
       <c r="F62" s="3">
-        <v>71700</v>
+        <v>71100</v>
       </c>
       <c r="G62" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>431000</v>
+        <v>427100</v>
       </c>
       <c r="E66" s="3">
-        <v>759500</v>
+        <v>752700</v>
       </c>
       <c r="F66" s="3">
-        <v>2153700</v>
+        <v>2134300</v>
       </c>
       <c r="G66" s="3">
-        <v>670300</v>
+        <v>664200</v>
       </c>
       <c r="H66" s="3">
-        <v>389500</v>
+        <v>386000</v>
       </c>
       <c r="I66" s="3">
-        <v>27600</v>
+        <v>27400</v>
       </c>
       <c r="J66" s="3">
         <v>4200</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-185300</v>
+        <v>-183600</v>
       </c>
       <c r="E72" s="3">
-        <v>-78600</v>
+        <v>-77900</v>
       </c>
       <c r="F72" s="3">
-        <v>314900</v>
+        <v>312100</v>
       </c>
       <c r="G72" s="3">
-        <v>270400</v>
+        <v>268000</v>
       </c>
       <c r="H72" s="3">
-        <v>173500</v>
+        <v>171900</v>
       </c>
       <c r="I72" s="3">
         <v>4300</v>
       </c>
       <c r="J72" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="K72" s="3">
         <v>-1600</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>556700</v>
+        <v>551700</v>
       </c>
       <c r="E76" s="3">
-        <v>661700</v>
+        <v>655700</v>
       </c>
       <c r="F76" s="3">
-        <v>-53600</v>
+        <v>-53100</v>
       </c>
       <c r="G76" s="3">
-        <v>437700</v>
+        <v>433700</v>
       </c>
       <c r="H76" s="3">
-        <v>315300</v>
+        <v>312500</v>
       </c>
       <c r="I76" s="3">
-        <v>22200</v>
+        <v>22000</v>
       </c>
       <c r="J76" s="3">
         <v>5300</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-102100</v>
+        <v>-101200</v>
       </c>
       <c r="E81" s="3">
-        <v>170300</v>
+        <v>168800</v>
       </c>
       <c r="F81" s="3">
-        <v>232800</v>
+        <v>230700</v>
       </c>
       <c r="G81" s="3">
-        <v>202100</v>
+        <v>200300</v>
       </c>
       <c r="H81" s="3">
-        <v>164500</v>
+        <v>163000</v>
       </c>
       <c r="I81" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J81" s="3">
         <v>-700</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="E83" s="3">
-        <v>18500</v>
+        <v>18400</v>
       </c>
       <c r="F83" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="G83" s="3">
         <v>3500</v>
       </c>
       <c r="H83" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>41600</v>
+        <v>41200</v>
       </c>
       <c r="E89" s="3">
-        <v>40400</v>
+        <v>40000</v>
       </c>
       <c r="F89" s="3">
-        <v>-583400</v>
+        <v>-578100</v>
       </c>
       <c r="G89" s="3">
-        <v>400300</v>
+        <v>396700</v>
       </c>
       <c r="H89" s="3">
-        <v>311400</v>
+        <v>308600</v>
       </c>
       <c r="I89" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="J89" s="3">
         <v>-5400</v>
@@ -3375,13 +3375,13 @@
         <v>-2000</v>
       </c>
       <c r="E91" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="F91" s="3">
-        <v>-20700</v>
+        <v>-20600</v>
       </c>
       <c r="G91" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="H91" s="3">
         <v>-4400</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-264800</v>
+        <v>-262400</v>
       </c>
       <c r="E94" s="3">
-        <v>163600</v>
+        <v>162100</v>
       </c>
       <c r="F94" s="3">
-        <v>485900</v>
+        <v>481600</v>
       </c>
       <c r="G94" s="3">
-        <v>-55200</v>
+        <v>-54700</v>
       </c>
       <c r="H94" s="3">
-        <v>-209500</v>
+        <v>-207600</v>
       </c>
       <c r="I94" s="3">
         <v>-6600</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-15700</v>
+        <v>-15600</v>
       </c>
       <c r="G96" s="3">
-        <v>-89200</v>
+        <v>-88400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>140800</v>
+        <v>139500</v>
       </c>
       <c r="E100" s="3">
-        <v>-169400</v>
+        <v>-167900</v>
       </c>
       <c r="F100" s="3">
-        <v>-116100</v>
+        <v>-115100</v>
       </c>
       <c r="G100" s="3">
-        <v>-125200</v>
+        <v>-124000</v>
       </c>
       <c r="H100" s="3">
-        <v>19900</v>
+        <v>19800</v>
       </c>
       <c r="I100" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="J100" s="3">
         <v>5500</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-82800</v>
+        <v>-82100</v>
       </c>
       <c r="E102" s="3">
-        <v>34600</v>
+        <v>34300</v>
       </c>
       <c r="F102" s="3">
-        <v>-213100</v>
+        <v>-211100</v>
       </c>
       <c r="G102" s="3">
-        <v>217600</v>
+        <v>215600</v>
       </c>
       <c r="H102" s="3">
-        <v>126200</v>
+        <v>125100</v>
       </c>
       <c r="I102" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>578600</v>
+        <v>623300</v>
       </c>
       <c r="E8" s="3">
-        <v>1281600</v>
+        <v>551500</v>
       </c>
       <c r="F8" s="3">
-        <v>1738900</v>
+        <v>1221600</v>
       </c>
       <c r="G8" s="3">
-        <v>809500</v>
+        <v>1657600</v>
       </c>
       <c r="H8" s="3">
-        <v>472800</v>
+        <v>771600</v>
       </c>
       <c r="I8" s="3">
-        <v>30500</v>
+        <v>450700</v>
       </c>
       <c r="J8" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>161300</v>
+        <v>105900</v>
       </c>
       <c r="E9" s="3">
-        <v>97100</v>
+        <v>153800</v>
       </c>
       <c r="F9" s="3">
-        <v>155000</v>
+        <v>92600</v>
       </c>
       <c r="G9" s="3">
-        <v>61000</v>
+        <v>147700</v>
       </c>
       <c r="H9" s="3">
-        <v>26300</v>
+        <v>58200</v>
       </c>
       <c r="I9" s="3">
-        <v>2300</v>
+        <v>25100</v>
       </c>
       <c r="J9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>417200</v>
+        <v>517400</v>
       </c>
       <c r="E10" s="3">
-        <v>1184500</v>
+        <v>397700</v>
       </c>
       <c r="F10" s="3">
-        <v>1583900</v>
+        <v>1129100</v>
       </c>
       <c r="G10" s="3">
-        <v>748500</v>
+        <v>1509900</v>
       </c>
       <c r="H10" s="3">
-        <v>446500</v>
+        <v>713500</v>
       </c>
       <c r="I10" s="3">
-        <v>28300</v>
+        <v>425700</v>
       </c>
       <c r="J10" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K10" s="3">
         <v>4100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,17 +926,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>95800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>91300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -937,8 +956,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -946,9 +965,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>681600</v>
+        <v>444100</v>
       </c>
       <c r="E17" s="3">
-        <v>1093600</v>
+        <v>649800</v>
       </c>
       <c r="F17" s="3">
-        <v>1528600</v>
+        <v>1042400</v>
       </c>
       <c r="G17" s="3">
-        <v>564500</v>
+        <v>1457100</v>
       </c>
       <c r="H17" s="3">
-        <v>314400</v>
+        <v>538100</v>
       </c>
       <c r="I17" s="3">
-        <v>21300</v>
+        <v>299700</v>
       </c>
       <c r="J17" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-103100</v>
+        <v>179200</v>
       </c>
       <c r="E18" s="3">
-        <v>188000</v>
+        <v>-98300</v>
       </c>
       <c r="F18" s="3">
-        <v>210300</v>
+        <v>179200</v>
       </c>
       <c r="G18" s="3">
-        <v>244900</v>
+        <v>200500</v>
       </c>
       <c r="H18" s="3">
-        <v>158400</v>
+        <v>233500</v>
       </c>
       <c r="I18" s="3">
-        <v>9300</v>
+        <v>151000</v>
       </c>
       <c r="J18" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,80 +1116,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9900</v>
+        <v>-11700</v>
       </c>
       <c r="E20" s="3">
-        <v>15700</v>
+        <v>-9400</v>
       </c>
       <c r="F20" s="3">
-        <v>48800</v>
+        <v>15000</v>
       </c>
       <c r="G20" s="3">
-        <v>11000</v>
+        <v>46500</v>
       </c>
       <c r="H20" s="3">
-        <v>2600</v>
+        <v>10500</v>
       </c>
       <c r="I20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-99600</v>
+        <v>173500</v>
       </c>
       <c r="E21" s="3">
-        <v>222000</v>
+        <v>-95000</v>
       </c>
       <c r="F21" s="3">
-        <v>280700</v>
+        <v>211500</v>
       </c>
       <c r="G21" s="3">
-        <v>259400</v>
+        <v>267400</v>
       </c>
       <c r="H21" s="3">
-        <v>162500</v>
+        <v>247300</v>
       </c>
       <c r="I21" s="3">
-        <v>9500</v>
+        <v>154900</v>
       </c>
       <c r="J21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,81 +1230,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-112900</v>
+        <v>167500</v>
       </c>
       <c r="E23" s="3">
-        <v>203700</v>
+        <v>-107700</v>
       </c>
       <c r="F23" s="3">
-        <v>259100</v>
+        <v>194200</v>
       </c>
       <c r="G23" s="3">
-        <v>256000</v>
+        <v>247000</v>
       </c>
       <c r="H23" s="3">
-        <v>161000</v>
+        <v>244000</v>
       </c>
       <c r="I23" s="3">
-        <v>9400</v>
+        <v>153500</v>
       </c>
       <c r="J23" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-11800</v>
+        <v>23700</v>
       </c>
       <c r="E24" s="3">
-        <v>34900</v>
+        <v>-11200</v>
       </c>
       <c r="F24" s="3">
-        <v>28400</v>
+        <v>33300</v>
       </c>
       <c r="G24" s="3">
-        <v>55700</v>
+        <v>27000</v>
       </c>
       <c r="H24" s="3">
-        <v>-2000</v>
+        <v>53100</v>
       </c>
       <c r="I24" s="3">
-        <v>3000</v>
+        <v>-1900</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-101200</v>
+        <v>143800</v>
       </c>
       <c r="E26" s="3">
-        <v>168800</v>
+        <v>-96400</v>
       </c>
       <c r="F26" s="3">
-        <v>230700</v>
+        <v>160900</v>
       </c>
       <c r="G26" s="3">
-        <v>200300</v>
+        <v>219900</v>
       </c>
       <c r="H26" s="3">
-        <v>163000</v>
+        <v>191000</v>
       </c>
       <c r="I26" s="3">
-        <v>6400</v>
+        <v>155400</v>
       </c>
       <c r="J26" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-101200</v>
+        <v>143800</v>
       </c>
       <c r="E27" s="3">
-        <v>168800</v>
+        <v>-96400</v>
       </c>
       <c r="F27" s="3">
-        <v>230700</v>
+        <v>160900</v>
       </c>
       <c r="G27" s="3">
-        <v>200300</v>
+        <v>219900</v>
       </c>
       <c r="H27" s="3">
-        <v>163000</v>
+        <v>191000</v>
       </c>
       <c r="I27" s="3">
-        <v>6400</v>
+        <v>155400</v>
       </c>
       <c r="J27" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9900</v>
+        <v>11700</v>
       </c>
       <c r="E32" s="3">
-        <v>-15700</v>
+        <v>9400</v>
       </c>
       <c r="F32" s="3">
-        <v>-48800</v>
+        <v>-15000</v>
       </c>
       <c r="G32" s="3">
-        <v>-11000</v>
+        <v>-46500</v>
       </c>
       <c r="H32" s="3">
-        <v>-2600</v>
+        <v>-10500</v>
       </c>
       <c r="I32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-101200</v>
+        <v>143800</v>
       </c>
       <c r="E33" s="3">
-        <v>168800</v>
+        <v>-96400</v>
       </c>
       <c r="F33" s="3">
-        <v>230700</v>
+        <v>160900</v>
       </c>
       <c r="G33" s="3">
-        <v>200300</v>
+        <v>219900</v>
       </c>
       <c r="H33" s="3">
-        <v>163000</v>
+        <v>191000</v>
       </c>
       <c r="I33" s="3">
-        <v>6400</v>
+        <v>155400</v>
       </c>
       <c r="J33" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-101200</v>
+        <v>143800</v>
       </c>
       <c r="E35" s="3">
-        <v>168800</v>
+        <v>-96400</v>
       </c>
       <c r="F35" s="3">
-        <v>230700</v>
+        <v>160900</v>
       </c>
       <c r="G35" s="3">
-        <v>200300</v>
+        <v>219900</v>
       </c>
       <c r="H35" s="3">
-        <v>163000</v>
+        <v>191000</v>
       </c>
       <c r="I35" s="3">
-        <v>6400</v>
+        <v>155400</v>
       </c>
       <c r="J35" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,44 +1818,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>360700</v>
+        <v>398700</v>
       </c>
       <c r="E41" s="3">
-        <v>467000</v>
+        <v>343800</v>
       </c>
       <c r="F41" s="3">
-        <v>380700</v>
+        <v>445200</v>
       </c>
       <c r="G41" s="3">
-        <v>271200</v>
+        <v>362900</v>
       </c>
       <c r="H41" s="3">
-        <v>141400</v>
+        <v>258500</v>
       </c>
       <c r="I41" s="3">
-        <v>19100</v>
+        <v>134800</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>18200</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,45 +1893,51 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>168200</v>
+        <v>176500</v>
       </c>
       <c r="E43" s="3">
-        <v>235600</v>
+        <v>160400</v>
       </c>
       <c r="F43" s="3">
-        <v>268500</v>
+        <v>224600</v>
       </c>
       <c r="G43" s="3">
-        <v>20200</v>
+        <v>255900</v>
       </c>
       <c r="H43" s="3">
-        <v>4400</v>
+        <v>19300</v>
       </c>
       <c r="I43" s="3">
-        <v>3800</v>
+        <v>4200</v>
       </c>
       <c r="J43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K43" s="3">
         <v>9100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,45 +1971,51 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16000</v>
+        <v>35600</v>
       </c>
       <c r="E45" s="3">
-        <v>28600</v>
+        <v>15200</v>
       </c>
       <c r="F45" s="3">
-        <v>390400</v>
+        <v>27300</v>
       </c>
       <c r="G45" s="3">
-        <v>156100</v>
+        <v>372100</v>
       </c>
       <c r="H45" s="3">
-        <v>68200</v>
+        <v>148800</v>
       </c>
       <c r="I45" s="3">
-        <v>5600</v>
+        <v>65000</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>5300</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>100</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1948,81 +2049,90 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>346800</v>
+        <v>425600</v>
       </c>
       <c r="E47" s="3">
-        <v>559400</v>
+        <v>330500</v>
       </c>
       <c r="F47" s="3">
-        <v>998800</v>
+        <v>533200</v>
       </c>
       <c r="G47" s="3">
-        <v>257700</v>
+        <v>952000</v>
       </c>
       <c r="H47" s="3">
-        <v>237700</v>
+        <v>245700</v>
       </c>
       <c r="I47" s="3">
-        <v>5700</v>
+        <v>226600</v>
       </c>
       <c r="J47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36900</v>
+        <v>25500</v>
       </c>
       <c r="E48" s="3">
-        <v>77400</v>
+        <v>35200</v>
       </c>
       <c r="F48" s="3">
-        <v>52000</v>
+        <v>73800</v>
       </c>
       <c r="G48" s="3">
-        <v>12000</v>
+        <v>49500</v>
       </c>
       <c r="H48" s="3">
-        <v>5200</v>
+        <v>11400</v>
       </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>4900</v>
       </c>
       <c r="J48" s="3">
+        <v>300</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,32 +2244,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37100</v>
+        <v>12300</v>
       </c>
       <c r="E52" s="3">
-        <v>17000</v>
+        <v>35400</v>
       </c>
       <c r="F52" s="3">
-        <v>89300</v>
+        <v>16200</v>
       </c>
       <c r="G52" s="3">
-        <v>380700</v>
+        <v>85100</v>
       </c>
       <c r="H52" s="3">
-        <v>241600</v>
+        <v>362900</v>
       </c>
       <c r="I52" s="3">
-        <v>14900</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>230300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>14200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>978700</v>
+        <v>1077300</v>
       </c>
       <c r="E54" s="3">
-        <v>1408400</v>
+        <v>933000</v>
       </c>
       <c r="F54" s="3">
-        <v>2081200</v>
+        <v>1342500</v>
       </c>
       <c r="G54" s="3">
-        <v>1098000</v>
+        <v>1983900</v>
       </c>
       <c r="H54" s="3">
-        <v>698500</v>
+        <v>1046600</v>
       </c>
       <c r="I54" s="3">
-        <v>49400</v>
+        <v>665800</v>
       </c>
       <c r="J54" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K54" s="3">
         <v>9500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,32 +2398,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
-        <v>6400</v>
-      </c>
       <c r="F57" s="3">
-        <v>44800</v>
+        <v>6100</v>
       </c>
       <c r="G57" s="3">
-        <v>4900</v>
+        <v>42700</v>
       </c>
       <c r="H57" s="3">
-        <v>2000</v>
+        <v>4700</v>
       </c>
       <c r="I57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2304,9 +2434,12 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2340,45 +2473,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>337900</v>
+        <v>242200</v>
       </c>
       <c r="E59" s="3">
-        <v>395600</v>
+        <v>322100</v>
       </c>
       <c r="F59" s="3">
-        <v>1751200</v>
+        <v>377100</v>
       </c>
       <c r="G59" s="3">
-        <v>217100</v>
+        <v>1669300</v>
       </c>
       <c r="H59" s="3">
-        <v>206400</v>
+        <v>206900</v>
       </c>
       <c r="I59" s="3">
-        <v>12300</v>
+        <v>196700</v>
       </c>
       <c r="J59" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2412,23 +2551,26 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73100</v>
+        <v>143200</v>
       </c>
       <c r="E61" s="3">
-        <v>2700</v>
+        <v>69700</v>
       </c>
       <c r="F61" s="3">
-        <v>28100</v>
+        <v>2600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>26800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2448,27 +2590,30 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5700</v>
+        <v>15700</v>
       </c>
       <c r="E62" s="3">
-        <v>32000</v>
+        <v>5400</v>
       </c>
       <c r="F62" s="3">
-        <v>71100</v>
+        <v>30500</v>
       </c>
       <c r="G62" s="3">
+        <v>67800</v>
+      </c>
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>427100</v>
+        <v>406200</v>
       </c>
       <c r="E66" s="3">
-        <v>752700</v>
+        <v>407100</v>
       </c>
       <c r="F66" s="3">
-        <v>2134300</v>
+        <v>717500</v>
       </c>
       <c r="G66" s="3">
-        <v>664200</v>
+        <v>2034400</v>
       </c>
       <c r="H66" s="3">
-        <v>386000</v>
+        <v>633200</v>
       </c>
       <c r="I66" s="3">
-        <v>27400</v>
+        <v>368000</v>
       </c>
       <c r="J66" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-183600</v>
+        <v>-34500</v>
       </c>
       <c r="E72" s="3">
-        <v>-77900</v>
+        <v>-175100</v>
       </c>
       <c r="F72" s="3">
-        <v>312100</v>
+        <v>-74300</v>
       </c>
       <c r="G72" s="3">
-        <v>268000</v>
+        <v>297500</v>
       </c>
       <c r="H72" s="3">
-        <v>171900</v>
+        <v>255400</v>
       </c>
       <c r="I72" s="3">
-        <v>4300</v>
+        <v>163900</v>
       </c>
       <c r="J72" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>551700</v>
+        <v>671100</v>
       </c>
       <c r="E76" s="3">
-        <v>655700</v>
+        <v>525900</v>
       </c>
       <c r="F76" s="3">
-        <v>-53100</v>
+        <v>625000</v>
       </c>
       <c r="G76" s="3">
-        <v>433700</v>
+        <v>-50600</v>
       </c>
       <c r="H76" s="3">
-        <v>312500</v>
+        <v>413400</v>
       </c>
       <c r="I76" s="3">
-        <v>22000</v>
+        <v>297900</v>
       </c>
       <c r="J76" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K76" s="3">
         <v>5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-101200</v>
+        <v>143800</v>
       </c>
       <c r="E81" s="3">
-        <v>168800</v>
+        <v>-96400</v>
       </c>
       <c r="F81" s="3">
-        <v>230700</v>
+        <v>160900</v>
       </c>
       <c r="G81" s="3">
-        <v>200300</v>
+        <v>219900</v>
       </c>
       <c r="H81" s="3">
-        <v>163000</v>
+        <v>191000</v>
       </c>
       <c r="I81" s="3">
-        <v>6400</v>
+        <v>155400</v>
       </c>
       <c r="J81" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13400</v>
+        <v>6000</v>
       </c>
       <c r="E83" s="3">
-        <v>18400</v>
+        <v>12800</v>
       </c>
       <c r="F83" s="3">
-        <v>21600</v>
+        <v>17500</v>
       </c>
       <c r="G83" s="3">
-        <v>3500</v>
+        <v>20600</v>
       </c>
       <c r="H83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>41200</v>
+        <v>22000</v>
       </c>
       <c r="E89" s="3">
-        <v>40000</v>
+        <v>39300</v>
       </c>
       <c r="F89" s="3">
-        <v>-578100</v>
+        <v>38200</v>
       </c>
       <c r="G89" s="3">
-        <v>396700</v>
+        <v>-551100</v>
       </c>
       <c r="H89" s="3">
-        <v>308600</v>
+        <v>378100</v>
       </c>
       <c r="I89" s="3">
-        <v>8800</v>
+        <v>294200</v>
       </c>
       <c r="J89" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2000</v>
+        <v>-1300</v>
       </c>
       <c r="E91" s="3">
-        <v>-7000</v>
+        <v>-1900</v>
       </c>
       <c r="F91" s="3">
-        <v>-20600</v>
+        <v>-6700</v>
       </c>
       <c r="G91" s="3">
-        <v>-10300</v>
+        <v>-19600</v>
       </c>
       <c r="H91" s="3">
-        <v>-4400</v>
+        <v>-9800</v>
       </c>
       <c r="I91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-262400</v>
+        <v>-48200</v>
       </c>
       <c r="E94" s="3">
-        <v>162100</v>
+        <v>-250100</v>
       </c>
       <c r="F94" s="3">
-        <v>481600</v>
+        <v>154500</v>
       </c>
       <c r="G94" s="3">
-        <v>-54700</v>
+        <v>459000</v>
       </c>
       <c r="H94" s="3">
-        <v>-207600</v>
+        <v>-52100</v>
       </c>
       <c r="I94" s="3">
-        <v>-6600</v>
+        <v>-197900</v>
       </c>
       <c r="J94" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3538,13 +3771,13 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-15600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-88400</v>
+        <v>-14800</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-84200</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>139500</v>
+        <v>59500</v>
       </c>
       <c r="E100" s="3">
-        <v>-167900</v>
+        <v>133000</v>
       </c>
       <c r="F100" s="3">
-        <v>-115100</v>
+        <v>-160000</v>
       </c>
       <c r="G100" s="3">
-        <v>-124000</v>
+        <v>-109700</v>
       </c>
       <c r="H100" s="3">
-        <v>19800</v>
+        <v>-118200</v>
       </c>
       <c r="I100" s="3">
-        <v>17100</v>
+        <v>18800</v>
       </c>
       <c r="J100" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K100" s="3">
         <v>5500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H101" s="3">
-        <v>4300</v>
+        <v>-2200</v>
       </c>
       <c r="I101" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-82100</v>
+        <v>33200</v>
       </c>
       <c r="E102" s="3">
-        <v>34300</v>
+        <v>-78200</v>
       </c>
       <c r="F102" s="3">
-        <v>-211100</v>
+        <v>32700</v>
       </c>
       <c r="G102" s="3">
-        <v>215600</v>
+        <v>-201300</v>
       </c>
       <c r="H102" s="3">
-        <v>125100</v>
+        <v>205500</v>
       </c>
       <c r="I102" s="3">
-        <v>19000</v>
+        <v>119200</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>18200</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>623300</v>
+        <v>643100</v>
       </c>
       <c r="E8" s="3">
-        <v>551500</v>
+        <v>569000</v>
       </c>
       <c r="F8" s="3">
-        <v>1221600</v>
+        <v>1260400</v>
       </c>
       <c r="G8" s="3">
-        <v>1657600</v>
+        <v>1710200</v>
       </c>
       <c r="H8" s="3">
-        <v>771600</v>
+        <v>796100</v>
       </c>
       <c r="I8" s="3">
-        <v>450700</v>
+        <v>465000</v>
       </c>
       <c r="J8" s="3">
-        <v>29100</v>
+        <v>30000</v>
       </c>
       <c r="K8" s="3">
         <v>4700</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>105900</v>
+        <v>109300</v>
       </c>
       <c r="E9" s="3">
-        <v>153800</v>
+        <v>158700</v>
       </c>
       <c r="F9" s="3">
-        <v>92600</v>
+        <v>95500</v>
       </c>
       <c r="G9" s="3">
-        <v>147700</v>
+        <v>152400</v>
       </c>
       <c r="H9" s="3">
-        <v>58200</v>
+        <v>60000</v>
       </c>
       <c r="I9" s="3">
-        <v>25100</v>
+        <v>25900</v>
       </c>
       <c r="J9" s="3">
         <v>2200</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>517400</v>
+        <v>533800</v>
       </c>
       <c r="E10" s="3">
-        <v>397700</v>
+        <v>410400</v>
       </c>
       <c r="F10" s="3">
-        <v>1129100</v>
+        <v>1164900</v>
       </c>
       <c r="G10" s="3">
-        <v>1509900</v>
+        <v>1557800</v>
       </c>
       <c r="H10" s="3">
-        <v>713500</v>
+        <v>736100</v>
       </c>
       <c r="I10" s="3">
-        <v>425700</v>
+        <v>439200</v>
       </c>
       <c r="J10" s="3">
-        <v>26900</v>
+        <v>27800</v>
       </c>
       <c r="K10" s="3">
         <v>4100</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>91300</v>
+        <v>94200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>444100</v>
+        <v>458200</v>
       </c>
       <c r="E17" s="3">
-        <v>649800</v>
+        <v>670400</v>
       </c>
       <c r="F17" s="3">
-        <v>1042400</v>
+        <v>1075500</v>
       </c>
       <c r="G17" s="3">
-        <v>1457100</v>
+        <v>1503400</v>
       </c>
       <c r="H17" s="3">
-        <v>538100</v>
+        <v>555200</v>
       </c>
       <c r="I17" s="3">
-        <v>299700</v>
+        <v>309200</v>
       </c>
       <c r="J17" s="3">
-        <v>20300</v>
+        <v>20900</v>
       </c>
       <c r="K17" s="3">
         <v>5300</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>179200</v>
+        <v>184900</v>
       </c>
       <c r="E18" s="3">
-        <v>-98300</v>
+        <v>-101400</v>
       </c>
       <c r="F18" s="3">
-        <v>179200</v>
+        <v>184900</v>
       </c>
       <c r="G18" s="3">
-        <v>200500</v>
+        <v>206800</v>
       </c>
       <c r="H18" s="3">
-        <v>233500</v>
+        <v>240900</v>
       </c>
       <c r="I18" s="3">
-        <v>151000</v>
+        <v>155800</v>
       </c>
       <c r="J18" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="K18" s="3">
         <v>-700</v>
@@ -1123,19 +1123,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11700</v>
+        <v>-12100</v>
       </c>
       <c r="E20" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="F20" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="G20" s="3">
-        <v>46500</v>
+        <v>48000</v>
       </c>
       <c r="H20" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="I20" s="3">
         <v>2500</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>173500</v>
+        <v>179000</v>
       </c>
       <c r="E21" s="3">
-        <v>-95000</v>
+        <v>-97900</v>
       </c>
       <c r="F21" s="3">
-        <v>211500</v>
+        <v>218400</v>
       </c>
       <c r="G21" s="3">
-        <v>267400</v>
+        <v>276100</v>
       </c>
       <c r="H21" s="3">
-        <v>247300</v>
+        <v>255200</v>
       </c>
       <c r="I21" s="3">
-        <v>154900</v>
+        <v>159900</v>
       </c>
       <c r="J21" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="K21" s="3">
         <v>-600</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>167500</v>
+        <v>172800</v>
       </c>
       <c r="E23" s="3">
-        <v>-107700</v>
+        <v>-111100</v>
       </c>
       <c r="F23" s="3">
-        <v>194200</v>
+        <v>200300</v>
       </c>
       <c r="G23" s="3">
-        <v>247000</v>
+        <v>254800</v>
       </c>
       <c r="H23" s="3">
-        <v>244000</v>
+        <v>251800</v>
       </c>
       <c r="I23" s="3">
-        <v>153500</v>
+        <v>158300</v>
       </c>
       <c r="J23" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="K23" s="3">
         <v>-700</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23700</v>
+        <v>24400</v>
       </c>
       <c r="E24" s="3">
-        <v>-11200</v>
+        <v>-11600</v>
       </c>
       <c r="F24" s="3">
-        <v>33300</v>
+        <v>34400</v>
       </c>
       <c r="G24" s="3">
-        <v>27000</v>
+        <v>27900</v>
       </c>
       <c r="H24" s="3">
-        <v>53100</v>
+        <v>54700</v>
       </c>
       <c r="I24" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="J24" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>143800</v>
+        <v>148400</v>
       </c>
       <c r="E26" s="3">
-        <v>-96400</v>
+        <v>-99500</v>
       </c>
       <c r="F26" s="3">
-        <v>160900</v>
+        <v>166000</v>
       </c>
       <c r="G26" s="3">
-        <v>219900</v>
+        <v>226900</v>
       </c>
       <c r="H26" s="3">
-        <v>191000</v>
+        <v>197000</v>
       </c>
       <c r="I26" s="3">
-        <v>155400</v>
+        <v>160300</v>
       </c>
       <c r="J26" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="K26" s="3">
         <v>-700</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>143800</v>
+        <v>148400</v>
       </c>
       <c r="E27" s="3">
-        <v>-96400</v>
+        <v>-99500</v>
       </c>
       <c r="F27" s="3">
-        <v>160900</v>
+        <v>166000</v>
       </c>
       <c r="G27" s="3">
-        <v>219900</v>
+        <v>226900</v>
       </c>
       <c r="H27" s="3">
-        <v>191000</v>
+        <v>197000</v>
       </c>
       <c r="I27" s="3">
-        <v>155400</v>
+        <v>160300</v>
       </c>
       <c r="J27" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="K27" s="3">
         <v>-700</v>
@@ -1591,19 +1591,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="E32" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="F32" s="3">
-        <v>-15000</v>
+        <v>-15400</v>
       </c>
       <c r="G32" s="3">
-        <v>-46500</v>
+        <v>-48000</v>
       </c>
       <c r="H32" s="3">
-        <v>-10500</v>
+        <v>-10900</v>
       </c>
       <c r="I32" s="3">
         <v>-2500</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>143800</v>
+        <v>148400</v>
       </c>
       <c r="E33" s="3">
-        <v>-96400</v>
+        <v>-99500</v>
       </c>
       <c r="F33" s="3">
-        <v>160900</v>
+        <v>166000</v>
       </c>
       <c r="G33" s="3">
-        <v>219900</v>
+        <v>226900</v>
       </c>
       <c r="H33" s="3">
-        <v>191000</v>
+        <v>197000</v>
       </c>
       <c r="I33" s="3">
-        <v>155400</v>
+        <v>160300</v>
       </c>
       <c r="J33" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="K33" s="3">
         <v>-700</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>143800</v>
+        <v>148400</v>
       </c>
       <c r="E35" s="3">
-        <v>-96400</v>
+        <v>-99500</v>
       </c>
       <c r="F35" s="3">
-        <v>160900</v>
+        <v>166000</v>
       </c>
       <c r="G35" s="3">
-        <v>219900</v>
+        <v>226900</v>
       </c>
       <c r="H35" s="3">
-        <v>191000</v>
+        <v>197000</v>
       </c>
       <c r="I35" s="3">
-        <v>155400</v>
+        <v>160300</v>
       </c>
       <c r="J35" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="K35" s="3">
         <v>-700</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>398700</v>
+        <v>411400</v>
       </c>
       <c r="E41" s="3">
-        <v>343800</v>
+        <v>354700</v>
       </c>
       <c r="F41" s="3">
-        <v>445200</v>
+        <v>459300</v>
       </c>
       <c r="G41" s="3">
-        <v>362900</v>
+        <v>374400</v>
       </c>
       <c r="H41" s="3">
-        <v>258500</v>
+        <v>266700</v>
       </c>
       <c r="I41" s="3">
-        <v>134800</v>
+        <v>139100</v>
       </c>
       <c r="J41" s="3">
-        <v>18200</v>
+        <v>18800</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>176500</v>
+        <v>182100</v>
       </c>
       <c r="E43" s="3">
-        <v>160400</v>
+        <v>165500</v>
       </c>
       <c r="F43" s="3">
-        <v>224600</v>
+        <v>231700</v>
       </c>
       <c r="G43" s="3">
-        <v>255900</v>
+        <v>264000</v>
       </c>
       <c r="H43" s="3">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="I43" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J43" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K43" s="3">
         <v>9100</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35600</v>
+        <v>36700</v>
       </c>
       <c r="E45" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="F45" s="3">
-        <v>27300</v>
+        <v>28100</v>
       </c>
       <c r="G45" s="3">
-        <v>372100</v>
+        <v>383900</v>
       </c>
       <c r="H45" s="3">
-        <v>148800</v>
+        <v>153500</v>
       </c>
       <c r="I45" s="3">
-        <v>65000</v>
+        <v>67000</v>
       </c>
       <c r="J45" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>425600</v>
+        <v>439100</v>
       </c>
       <c r="E47" s="3">
-        <v>330500</v>
+        <v>341000</v>
       </c>
       <c r="F47" s="3">
-        <v>533200</v>
+        <v>550100</v>
       </c>
       <c r="G47" s="3">
-        <v>952000</v>
+        <v>982300</v>
       </c>
       <c r="H47" s="3">
-        <v>245700</v>
+        <v>253500</v>
       </c>
       <c r="I47" s="3">
-        <v>226600</v>
+        <v>233800</v>
       </c>
       <c r="J47" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25500</v>
+        <v>26300</v>
       </c>
       <c r="E48" s="3">
-        <v>35200</v>
+        <v>36300</v>
       </c>
       <c r="F48" s="3">
-        <v>73800</v>
+        <v>76100</v>
       </c>
       <c r="G48" s="3">
-        <v>49500</v>
+        <v>51100</v>
       </c>
       <c r="H48" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="I48" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="E52" s="3">
-        <v>35400</v>
+        <v>36500</v>
       </c>
       <c r="F52" s="3">
-        <v>16200</v>
+        <v>16700</v>
       </c>
       <c r="G52" s="3">
-        <v>85100</v>
+        <v>87800</v>
       </c>
       <c r="H52" s="3">
-        <v>362900</v>
+        <v>374400</v>
       </c>
       <c r="I52" s="3">
-        <v>230300</v>
+        <v>237600</v>
       </c>
       <c r="J52" s="3">
-        <v>14200</v>
+        <v>14600</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1077300</v>
+        <v>1111500</v>
       </c>
       <c r="E54" s="3">
-        <v>933000</v>
+        <v>962600</v>
       </c>
       <c r="F54" s="3">
-        <v>1342500</v>
+        <v>1385100</v>
       </c>
       <c r="G54" s="3">
-        <v>1983900</v>
+        <v>2046800</v>
       </c>
       <c r="H54" s="3">
-        <v>1046600</v>
+        <v>1079800</v>
       </c>
       <c r="I54" s="3">
-        <v>665800</v>
+        <v>687000</v>
       </c>
       <c r="J54" s="3">
-        <v>47100</v>
+        <v>48600</v>
       </c>
       <c r="K54" s="3">
         <v>9500</v>
@@ -2411,16 +2411,16 @@
         <v>1400</v>
       </c>
       <c r="F57" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="G57" s="3">
-        <v>42700</v>
+        <v>44100</v>
       </c>
       <c r="H57" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="I57" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>242200</v>
+        <v>249900</v>
       </c>
       <c r="E59" s="3">
-        <v>322100</v>
+        <v>332300</v>
       </c>
       <c r="F59" s="3">
-        <v>377100</v>
+        <v>389100</v>
       </c>
       <c r="G59" s="3">
-        <v>1669300</v>
+        <v>1722300</v>
       </c>
       <c r="H59" s="3">
-        <v>206900</v>
+        <v>213500</v>
       </c>
       <c r="I59" s="3">
-        <v>196700</v>
+        <v>203000</v>
       </c>
       <c r="J59" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="K59" s="3">
         <v>4200</v>
@@ -2561,16 +2561,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>143200</v>
+        <v>147700</v>
       </c>
       <c r="E61" s="3">
-        <v>69700</v>
+        <v>71900</v>
       </c>
       <c r="F61" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G61" s="3">
-        <v>26800</v>
+        <v>27600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="E62" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F62" s="3">
-        <v>30500</v>
+        <v>31400</v>
       </c>
       <c r="G62" s="3">
-        <v>67800</v>
+        <v>69900</v>
       </c>
       <c r="H62" s="3">
         <v>1600</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>406200</v>
+        <v>419100</v>
       </c>
       <c r="E66" s="3">
-        <v>407100</v>
+        <v>420000</v>
       </c>
       <c r="F66" s="3">
-        <v>717500</v>
+        <v>740300</v>
       </c>
       <c r="G66" s="3">
-        <v>2034400</v>
+        <v>2099000</v>
       </c>
       <c r="H66" s="3">
-        <v>633200</v>
+        <v>653300</v>
       </c>
       <c r="I66" s="3">
-        <v>368000</v>
+        <v>379700</v>
       </c>
       <c r="J66" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="K66" s="3">
         <v>4200</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-34500</v>
+        <v>-35600</v>
       </c>
       <c r="E72" s="3">
-        <v>-175100</v>
+        <v>-180600</v>
       </c>
       <c r="F72" s="3">
-        <v>-74300</v>
+        <v>-76600</v>
       </c>
       <c r="G72" s="3">
-        <v>297500</v>
+        <v>306900</v>
       </c>
       <c r="H72" s="3">
-        <v>255400</v>
+        <v>263600</v>
       </c>
       <c r="I72" s="3">
-        <v>163900</v>
+        <v>169100</v>
       </c>
       <c r="J72" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K72" s="3">
         <v>-2100</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>671100</v>
+        <v>692500</v>
       </c>
       <c r="E76" s="3">
-        <v>525900</v>
+        <v>542500</v>
       </c>
       <c r="F76" s="3">
-        <v>625000</v>
+        <v>644900</v>
       </c>
       <c r="G76" s="3">
-        <v>-50600</v>
+        <v>-52200</v>
       </c>
       <c r="H76" s="3">
-        <v>413400</v>
+        <v>426600</v>
       </c>
       <c r="I76" s="3">
-        <v>297900</v>
+        <v>307300</v>
       </c>
       <c r="J76" s="3">
-        <v>21000</v>
+        <v>21700</v>
       </c>
       <c r="K76" s="3">
         <v>5300</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>143800</v>
+        <v>148400</v>
       </c>
       <c r="E81" s="3">
-        <v>-96400</v>
+        <v>-99500</v>
       </c>
       <c r="F81" s="3">
-        <v>160900</v>
+        <v>166000</v>
       </c>
       <c r="G81" s="3">
-        <v>219900</v>
+        <v>226900</v>
       </c>
       <c r="H81" s="3">
-        <v>191000</v>
+        <v>197000</v>
       </c>
       <c r="I81" s="3">
-        <v>155400</v>
+        <v>160300</v>
       </c>
       <c r="J81" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="K81" s="3">
         <v>-700</v>
@@ -3302,19 +3302,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="E83" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="F83" s="3">
-        <v>17500</v>
+        <v>18100</v>
       </c>
       <c r="G83" s="3">
-        <v>20600</v>
+        <v>21300</v>
       </c>
       <c r="H83" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I83" s="3">
         <v>1500</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>22000</v>
+        <v>22700</v>
       </c>
       <c r="E89" s="3">
-        <v>39300</v>
+        <v>40500</v>
       </c>
       <c r="F89" s="3">
-        <v>38200</v>
+        <v>39400</v>
       </c>
       <c r="G89" s="3">
-        <v>-551100</v>
+        <v>-568600</v>
       </c>
       <c r="H89" s="3">
-        <v>378100</v>
+        <v>390100</v>
       </c>
       <c r="I89" s="3">
-        <v>294200</v>
+        <v>303500</v>
       </c>
       <c r="J89" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="K89" s="3">
         <v>-5400</v>
@@ -3592,22 +3592,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F91" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="G91" s="3">
-        <v>-19600</v>
+        <v>-20200</v>
       </c>
       <c r="H91" s="3">
-        <v>-9800</v>
+        <v>-10100</v>
       </c>
       <c r="I91" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-48200</v>
+        <v>-49800</v>
       </c>
       <c r="E94" s="3">
-        <v>-250100</v>
+        <v>-258000</v>
       </c>
       <c r="F94" s="3">
-        <v>154500</v>
+        <v>159400</v>
       </c>
       <c r="G94" s="3">
-        <v>459000</v>
+        <v>473600</v>
       </c>
       <c r="H94" s="3">
-        <v>-52100</v>
+        <v>-53800</v>
       </c>
       <c r="I94" s="3">
-        <v>-197900</v>
+        <v>-204200</v>
       </c>
       <c r="J94" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -3774,10 +3774,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-14800</v>
+        <v>-15300</v>
       </c>
       <c r="H96" s="3">
-        <v>-84200</v>
+        <v>-86900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>59500</v>
+        <v>61400</v>
       </c>
       <c r="E100" s="3">
-        <v>133000</v>
+        <v>137200</v>
       </c>
       <c r="F100" s="3">
-        <v>-160000</v>
+        <v>-165100</v>
       </c>
       <c r="G100" s="3">
-        <v>-109700</v>
+        <v>-113200</v>
       </c>
       <c r="H100" s="3">
-        <v>-118200</v>
+        <v>-122000</v>
       </c>
       <c r="I100" s="3">
-        <v>18800</v>
+        <v>19400</v>
       </c>
       <c r="J100" s="3">
-        <v>16300</v>
+        <v>16800</v>
       </c>
       <c r="K100" s="3">
         <v>5500</v>
@@ -3972,10 +3972,10 @@
         <v>500</v>
       </c>
       <c r="H101" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="I101" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J101" s="3">
         <v>-300</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>33200</v>
+        <v>34200</v>
       </c>
       <c r="E102" s="3">
-        <v>-78200</v>
+        <v>-80700</v>
       </c>
       <c r="F102" s="3">
-        <v>32700</v>
+        <v>33700</v>
       </c>
       <c r="G102" s="3">
-        <v>-201300</v>
+        <v>-207700</v>
       </c>
       <c r="H102" s="3">
-        <v>205500</v>
+        <v>212000</v>
       </c>
       <c r="I102" s="3">
-        <v>119200</v>
+        <v>123000</v>
       </c>
       <c r="J102" s="3">
-        <v>18200</v>
+        <v>18700</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>YRD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>643100</v>
+        <v>488200</v>
       </c>
       <c r="E8" s="3">
-        <v>569000</v>
+        <v>636500</v>
       </c>
       <c r="F8" s="3">
-        <v>1260400</v>
+        <v>563200</v>
       </c>
       <c r="G8" s="3">
-        <v>1710200</v>
+        <v>1247500</v>
       </c>
       <c r="H8" s="3">
-        <v>796100</v>
+        <v>1692700</v>
       </c>
       <c r="I8" s="3">
-        <v>465000</v>
+        <v>788000</v>
       </c>
       <c r="J8" s="3">
+        <v>460300</v>
+      </c>
+      <c r="K8" s="3">
         <v>30000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>109300</v>
+        <v>110400</v>
       </c>
       <c r="E9" s="3">
-        <v>158700</v>
+        <v>108200</v>
       </c>
       <c r="F9" s="3">
-        <v>95500</v>
+        <v>157000</v>
       </c>
       <c r="G9" s="3">
-        <v>152400</v>
+        <v>94500</v>
       </c>
       <c r="H9" s="3">
-        <v>60000</v>
+        <v>150900</v>
       </c>
       <c r="I9" s="3">
-        <v>25900</v>
+        <v>59400</v>
       </c>
       <c r="J9" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>533800</v>
+        <v>377800</v>
       </c>
       <c r="E10" s="3">
-        <v>410400</v>
+        <v>528400</v>
       </c>
       <c r="F10" s="3">
-        <v>1164900</v>
+        <v>406200</v>
       </c>
       <c r="G10" s="3">
-        <v>1557800</v>
+        <v>1153000</v>
       </c>
       <c r="H10" s="3">
-        <v>736100</v>
+        <v>1541900</v>
       </c>
       <c r="I10" s="3">
-        <v>439200</v>
+        <v>728600</v>
       </c>
       <c r="J10" s="3">
+        <v>434700</v>
+      </c>
+      <c r="K10" s="3">
         <v>27800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,9 +945,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>94200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>93200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -959,8 +978,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,9 +987,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>458200</v>
+        <v>279000</v>
       </c>
       <c r="E17" s="3">
-        <v>670400</v>
+        <v>453500</v>
       </c>
       <c r="F17" s="3">
-        <v>1075500</v>
+        <v>663500</v>
       </c>
       <c r="G17" s="3">
-        <v>1503400</v>
+        <v>1064500</v>
       </c>
       <c r="H17" s="3">
-        <v>555200</v>
+        <v>1488000</v>
       </c>
       <c r="I17" s="3">
-        <v>309200</v>
+        <v>549500</v>
       </c>
       <c r="J17" s="3">
+        <v>306100</v>
+      </c>
+      <c r="K17" s="3">
         <v>20900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>184900</v>
+        <v>209200</v>
       </c>
       <c r="E18" s="3">
-        <v>-101400</v>
+        <v>183000</v>
       </c>
       <c r="F18" s="3">
-        <v>184900</v>
+        <v>-100300</v>
       </c>
       <c r="G18" s="3">
-        <v>206800</v>
+        <v>183000</v>
       </c>
       <c r="H18" s="3">
-        <v>240900</v>
+        <v>204700</v>
       </c>
       <c r="I18" s="3">
-        <v>155800</v>
+        <v>238400</v>
       </c>
       <c r="J18" s="3">
+        <v>154200</v>
+      </c>
+      <c r="K18" s="3">
         <v>9100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,86 +1149,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12100</v>
+        <v>3300</v>
       </c>
       <c r="E20" s="3">
-        <v>-9700</v>
+        <v>-12000</v>
       </c>
       <c r="F20" s="3">
-        <v>15400</v>
+        <v>-9600</v>
       </c>
       <c r="G20" s="3">
-        <v>48000</v>
+        <v>15300</v>
       </c>
       <c r="H20" s="3">
-        <v>10900</v>
+        <v>47500</v>
       </c>
       <c r="I20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>179000</v>
+        <v>216300</v>
       </c>
       <c r="E21" s="3">
-        <v>-97900</v>
+        <v>177200</v>
       </c>
       <c r="F21" s="3">
-        <v>218400</v>
+        <v>-96800</v>
       </c>
       <c r="G21" s="3">
-        <v>276100</v>
+        <v>216300</v>
       </c>
       <c r="H21" s="3">
-        <v>255200</v>
+        <v>273300</v>
       </c>
       <c r="I21" s="3">
-        <v>159900</v>
+        <v>252600</v>
       </c>
       <c r="J21" s="3">
+        <v>158200</v>
+      </c>
+      <c r="K21" s="3">
         <v>9300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1233,87 +1272,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>172800</v>
+        <v>212600</v>
       </c>
       <c r="E23" s="3">
-        <v>-111100</v>
+        <v>171000</v>
       </c>
       <c r="F23" s="3">
-        <v>200300</v>
+        <v>-109900</v>
       </c>
       <c r="G23" s="3">
-        <v>254800</v>
+        <v>198300</v>
       </c>
       <c r="H23" s="3">
-        <v>251800</v>
+        <v>252200</v>
       </c>
       <c r="I23" s="3">
-        <v>158300</v>
+        <v>249200</v>
       </c>
       <c r="J23" s="3">
+        <v>156700</v>
+      </c>
+      <c r="K23" s="3">
         <v>9200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24400</v>
+        <v>42700</v>
       </c>
       <c r="E24" s="3">
-        <v>-11600</v>
+        <v>24200</v>
       </c>
       <c r="F24" s="3">
-        <v>34400</v>
+        <v>-11500</v>
       </c>
       <c r="G24" s="3">
-        <v>27900</v>
+        <v>34000</v>
       </c>
       <c r="H24" s="3">
-        <v>54700</v>
+        <v>27600</v>
       </c>
       <c r="I24" s="3">
+        <v>54200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>148400</v>
+        <v>169900</v>
       </c>
       <c r="E26" s="3">
-        <v>-99500</v>
+        <v>146800</v>
       </c>
       <c r="F26" s="3">
-        <v>166000</v>
+        <v>-98500</v>
       </c>
       <c r="G26" s="3">
-        <v>226900</v>
+        <v>164300</v>
       </c>
       <c r="H26" s="3">
-        <v>197000</v>
+        <v>224600</v>
       </c>
       <c r="I26" s="3">
-        <v>160300</v>
+        <v>195000</v>
       </c>
       <c r="J26" s="3">
+        <v>158700</v>
+      </c>
+      <c r="K26" s="3">
         <v>6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>148400</v>
+        <v>169900</v>
       </c>
       <c r="E27" s="3">
-        <v>-99500</v>
+        <v>146800</v>
       </c>
       <c r="F27" s="3">
-        <v>166000</v>
+        <v>-98500</v>
       </c>
       <c r="G27" s="3">
-        <v>226900</v>
+        <v>164300</v>
       </c>
       <c r="H27" s="3">
-        <v>197000</v>
+        <v>224600</v>
       </c>
       <c r="I27" s="3">
-        <v>160300</v>
+        <v>195000</v>
       </c>
       <c r="J27" s="3">
+        <v>158700</v>
+      </c>
+      <c r="K27" s="3">
         <v>6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12100</v>
+        <v>-3300</v>
       </c>
       <c r="E32" s="3">
-        <v>9700</v>
+        <v>12000</v>
       </c>
       <c r="F32" s="3">
-        <v>-15400</v>
+        <v>9600</v>
       </c>
       <c r="G32" s="3">
-        <v>-48000</v>
+        <v>-15300</v>
       </c>
       <c r="H32" s="3">
-        <v>-10900</v>
+        <v>-47500</v>
       </c>
       <c r="I32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>148400</v>
+        <v>169900</v>
       </c>
       <c r="E33" s="3">
-        <v>-99500</v>
+        <v>146800</v>
       </c>
       <c r="F33" s="3">
-        <v>166000</v>
+        <v>-98500</v>
       </c>
       <c r="G33" s="3">
-        <v>226900</v>
+        <v>164300</v>
       </c>
       <c r="H33" s="3">
-        <v>197000</v>
+        <v>224600</v>
       </c>
       <c r="I33" s="3">
-        <v>160300</v>
+        <v>195000</v>
       </c>
       <c r="J33" s="3">
+        <v>158700</v>
+      </c>
+      <c r="K33" s="3">
         <v>6300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>148400</v>
+        <v>169900</v>
       </c>
       <c r="E35" s="3">
-        <v>-99500</v>
+        <v>146800</v>
       </c>
       <c r="F35" s="3">
-        <v>166000</v>
+        <v>-98500</v>
       </c>
       <c r="G35" s="3">
-        <v>226900</v>
+        <v>164300</v>
       </c>
       <c r="H35" s="3">
-        <v>197000</v>
+        <v>224600</v>
       </c>
       <c r="I35" s="3">
-        <v>160300</v>
+        <v>195000</v>
       </c>
       <c r="J35" s="3">
+        <v>158700</v>
+      </c>
+      <c r="K35" s="3">
         <v>6300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,47 +1904,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>411400</v>
+        <v>607300</v>
       </c>
       <c r="E41" s="3">
-        <v>354700</v>
+        <v>407200</v>
       </c>
       <c r="F41" s="3">
-        <v>459300</v>
+        <v>351100</v>
       </c>
       <c r="G41" s="3">
-        <v>374400</v>
+        <v>454600</v>
       </c>
       <c r="H41" s="3">
-        <v>266700</v>
+        <v>370600</v>
       </c>
       <c r="I41" s="3">
-        <v>139100</v>
+        <v>264000</v>
       </c>
       <c r="J41" s="3">
+        <v>137600</v>
+      </c>
+      <c r="K41" s="3">
         <v>18800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1896,48 +1985,54 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>182100</v>
+        <v>219300</v>
       </c>
       <c r="E43" s="3">
-        <v>165500</v>
+        <v>180200</v>
       </c>
       <c r="F43" s="3">
-        <v>231700</v>
+        <v>163800</v>
       </c>
       <c r="G43" s="3">
-        <v>264000</v>
+        <v>229400</v>
       </c>
       <c r="H43" s="3">
-        <v>19900</v>
+        <v>261300</v>
       </c>
       <c r="I43" s="3">
+        <v>19700</v>
+      </c>
+      <c r="J43" s="3">
         <v>4300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,48 +2069,54 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36700</v>
+        <v>33200</v>
       </c>
       <c r="E45" s="3">
-        <v>15700</v>
+        <v>36300</v>
       </c>
       <c r="F45" s="3">
-        <v>28100</v>
+        <v>15500</v>
       </c>
       <c r="G45" s="3">
-        <v>383900</v>
+        <v>27800</v>
       </c>
       <c r="H45" s="3">
-        <v>153500</v>
+        <v>380000</v>
       </c>
       <c r="I45" s="3">
-        <v>67000</v>
+        <v>152000</v>
       </c>
       <c r="J45" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K45" s="3">
         <v>5500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>100</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2052,87 +2153,96 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>439100</v>
+        <v>308600</v>
       </c>
       <c r="E47" s="3">
-        <v>341000</v>
+        <v>434600</v>
       </c>
       <c r="F47" s="3">
-        <v>550100</v>
+        <v>337600</v>
       </c>
       <c r="G47" s="3">
-        <v>982300</v>
+        <v>544500</v>
       </c>
       <c r="H47" s="3">
-        <v>253500</v>
+        <v>972200</v>
       </c>
       <c r="I47" s="3">
-        <v>233800</v>
+        <v>250900</v>
       </c>
       <c r="J47" s="3">
+        <v>231400</v>
+      </c>
+      <c r="K47" s="3">
         <v>5600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26300</v>
+        <v>15800</v>
       </c>
       <c r="E48" s="3">
-        <v>36300</v>
+        <v>26100</v>
       </c>
       <c r="F48" s="3">
-        <v>76100</v>
+        <v>35900</v>
       </c>
       <c r="G48" s="3">
-        <v>51100</v>
+        <v>75300</v>
       </c>
       <c r="H48" s="3">
-        <v>11800</v>
+        <v>50600</v>
       </c>
       <c r="I48" s="3">
-        <v>5100</v>
+        <v>11700</v>
       </c>
       <c r="J48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,36 +2363,39 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12700</v>
+        <v>24600</v>
       </c>
       <c r="E52" s="3">
-        <v>36500</v>
+        <v>12500</v>
       </c>
       <c r="F52" s="3">
-        <v>16700</v>
+        <v>36100</v>
       </c>
       <c r="G52" s="3">
-        <v>87800</v>
+        <v>16600</v>
       </c>
       <c r="H52" s="3">
-        <v>374400</v>
+        <v>87000</v>
       </c>
       <c r="I52" s="3">
-        <v>237600</v>
+        <v>370600</v>
       </c>
       <c r="J52" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K52" s="3">
         <v>14600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1111500</v>
+        <v>1213400</v>
       </c>
       <c r="E54" s="3">
-        <v>962600</v>
+        <v>1100200</v>
       </c>
       <c r="F54" s="3">
-        <v>1385100</v>
+        <v>952700</v>
       </c>
       <c r="G54" s="3">
-        <v>2046800</v>
+        <v>1371000</v>
       </c>
       <c r="H54" s="3">
-        <v>1079800</v>
+        <v>2025900</v>
       </c>
       <c r="I54" s="3">
-        <v>687000</v>
+        <v>1068800</v>
       </c>
       <c r="J54" s="3">
+        <v>680000</v>
+      </c>
+      <c r="K54" s="3">
         <v>48600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,35 +2528,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
-        <v>6300</v>
-      </c>
       <c r="G57" s="3">
-        <v>44100</v>
+        <v>6200</v>
       </c>
       <c r="H57" s="3">
-        <v>4900</v>
+        <v>43600</v>
       </c>
       <c r="I57" s="3">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="J57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,9 +2567,12 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2476,48 +2609,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>249900</v>
+        <v>224300</v>
       </c>
       <c r="E59" s="3">
-        <v>332300</v>
+        <v>247300</v>
       </c>
       <c r="F59" s="3">
-        <v>389100</v>
+        <v>328900</v>
       </c>
       <c r="G59" s="3">
-        <v>1722300</v>
+        <v>385100</v>
       </c>
       <c r="H59" s="3">
-        <v>213500</v>
+        <v>1704700</v>
       </c>
       <c r="I59" s="3">
-        <v>203000</v>
+        <v>211300</v>
       </c>
       <c r="J59" s="3">
+        <v>200900</v>
+      </c>
+      <c r="K59" s="3">
         <v>12100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2554,26 +2693,29 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>147700</v>
+        <v>109200</v>
       </c>
       <c r="E61" s="3">
-        <v>71900</v>
+        <v>146200</v>
       </c>
       <c r="F61" s="3">
-        <v>2700</v>
+        <v>71100</v>
       </c>
       <c r="G61" s="3">
-        <v>27600</v>
+        <v>2600</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>27400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2593,30 +2735,33 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16200</v>
+        <v>11300</v>
       </c>
       <c r="E62" s="3">
-        <v>5600</v>
+        <v>16000</v>
       </c>
       <c r="F62" s="3">
-        <v>31400</v>
+        <v>5500</v>
       </c>
       <c r="G62" s="3">
-        <v>69900</v>
+        <v>31100</v>
       </c>
       <c r="H62" s="3">
+        <v>69200</v>
+      </c>
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>419100</v>
+        <v>356100</v>
       </c>
       <c r="E66" s="3">
-        <v>420000</v>
+        <v>414800</v>
       </c>
       <c r="F66" s="3">
-        <v>740300</v>
+        <v>415700</v>
       </c>
       <c r="G66" s="3">
-        <v>2099000</v>
+        <v>732700</v>
       </c>
       <c r="H66" s="3">
-        <v>653300</v>
+        <v>2077600</v>
       </c>
       <c r="I66" s="3">
-        <v>379700</v>
+        <v>646600</v>
       </c>
       <c r="J66" s="3">
+        <v>375800</v>
+      </c>
+      <c r="K66" s="3">
         <v>26900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-35600</v>
+        <v>129200</v>
       </c>
       <c r="E72" s="3">
-        <v>-180600</v>
+        <v>-35200</v>
       </c>
       <c r="F72" s="3">
-        <v>-76600</v>
+        <v>-178800</v>
       </c>
       <c r="G72" s="3">
-        <v>306900</v>
+        <v>-75800</v>
       </c>
       <c r="H72" s="3">
-        <v>263600</v>
+        <v>303800</v>
       </c>
       <c r="I72" s="3">
-        <v>169100</v>
+        <v>260900</v>
       </c>
       <c r="J72" s="3">
+        <v>167300</v>
+      </c>
+      <c r="K72" s="3">
         <v>4200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>692500</v>
+        <v>857300</v>
       </c>
       <c r="E76" s="3">
-        <v>542500</v>
+        <v>685400</v>
       </c>
       <c r="F76" s="3">
-        <v>644900</v>
+        <v>537000</v>
       </c>
       <c r="G76" s="3">
-        <v>-52200</v>
+        <v>638300</v>
       </c>
       <c r="H76" s="3">
-        <v>426600</v>
+        <v>-51700</v>
       </c>
       <c r="I76" s="3">
-        <v>307300</v>
+        <v>422200</v>
       </c>
       <c r="J76" s="3">
+        <v>304200</v>
+      </c>
+      <c r="K76" s="3">
         <v>21700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>148400</v>
+        <v>169900</v>
       </c>
       <c r="E81" s="3">
-        <v>-99500</v>
+        <v>146800</v>
       </c>
       <c r="F81" s="3">
-        <v>166000</v>
+        <v>-98500</v>
       </c>
       <c r="G81" s="3">
-        <v>226900</v>
+        <v>164300</v>
       </c>
       <c r="H81" s="3">
-        <v>197000</v>
+        <v>224600</v>
       </c>
       <c r="I81" s="3">
-        <v>160300</v>
+        <v>195000</v>
       </c>
       <c r="J81" s="3">
+        <v>158700</v>
+      </c>
+      <c r="K81" s="3">
         <v>6300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6200</v>
+        <v>3800</v>
       </c>
       <c r="E83" s="3">
-        <v>13200</v>
+        <v>6100</v>
       </c>
       <c r="F83" s="3">
-        <v>18100</v>
+        <v>13000</v>
       </c>
       <c r="G83" s="3">
-        <v>21300</v>
+        <v>17900</v>
       </c>
       <c r="H83" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I83" s="3">
         <v>3400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>22700</v>
+        <v>262900</v>
       </c>
       <c r="E89" s="3">
-        <v>40500</v>
+        <v>22500</v>
       </c>
       <c r="F89" s="3">
-        <v>39400</v>
+        <v>40100</v>
       </c>
       <c r="G89" s="3">
-        <v>-568600</v>
+        <v>39000</v>
       </c>
       <c r="H89" s="3">
-        <v>390100</v>
+        <v>-562800</v>
       </c>
       <c r="I89" s="3">
-        <v>303500</v>
+        <v>386200</v>
       </c>
       <c r="J89" s="3">
+        <v>300400</v>
+      </c>
+      <c r="K89" s="3">
         <v>8600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1400</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-6900</v>
-      </c>
       <c r="G91" s="3">
-        <v>-20200</v>
+        <v>-6800</v>
       </c>
       <c r="H91" s="3">
-        <v>-10100</v>
+        <v>-20000</v>
       </c>
       <c r="I91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-4300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-49800</v>
+        <v>7500</v>
       </c>
       <c r="E94" s="3">
-        <v>-258000</v>
+        <v>-49300</v>
       </c>
       <c r="F94" s="3">
-        <v>159400</v>
+        <v>-255400</v>
       </c>
       <c r="G94" s="3">
-        <v>473600</v>
+        <v>157800</v>
       </c>
       <c r="H94" s="3">
-        <v>-53800</v>
+        <v>468800</v>
       </c>
       <c r="I94" s="3">
-        <v>-204200</v>
+        <v>-53200</v>
       </c>
       <c r="J94" s="3">
+        <v>-202100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3774,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-15300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-86900</v>
+        <v>-15200</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-86000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>61400</v>
+        <v>-69500</v>
       </c>
       <c r="E100" s="3">
-        <v>137200</v>
+        <v>60800</v>
       </c>
       <c r="F100" s="3">
-        <v>-165100</v>
+        <v>135800</v>
       </c>
       <c r="G100" s="3">
-        <v>-113200</v>
+        <v>-163400</v>
       </c>
       <c r="H100" s="3">
-        <v>-122000</v>
+        <v>-112000</v>
       </c>
       <c r="I100" s="3">
-        <v>19400</v>
+        <v>-120700</v>
       </c>
       <c r="J100" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K100" s="3">
         <v>16800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>34200</v>
+        <v>201200</v>
       </c>
       <c r="E102" s="3">
-        <v>-80700</v>
+        <v>33900</v>
       </c>
       <c r="F102" s="3">
-        <v>33700</v>
+        <v>-79900</v>
       </c>
       <c r="G102" s="3">
-        <v>-207700</v>
+        <v>33400</v>
       </c>
       <c r="H102" s="3">
-        <v>212000</v>
+        <v>-205500</v>
       </c>
       <c r="I102" s="3">
-        <v>123000</v>
+        <v>209900</v>
       </c>
       <c r="J102" s="3">
+        <v>121700</v>
+      </c>
+      <c r="K102" s="3">
         <v>18700</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>488200</v>
+        <v>473200</v>
       </c>
       <c r="E8" s="3">
-        <v>636500</v>
+        <v>617000</v>
       </c>
       <c r="F8" s="3">
-        <v>563200</v>
+        <v>545900</v>
       </c>
       <c r="G8" s="3">
-        <v>1247500</v>
+        <v>1209200</v>
       </c>
       <c r="H8" s="3">
-        <v>1692700</v>
+        <v>1640700</v>
       </c>
       <c r="I8" s="3">
-        <v>788000</v>
+        <v>763800</v>
       </c>
       <c r="J8" s="3">
-        <v>460300</v>
+        <v>446100</v>
       </c>
       <c r="K8" s="3">
         <v>30000</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>110400</v>
+        <v>107000</v>
       </c>
       <c r="E9" s="3">
-        <v>108200</v>
+        <v>104800</v>
       </c>
       <c r="F9" s="3">
-        <v>157000</v>
+        <v>152200</v>
       </c>
       <c r="G9" s="3">
-        <v>94500</v>
+        <v>91600</v>
       </c>
       <c r="H9" s="3">
-        <v>150900</v>
+        <v>146200</v>
       </c>
       <c r="I9" s="3">
-        <v>59400</v>
+        <v>57600</v>
       </c>
       <c r="J9" s="3">
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="K9" s="3">
         <v>2200</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>377800</v>
+        <v>366200</v>
       </c>
       <c r="E10" s="3">
-        <v>528400</v>
+        <v>512100</v>
       </c>
       <c r="F10" s="3">
-        <v>406200</v>
+        <v>393700</v>
       </c>
       <c r="G10" s="3">
-        <v>1153000</v>
+        <v>1117500</v>
       </c>
       <c r="H10" s="3">
-        <v>1541900</v>
+        <v>1494500</v>
       </c>
       <c r="I10" s="3">
-        <v>728600</v>
+        <v>706200</v>
       </c>
       <c r="J10" s="3">
-        <v>434700</v>
+        <v>421300</v>
       </c>
       <c r="K10" s="3">
         <v>27800</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>93200</v>
+        <v>90400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>279000</v>
+        <v>270400</v>
       </c>
       <c r="E17" s="3">
-        <v>453500</v>
+        <v>439600</v>
       </c>
       <c r="F17" s="3">
-        <v>663500</v>
+        <v>643100</v>
       </c>
       <c r="G17" s="3">
-        <v>1064500</v>
+        <v>1031800</v>
       </c>
       <c r="H17" s="3">
-        <v>1488000</v>
+        <v>1442300</v>
       </c>
       <c r="I17" s="3">
-        <v>549500</v>
+        <v>532700</v>
       </c>
       <c r="J17" s="3">
-        <v>306100</v>
+        <v>296700</v>
       </c>
       <c r="K17" s="3">
         <v>20900</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>209200</v>
+        <v>202800</v>
       </c>
       <c r="E18" s="3">
-        <v>183000</v>
+        <v>177400</v>
       </c>
       <c r="F18" s="3">
-        <v>-100300</v>
+        <v>-97300</v>
       </c>
       <c r="G18" s="3">
-        <v>183000</v>
+        <v>177400</v>
       </c>
       <c r="H18" s="3">
-        <v>204700</v>
+        <v>198400</v>
       </c>
       <c r="I18" s="3">
-        <v>238400</v>
+        <v>231100</v>
       </c>
       <c r="J18" s="3">
-        <v>154200</v>
+        <v>149500</v>
       </c>
       <c r="K18" s="3">
         <v>9100</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E20" s="3">
-        <v>-12000</v>
+        <v>-11600</v>
       </c>
       <c r="F20" s="3">
-        <v>-9600</v>
+        <v>-9300</v>
       </c>
       <c r="G20" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="H20" s="3">
-        <v>47500</v>
+        <v>46000</v>
       </c>
       <c r="I20" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="J20" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>216300</v>
+        <v>209700</v>
       </c>
       <c r="E21" s="3">
-        <v>177200</v>
+        <v>171700</v>
       </c>
       <c r="F21" s="3">
-        <v>-96800</v>
+        <v>-93900</v>
       </c>
       <c r="G21" s="3">
-        <v>216300</v>
+        <v>209500</v>
       </c>
       <c r="H21" s="3">
-        <v>273300</v>
+        <v>264800</v>
       </c>
       <c r="I21" s="3">
-        <v>252600</v>
+        <v>244800</v>
       </c>
       <c r="J21" s="3">
-        <v>158200</v>
+        <v>153400</v>
       </c>
       <c r="K21" s="3">
         <v>9300</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>212600</v>
+        <v>206000</v>
       </c>
       <c r="E23" s="3">
-        <v>171000</v>
+        <v>165800</v>
       </c>
       <c r="F23" s="3">
-        <v>-109900</v>
+        <v>-106600</v>
       </c>
       <c r="G23" s="3">
-        <v>198300</v>
+        <v>192200</v>
       </c>
       <c r="H23" s="3">
-        <v>252200</v>
+        <v>244400</v>
       </c>
       <c r="I23" s="3">
-        <v>249200</v>
+        <v>241500</v>
       </c>
       <c r="J23" s="3">
-        <v>156700</v>
+        <v>151900</v>
       </c>
       <c r="K23" s="3">
         <v>9200</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>42700</v>
+        <v>41400</v>
       </c>
       <c r="E24" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="F24" s="3">
-        <v>-11500</v>
+        <v>-11100</v>
       </c>
       <c r="G24" s="3">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="H24" s="3">
-        <v>27600</v>
+        <v>26800</v>
       </c>
       <c r="I24" s="3">
-        <v>54200</v>
+        <v>52500</v>
       </c>
       <c r="J24" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K24" s="3">
         <v>2900</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>169900</v>
+        <v>164600</v>
       </c>
       <c r="E26" s="3">
-        <v>146800</v>
+        <v>142300</v>
       </c>
       <c r="F26" s="3">
-        <v>-98500</v>
+        <v>-95400</v>
       </c>
       <c r="G26" s="3">
-        <v>164300</v>
+        <v>159200</v>
       </c>
       <c r="H26" s="3">
-        <v>224600</v>
+        <v>217700</v>
       </c>
       <c r="I26" s="3">
-        <v>195000</v>
+        <v>189000</v>
       </c>
       <c r="J26" s="3">
-        <v>158700</v>
+        <v>153800</v>
       </c>
       <c r="K26" s="3">
         <v>6300</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>169900</v>
+        <v>164600</v>
       </c>
       <c r="E27" s="3">
-        <v>146800</v>
+        <v>142300</v>
       </c>
       <c r="F27" s="3">
-        <v>-98500</v>
+        <v>-95400</v>
       </c>
       <c r="G27" s="3">
-        <v>164300</v>
+        <v>159200</v>
       </c>
       <c r="H27" s="3">
-        <v>224600</v>
+        <v>217700</v>
       </c>
       <c r="I27" s="3">
-        <v>195000</v>
+        <v>189000</v>
       </c>
       <c r="J27" s="3">
-        <v>158700</v>
+        <v>153800</v>
       </c>
       <c r="K27" s="3">
         <v>6300</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="E32" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="F32" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="G32" s="3">
-        <v>-15300</v>
+        <v>-14800</v>
       </c>
       <c r="H32" s="3">
-        <v>-47500</v>
+        <v>-46000</v>
       </c>
       <c r="I32" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="J32" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>169900</v>
+        <v>164600</v>
       </c>
       <c r="E33" s="3">
-        <v>146800</v>
+        <v>142300</v>
       </c>
       <c r="F33" s="3">
-        <v>-98500</v>
+        <v>-95400</v>
       </c>
       <c r="G33" s="3">
-        <v>164300</v>
+        <v>159200</v>
       </c>
       <c r="H33" s="3">
-        <v>224600</v>
+        <v>217700</v>
       </c>
       <c r="I33" s="3">
-        <v>195000</v>
+        <v>189000</v>
       </c>
       <c r="J33" s="3">
-        <v>158700</v>
+        <v>153800</v>
       </c>
       <c r="K33" s="3">
         <v>6300</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>169900</v>
+        <v>164600</v>
       </c>
       <c r="E35" s="3">
-        <v>146800</v>
+        <v>142300</v>
       </c>
       <c r="F35" s="3">
-        <v>-98500</v>
+        <v>-95400</v>
       </c>
       <c r="G35" s="3">
-        <v>164300</v>
+        <v>159200</v>
       </c>
       <c r="H35" s="3">
-        <v>224600</v>
+        <v>217700</v>
       </c>
       <c r="I35" s="3">
-        <v>195000</v>
+        <v>189000</v>
       </c>
       <c r="J35" s="3">
-        <v>158700</v>
+        <v>153800</v>
       </c>
       <c r="K35" s="3">
         <v>6300</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>607300</v>
+        <v>588600</v>
       </c>
       <c r="E41" s="3">
-        <v>407200</v>
+        <v>394700</v>
       </c>
       <c r="F41" s="3">
-        <v>351100</v>
+        <v>340300</v>
       </c>
       <c r="G41" s="3">
-        <v>454600</v>
+        <v>440600</v>
       </c>
       <c r="H41" s="3">
-        <v>370600</v>
+        <v>359200</v>
       </c>
       <c r="I41" s="3">
-        <v>264000</v>
+        <v>255900</v>
       </c>
       <c r="J41" s="3">
-        <v>137600</v>
+        <v>133400</v>
       </c>
       <c r="K41" s="3">
         <v>18800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>219300</v>
+        <v>212600</v>
       </c>
       <c r="E43" s="3">
-        <v>180200</v>
+        <v>174700</v>
       </c>
       <c r="F43" s="3">
-        <v>163800</v>
+        <v>158700</v>
       </c>
       <c r="G43" s="3">
-        <v>229400</v>
+        <v>222300</v>
       </c>
       <c r="H43" s="3">
-        <v>261300</v>
+        <v>253300</v>
       </c>
       <c r="I43" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="J43" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K43" s="3">
         <v>3800</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33200</v>
+        <v>32100</v>
       </c>
       <c r="E45" s="3">
-        <v>36300</v>
+        <v>35200</v>
       </c>
       <c r="F45" s="3">
-        <v>15500</v>
+        <v>15100</v>
       </c>
       <c r="G45" s="3">
-        <v>27800</v>
+        <v>27000</v>
       </c>
       <c r="H45" s="3">
-        <v>380000</v>
+        <v>368300</v>
       </c>
       <c r="I45" s="3">
-        <v>152000</v>
+        <v>147300</v>
       </c>
       <c r="J45" s="3">
-        <v>66400</v>
+        <v>64300</v>
       </c>
       <c r="K45" s="3">
         <v>5500</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>308600</v>
+        <v>299100</v>
       </c>
       <c r="E47" s="3">
-        <v>434600</v>
+        <v>421200</v>
       </c>
       <c r="F47" s="3">
-        <v>337600</v>
+        <v>327200</v>
       </c>
       <c r="G47" s="3">
-        <v>544500</v>
+        <v>527800</v>
       </c>
       <c r="H47" s="3">
-        <v>972200</v>
+        <v>942300</v>
       </c>
       <c r="I47" s="3">
-        <v>250900</v>
+        <v>243200</v>
       </c>
       <c r="J47" s="3">
-        <v>231400</v>
+        <v>224300</v>
       </c>
       <c r="K47" s="3">
         <v>5600</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="E48" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="F48" s="3">
-        <v>35900</v>
+        <v>34800</v>
       </c>
       <c r="G48" s="3">
-        <v>75300</v>
+        <v>73000</v>
       </c>
       <c r="H48" s="3">
-        <v>50600</v>
+        <v>49000</v>
       </c>
       <c r="I48" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="J48" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="E52" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="F52" s="3">
-        <v>36100</v>
+        <v>35000</v>
       </c>
       <c r="G52" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="H52" s="3">
-        <v>87000</v>
+        <v>84300</v>
       </c>
       <c r="I52" s="3">
-        <v>370600</v>
+        <v>359200</v>
       </c>
       <c r="J52" s="3">
-        <v>235200</v>
+        <v>228000</v>
       </c>
       <c r="K52" s="3">
         <v>14600</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1213400</v>
+        <v>1176100</v>
       </c>
       <c r="E54" s="3">
-        <v>1100200</v>
+        <v>1066300</v>
       </c>
       <c r="F54" s="3">
-        <v>952700</v>
+        <v>923400</v>
       </c>
       <c r="G54" s="3">
-        <v>1371000</v>
+        <v>1328800</v>
       </c>
       <c r="H54" s="3">
-        <v>2025900</v>
+        <v>1963600</v>
       </c>
       <c r="I54" s="3">
-        <v>1068800</v>
+        <v>1035900</v>
       </c>
       <c r="J54" s="3">
-        <v>680000</v>
+        <v>659100</v>
       </c>
       <c r="K54" s="3">
         <v>48600</v>
@@ -2535,22 +2535,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E57" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F57" s="3">
         <v>1400</v>
       </c>
       <c r="G57" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="H57" s="3">
-        <v>43600</v>
+        <v>42300</v>
       </c>
       <c r="I57" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J57" s="3">
         <v>1900</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>224300</v>
+        <v>217400</v>
       </c>
       <c r="E59" s="3">
-        <v>247300</v>
+        <v>239700</v>
       </c>
       <c r="F59" s="3">
-        <v>328900</v>
+        <v>318800</v>
       </c>
       <c r="G59" s="3">
-        <v>385100</v>
+        <v>373300</v>
       </c>
       <c r="H59" s="3">
-        <v>1704700</v>
+        <v>1652300</v>
       </c>
       <c r="I59" s="3">
-        <v>211300</v>
+        <v>204800</v>
       </c>
       <c r="J59" s="3">
-        <v>200900</v>
+        <v>194700</v>
       </c>
       <c r="K59" s="3">
         <v>12100</v>
@@ -2703,19 +2703,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>109200</v>
+        <v>105800</v>
       </c>
       <c r="E61" s="3">
-        <v>146200</v>
+        <v>141700</v>
       </c>
       <c r="F61" s="3">
-        <v>71100</v>
+        <v>69000</v>
       </c>
       <c r="G61" s="3">
         <v>2600</v>
       </c>
       <c r="H61" s="3">
-        <v>27400</v>
+        <v>26500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2745,19 +2745,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11300</v>
+        <v>11000</v>
       </c>
       <c r="E62" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="F62" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="G62" s="3">
-        <v>31100</v>
+        <v>30200</v>
       </c>
       <c r="H62" s="3">
-        <v>69200</v>
+        <v>67100</v>
       </c>
       <c r="I62" s="3">
         <v>1600</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>356100</v>
+        <v>345200</v>
       </c>
       <c r="E66" s="3">
-        <v>414800</v>
+        <v>402000</v>
       </c>
       <c r="F66" s="3">
-        <v>415700</v>
+        <v>402900</v>
       </c>
       <c r="G66" s="3">
-        <v>732700</v>
+        <v>710200</v>
       </c>
       <c r="H66" s="3">
-        <v>2077600</v>
+        <v>2013700</v>
       </c>
       <c r="I66" s="3">
-        <v>646600</v>
+        <v>626700</v>
       </c>
       <c r="J66" s="3">
-        <v>375800</v>
+        <v>364200</v>
       </c>
       <c r="K66" s="3">
         <v>26900</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>129200</v>
+        <v>125200</v>
       </c>
       <c r="E72" s="3">
-        <v>-35200</v>
+        <v>-34100</v>
       </c>
       <c r="F72" s="3">
-        <v>-178800</v>
+        <v>-173300</v>
       </c>
       <c r="G72" s="3">
-        <v>-75800</v>
+        <v>-73500</v>
       </c>
       <c r="H72" s="3">
-        <v>303800</v>
+        <v>294500</v>
       </c>
       <c r="I72" s="3">
-        <v>260900</v>
+        <v>252800</v>
       </c>
       <c r="J72" s="3">
-        <v>167300</v>
+        <v>162200</v>
       </c>
       <c r="K72" s="3">
         <v>4200</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>857300</v>
+        <v>830900</v>
       </c>
       <c r="E76" s="3">
-        <v>685400</v>
+        <v>664300</v>
       </c>
       <c r="F76" s="3">
-        <v>537000</v>
+        <v>520500</v>
       </c>
       <c r="G76" s="3">
-        <v>638300</v>
+        <v>618600</v>
       </c>
       <c r="H76" s="3">
-        <v>-51700</v>
+        <v>-50100</v>
       </c>
       <c r="I76" s="3">
-        <v>422200</v>
+        <v>409200</v>
       </c>
       <c r="J76" s="3">
-        <v>304200</v>
+        <v>294800</v>
       </c>
       <c r="K76" s="3">
         <v>21700</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>169900</v>
+        <v>164600</v>
       </c>
       <c r="E81" s="3">
-        <v>146800</v>
+        <v>142300</v>
       </c>
       <c r="F81" s="3">
-        <v>-98500</v>
+        <v>-95400</v>
       </c>
       <c r="G81" s="3">
-        <v>164300</v>
+        <v>159200</v>
       </c>
       <c r="H81" s="3">
-        <v>224600</v>
+        <v>217700</v>
       </c>
       <c r="I81" s="3">
-        <v>195000</v>
+        <v>189000</v>
       </c>
       <c r="J81" s="3">
-        <v>158700</v>
+        <v>153800</v>
       </c>
       <c r="K81" s="3">
         <v>6300</v>
@@ -3500,22 +3500,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="F83" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="G83" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="H83" s="3">
-        <v>21000</v>
+        <v>20400</v>
       </c>
       <c r="I83" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J83" s="3">
         <v>1500</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>262900</v>
+        <v>254800</v>
       </c>
       <c r="E89" s="3">
-        <v>22500</v>
+        <v>21800</v>
       </c>
       <c r="F89" s="3">
-        <v>40100</v>
+        <v>38900</v>
       </c>
       <c r="G89" s="3">
-        <v>39000</v>
+        <v>37800</v>
       </c>
       <c r="H89" s="3">
-        <v>-562800</v>
+        <v>-545500</v>
       </c>
       <c r="I89" s="3">
-        <v>386200</v>
+        <v>374300</v>
       </c>
       <c r="J89" s="3">
-        <v>300400</v>
+        <v>291200</v>
       </c>
       <c r="K89" s="3">
         <v>8600</v>
@@ -3818,19 +3818,19 @@
         <v>-1300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G91" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="H91" s="3">
-        <v>-20000</v>
+        <v>-19400</v>
       </c>
       <c r="I91" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="J91" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="K91" s="3">
         <v>-400</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="E94" s="3">
-        <v>-49300</v>
+        <v>-47700</v>
       </c>
       <c r="F94" s="3">
-        <v>-255400</v>
+        <v>-247500</v>
       </c>
       <c r="G94" s="3">
-        <v>157800</v>
+        <v>152900</v>
       </c>
       <c r="H94" s="3">
-        <v>468800</v>
+        <v>454300</v>
       </c>
       <c r="I94" s="3">
-        <v>-53200</v>
+        <v>-51600</v>
       </c>
       <c r="J94" s="3">
-        <v>-202100</v>
+        <v>-195900</v>
       </c>
       <c r="K94" s="3">
         <v>-6500</v>
@@ -4010,10 +4010,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="I96" s="3">
-        <v>-86000</v>
+        <v>-83400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-69500</v>
+        <v>-67400</v>
       </c>
       <c r="E100" s="3">
-        <v>60800</v>
+        <v>58900</v>
       </c>
       <c r="F100" s="3">
-        <v>135800</v>
+        <v>131600</v>
       </c>
       <c r="G100" s="3">
-        <v>-163400</v>
+        <v>-158400</v>
       </c>
       <c r="H100" s="3">
-        <v>-112000</v>
+        <v>-108600</v>
       </c>
       <c r="I100" s="3">
-        <v>-120700</v>
+        <v>-117000</v>
       </c>
       <c r="J100" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="K100" s="3">
         <v>16800</v>
@@ -4208,7 +4208,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
@@ -4223,10 +4223,10 @@
         <v>500</v>
       </c>
       <c r="I101" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J101" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K101" s="3">
         <v>-300</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>201200</v>
+        <v>195000</v>
       </c>
       <c r="E102" s="3">
-        <v>33900</v>
+        <v>32800</v>
       </c>
       <c r="F102" s="3">
-        <v>-79900</v>
+        <v>-77400</v>
       </c>
       <c r="G102" s="3">
-        <v>33400</v>
+        <v>32300</v>
       </c>
       <c r="H102" s="3">
-        <v>-205500</v>
+        <v>-199200</v>
       </c>
       <c r="I102" s="3">
-        <v>209900</v>
+        <v>203400</v>
       </c>
       <c r="J102" s="3">
-        <v>121700</v>
+        <v>118000</v>
       </c>
       <c r="K102" s="3">
         <v>18700</v>

--- a/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YRD_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>473200</v>
+        <v>474300</v>
       </c>
       <c r="E8" s="3">
-        <v>617000</v>
+        <v>618300</v>
       </c>
       <c r="F8" s="3">
-        <v>545900</v>
+        <v>547100</v>
       </c>
       <c r="G8" s="3">
-        <v>1209200</v>
+        <v>1211800</v>
       </c>
       <c r="H8" s="3">
-        <v>1640700</v>
+        <v>1644300</v>
       </c>
       <c r="I8" s="3">
-        <v>763800</v>
+        <v>765400</v>
       </c>
       <c r="J8" s="3">
-        <v>446100</v>
+        <v>447100</v>
       </c>
       <c r="K8" s="3">
         <v>30000</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>107000</v>
+        <v>107300</v>
       </c>
       <c r="E9" s="3">
-        <v>104800</v>
+        <v>105100</v>
       </c>
       <c r="F9" s="3">
-        <v>152200</v>
+        <v>152500</v>
       </c>
       <c r="G9" s="3">
-        <v>91600</v>
+        <v>91800</v>
       </c>
       <c r="H9" s="3">
-        <v>146200</v>
+        <v>146500</v>
       </c>
       <c r="I9" s="3">
-        <v>57600</v>
+        <v>57700</v>
       </c>
       <c r="J9" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="K9" s="3">
         <v>2200</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>366200</v>
+        <v>367000</v>
       </c>
       <c r="E10" s="3">
-        <v>512100</v>
+        <v>513300</v>
       </c>
       <c r="F10" s="3">
-        <v>393700</v>
+        <v>394500</v>
       </c>
       <c r="G10" s="3">
-        <v>1117500</v>
+        <v>1120000</v>
       </c>
       <c r="H10" s="3">
-        <v>1494500</v>
+        <v>1497700</v>
       </c>
       <c r="I10" s="3">
-        <v>706200</v>
+        <v>707700</v>
       </c>
       <c r="J10" s="3">
-        <v>421300</v>
+        <v>422200</v>
       </c>
       <c r="K10" s="3">
         <v>27800</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>90400</v>
+        <v>90600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>270400</v>
+        <v>271000</v>
       </c>
       <c r="E17" s="3">
-        <v>439600</v>
+        <v>440600</v>
       </c>
       <c r="F17" s="3">
-        <v>643100</v>
+        <v>644500</v>
       </c>
       <c r="G17" s="3">
-        <v>1031800</v>
+        <v>1034000</v>
       </c>
       <c r="H17" s="3">
-        <v>1442300</v>
+        <v>1445400</v>
       </c>
       <c r="I17" s="3">
-        <v>532700</v>
+        <v>533800</v>
       </c>
       <c r="J17" s="3">
-        <v>296700</v>
+        <v>297300</v>
       </c>
       <c r="K17" s="3">
         <v>20900</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>202800</v>
+        <v>203200</v>
       </c>
       <c r="E18" s="3">
-        <v>177400</v>
+        <v>177800</v>
       </c>
       <c r="F18" s="3">
-        <v>-97300</v>
+        <v>-97500</v>
       </c>
       <c r="G18" s="3">
-        <v>177400</v>
+        <v>177800</v>
       </c>
       <c r="H18" s="3">
-        <v>198400</v>
+        <v>198800</v>
       </c>
       <c r="I18" s="3">
-        <v>231100</v>
+        <v>231600</v>
       </c>
       <c r="J18" s="3">
-        <v>149500</v>
+        <v>149800</v>
       </c>
       <c r="K18" s="3">
         <v>9100</v>
@@ -1168,7 +1168,7 @@
         <v>14800</v>
       </c>
       <c r="H20" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="I20" s="3">
         <v>10400</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>209700</v>
+        <v>210100</v>
       </c>
       <c r="E21" s="3">
-        <v>171700</v>
+        <v>172100</v>
       </c>
       <c r="F21" s="3">
-        <v>-93900</v>
+        <v>-94100</v>
       </c>
       <c r="G21" s="3">
-        <v>209500</v>
+        <v>210000</v>
       </c>
       <c r="H21" s="3">
-        <v>264800</v>
+        <v>265400</v>
       </c>
       <c r="I21" s="3">
-        <v>244800</v>
+        <v>245300</v>
       </c>
       <c r="J21" s="3">
-        <v>153400</v>
+        <v>153700</v>
       </c>
       <c r="K21" s="3">
         <v>9300</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>206000</v>
+        <v>206500</v>
       </c>
       <c r="E23" s="3">
-        <v>165800</v>
+        <v>166100</v>
       </c>
       <c r="F23" s="3">
-        <v>-106600</v>
+        <v>-106800</v>
       </c>
       <c r="G23" s="3">
-        <v>192200</v>
+        <v>192600</v>
       </c>
       <c r="H23" s="3">
-        <v>244400</v>
+        <v>245000</v>
       </c>
       <c r="I23" s="3">
-        <v>241500</v>
+        <v>242100</v>
       </c>
       <c r="J23" s="3">
-        <v>151900</v>
+        <v>152200</v>
       </c>
       <c r="K23" s="3">
         <v>9200</v>
@@ -1324,10 +1324,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41400</v>
+        <v>41500</v>
       </c>
       <c r="E24" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="F24" s="3">
         <v>-11100</v>
@@ -1339,7 +1339,7 @@
         <v>26800</v>
       </c>
       <c r="I24" s="3">
-        <v>52500</v>
+        <v>52600</v>
       </c>
       <c r="J24" s="3">
         <v>-1900</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>164600</v>
+        <v>165000</v>
       </c>
       <c r="E26" s="3">
-        <v>142300</v>
+        <v>142600</v>
       </c>
       <c r="F26" s="3">
-        <v>-95400</v>
+        <v>-95700</v>
       </c>
       <c r="G26" s="3">
-        <v>159200</v>
+        <v>159600</v>
       </c>
       <c r="H26" s="3">
-        <v>217700</v>
+        <v>218100</v>
       </c>
       <c r="I26" s="3">
-        <v>189000</v>
+        <v>189400</v>
       </c>
       <c r="J26" s="3">
-        <v>153800</v>
+        <v>154200</v>
       </c>
       <c r="K26" s="3">
         <v>6300</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>164600</v>
+        <v>165000</v>
       </c>
       <c r="E27" s="3">
-        <v>142300</v>
+        <v>142600</v>
       </c>
       <c r="F27" s="3">
-        <v>-95400</v>
+        <v>-95700</v>
       </c>
       <c r="G27" s="3">
-        <v>159200</v>
+        <v>159600</v>
       </c>
       <c r="H27" s="3">
-        <v>217700</v>
+        <v>218100</v>
       </c>
       <c r="I27" s="3">
-        <v>189000</v>
+        <v>189400</v>
       </c>
       <c r="J27" s="3">
-        <v>153800</v>
+        <v>154200</v>
       </c>
       <c r="K27" s="3">
         <v>6300</v>
@@ -1672,7 +1672,7 @@
         <v>-14800</v>
       </c>
       <c r="H32" s="3">
-        <v>-46000</v>
+        <v>-46100</v>
       </c>
       <c r="I32" s="3">
         <v>-10400</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>164600</v>
+        <v>165000</v>
       </c>
       <c r="E33" s="3">
-        <v>142300</v>
+        <v>142600</v>
       </c>
       <c r="F33" s="3">
-        <v>-95400</v>
+        <v>-95700</v>
       </c>
       <c r="G33" s="3">
-        <v>159200</v>
+        <v>159600</v>
       </c>
       <c r="H33" s="3">
-        <v>217700</v>
+        <v>218100</v>
       </c>
       <c r="I33" s="3">
-        <v>189000</v>
+        <v>189400</v>
       </c>
       <c r="J33" s="3">
-        <v>153800</v>
+        <v>154200</v>
       </c>
       <c r="K33" s="3">
         <v>6300</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>164600</v>
+        <v>165000</v>
       </c>
       <c r="E35" s="3">
-        <v>142300</v>
+        <v>142600</v>
       </c>
       <c r="F35" s="3">
-        <v>-95400</v>
+        <v>-95700</v>
       </c>
       <c r="G35" s="3">
-        <v>159200</v>
+        <v>159600</v>
       </c>
       <c r="H35" s="3">
-        <v>217700</v>
+        <v>218100</v>
       </c>
       <c r="I35" s="3">
-        <v>189000</v>
+        <v>189400</v>
       </c>
       <c r="J35" s="3">
-        <v>153800</v>
+        <v>154200</v>
       </c>
       <c r="K35" s="3">
         <v>6300</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>588600</v>
+        <v>589900</v>
       </c>
       <c r="E41" s="3">
-        <v>394700</v>
+        <v>395500</v>
       </c>
       <c r="F41" s="3">
-        <v>340300</v>
+        <v>341000</v>
       </c>
       <c r="G41" s="3">
-        <v>440600</v>
+        <v>441600</v>
       </c>
       <c r="H41" s="3">
-        <v>359200</v>
+        <v>360000</v>
       </c>
       <c r="I41" s="3">
-        <v>255900</v>
+        <v>256400</v>
       </c>
       <c r="J41" s="3">
-        <v>133400</v>
+        <v>133700</v>
       </c>
       <c r="K41" s="3">
         <v>18800</v>
@@ -1995,19 +1995,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>212600</v>
+        <v>213000</v>
       </c>
       <c r="E43" s="3">
-        <v>174700</v>
+        <v>175100</v>
       </c>
       <c r="F43" s="3">
-        <v>158700</v>
+        <v>159100</v>
       </c>
       <c r="G43" s="3">
-        <v>222300</v>
+        <v>222800</v>
       </c>
       <c r="H43" s="3">
-        <v>253300</v>
+        <v>253900</v>
       </c>
       <c r="I43" s="3">
         <v>19100</v>
@@ -2079,10 +2079,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32100</v>
+        <v>32200</v>
       </c>
       <c r="E45" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="F45" s="3">
         <v>15100</v>
@@ -2091,13 +2091,13 @@
         <v>27000</v>
       </c>
       <c r="H45" s="3">
-        <v>368300</v>
+        <v>369100</v>
       </c>
       <c r="I45" s="3">
-        <v>147300</v>
+        <v>147600</v>
       </c>
       <c r="J45" s="3">
-        <v>64300</v>
+        <v>64500</v>
       </c>
       <c r="K45" s="3">
         <v>5500</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>299100</v>
+        <v>299700</v>
       </c>
       <c r="E47" s="3">
-        <v>421200</v>
+        <v>422100</v>
       </c>
       <c r="F47" s="3">
-        <v>327200</v>
+        <v>327900</v>
       </c>
       <c r="G47" s="3">
-        <v>527800</v>
+        <v>528900</v>
       </c>
       <c r="H47" s="3">
-        <v>942300</v>
+        <v>944400</v>
       </c>
       <c r="I47" s="3">
-        <v>243200</v>
+        <v>243700</v>
       </c>
       <c r="J47" s="3">
-        <v>224300</v>
+        <v>224800</v>
       </c>
       <c r="K47" s="3">
         <v>5600</v>
@@ -2211,16 +2211,16 @@
         <v>25300</v>
       </c>
       <c r="F48" s="3">
-        <v>34800</v>
+        <v>34900</v>
       </c>
       <c r="G48" s="3">
-        <v>73000</v>
+        <v>73200</v>
       </c>
       <c r="H48" s="3">
-        <v>49000</v>
+        <v>49100</v>
       </c>
       <c r="I48" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="J48" s="3">
         <v>4900</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23800</v>
+        <v>23900</v>
       </c>
       <c r="E52" s="3">
         <v>12200</v>
       </c>
       <c r="F52" s="3">
-        <v>35000</v>
+        <v>35100</v>
       </c>
       <c r="G52" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="H52" s="3">
-        <v>84300</v>
+        <v>84500</v>
       </c>
       <c r="I52" s="3">
-        <v>359200</v>
+        <v>359900</v>
       </c>
       <c r="J52" s="3">
-        <v>228000</v>
+        <v>228500</v>
       </c>
       <c r="K52" s="3">
         <v>14600</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1176100</v>
+        <v>1178700</v>
       </c>
       <c r="E54" s="3">
-        <v>1066300</v>
+        <v>1068700</v>
       </c>
       <c r="F54" s="3">
-        <v>923400</v>
+        <v>925400</v>
       </c>
       <c r="G54" s="3">
-        <v>1328800</v>
+        <v>1331700</v>
       </c>
       <c r="H54" s="3">
-        <v>1963600</v>
+        <v>1967900</v>
       </c>
       <c r="I54" s="3">
-        <v>1035900</v>
+        <v>1038200</v>
       </c>
       <c r="J54" s="3">
-        <v>659100</v>
+        <v>660500</v>
       </c>
       <c r="K54" s="3">
         <v>48600</v>
@@ -2535,7 +2535,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
         <v>2600</v>
@@ -2547,7 +2547,7 @@
         <v>6000</v>
       </c>
       <c r="H57" s="3">
-        <v>42300</v>
+        <v>42400</v>
       </c>
       <c r="I57" s="3">
         <v>4700</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>217400</v>
+        <v>217900</v>
       </c>
       <c r="E59" s="3">
-        <v>239700</v>
+        <v>240200</v>
       </c>
       <c r="F59" s="3">
-        <v>318800</v>
+        <v>319500</v>
       </c>
       <c r="G59" s="3">
-        <v>373300</v>
+        <v>374100</v>
       </c>
       <c r="H59" s="3">
-        <v>1652300</v>
+        <v>1655900</v>
       </c>
       <c r="I59" s="3">
-        <v>204800</v>
+        <v>205300</v>
       </c>
       <c r="J59" s="3">
-        <v>194700</v>
+        <v>195100</v>
       </c>
       <c r="K59" s="3">
         <v>12100</v>
@@ -2703,19 +2703,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>105800</v>
+        <v>106000</v>
       </c>
       <c r="E61" s="3">
-        <v>141700</v>
+        <v>142000</v>
       </c>
       <c r="F61" s="3">
-        <v>69000</v>
+        <v>69100</v>
       </c>
       <c r="G61" s="3">
         <v>2600</v>
       </c>
       <c r="H61" s="3">
-        <v>26500</v>
+        <v>26600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>30200</v>
       </c>
       <c r="H62" s="3">
-        <v>67100</v>
+        <v>67200</v>
       </c>
       <c r="I62" s="3">
         <v>1600</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>345200</v>
+        <v>345900</v>
       </c>
       <c r="E66" s="3">
-        <v>402000</v>
+        <v>402900</v>
       </c>
       <c r="F66" s="3">
-        <v>402900</v>
+        <v>403800</v>
       </c>
       <c r="G66" s="3">
-        <v>710200</v>
+        <v>711700</v>
       </c>
       <c r="H66" s="3">
-        <v>2013700</v>
+        <v>2018100</v>
       </c>
       <c r="I66" s="3">
-        <v>626700</v>
+        <v>628100</v>
       </c>
       <c r="J66" s="3">
-        <v>364200</v>
+        <v>365000</v>
       </c>
       <c r="K66" s="3">
         <v>26900</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>125200</v>
+        <v>125500</v>
       </c>
       <c r="E72" s="3">
-        <v>-34100</v>
+        <v>-34200</v>
       </c>
       <c r="F72" s="3">
-        <v>-173300</v>
+        <v>-173600</v>
       </c>
       <c r="G72" s="3">
-        <v>-73500</v>
+        <v>-73700</v>
       </c>
       <c r="H72" s="3">
-        <v>294500</v>
+        <v>295100</v>
       </c>
       <c r="I72" s="3">
-        <v>252800</v>
+        <v>253400</v>
       </c>
       <c r="J72" s="3">
-        <v>162200</v>
+        <v>162500</v>
       </c>
       <c r="K72" s="3">
         <v>4200</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>830900</v>
+        <v>832700</v>
       </c>
       <c r="E76" s="3">
-        <v>664300</v>
+        <v>665700</v>
       </c>
       <c r="F76" s="3">
-        <v>520500</v>
+        <v>521600</v>
       </c>
       <c r="G76" s="3">
-        <v>618600</v>
+        <v>620000</v>
       </c>
       <c r="H76" s="3">
-        <v>-50100</v>
+        <v>-50200</v>
       </c>
       <c r="I76" s="3">
-        <v>409200</v>
+        <v>410100</v>
       </c>
       <c r="J76" s="3">
-        <v>294800</v>
+        <v>295500</v>
       </c>
       <c r="K76" s="3">
         <v>21700</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>164600</v>
+        <v>165000</v>
       </c>
       <c r="E81" s="3">
-        <v>142300</v>
+        <v>142600</v>
       </c>
       <c r="F81" s="3">
-        <v>-95400</v>
+        <v>-95700</v>
       </c>
       <c r="G81" s="3">
-        <v>159200</v>
+        <v>159600</v>
       </c>
       <c r="H81" s="3">
-        <v>217700</v>
+        <v>218100</v>
       </c>
       <c r="I81" s="3">
-        <v>189000</v>
+        <v>189400</v>
       </c>
       <c r="J81" s="3">
-        <v>153800</v>
+        <v>154200</v>
       </c>
       <c r="K81" s="3">
         <v>6300</v>
@@ -3506,10 +3506,10 @@
         <v>6000</v>
       </c>
       <c r="F83" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="G83" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="H83" s="3">
         <v>20400</v>
@@ -3752,7 +3752,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>254800</v>
+        <v>255400</v>
       </c>
       <c r="E89" s="3">
         <v>21800</v>
@@ -3761,16 +3761,16 @@
         <v>38900</v>
       </c>
       <c r="G89" s="3">
-        <v>37800</v>
+        <v>37900</v>
       </c>
       <c r="H89" s="3">
-        <v>-545500</v>
+        <v>-546700</v>
       </c>
       <c r="I89" s="3">
-        <v>374300</v>
+        <v>375100</v>
       </c>
       <c r="J89" s="3">
-        <v>291200</v>
+        <v>291800</v>
       </c>
       <c r="K89" s="3">
         <v>8600</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="E94" s="3">
-        <v>-47700</v>
+        <v>-47800</v>
       </c>
       <c r="F94" s="3">
-        <v>-247500</v>
+        <v>-248100</v>
       </c>
       <c r="G94" s="3">
-        <v>152900</v>
+        <v>153300</v>
       </c>
       <c r="H94" s="3">
-        <v>454300</v>
+        <v>455300</v>
       </c>
       <c r="I94" s="3">
-        <v>-51600</v>
+        <v>-51700</v>
       </c>
       <c r="J94" s="3">
-        <v>-195900</v>
+        <v>-196300</v>
       </c>
       <c r="K94" s="3">
         <v>-6500</v>
@@ -4013,7 +4013,7 @@
         <v>-14700</v>
       </c>
       <c r="I96" s="3">
-        <v>-83400</v>
+        <v>-83600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-67400</v>
+        <v>-67500</v>
       </c>
       <c r="E100" s="3">
-        <v>58900</v>
+        <v>59000</v>
       </c>
       <c r="F100" s="3">
-        <v>131600</v>
+        <v>131900</v>
       </c>
       <c r="G100" s="3">
-        <v>-158400</v>
+        <v>-158800</v>
       </c>
       <c r="H100" s="3">
-        <v>-108600</v>
+        <v>-108800</v>
       </c>
       <c r="I100" s="3">
-        <v>-117000</v>
+        <v>-117300</v>
       </c>
       <c r="J100" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="K100" s="3">
         <v>16800</v>
@@ -4226,7 +4226,7 @@
         <v>-2200</v>
       </c>
       <c r="J101" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K101" s="3">
         <v>-300</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>195000</v>
+        <v>195400</v>
       </c>
       <c r="E102" s="3">
-        <v>32800</v>
+        <v>32900</v>
       </c>
       <c r="F102" s="3">
-        <v>-77400</v>
+        <v>-77600</v>
       </c>
       <c r="G102" s="3">
-        <v>32300</v>
+        <v>32400</v>
       </c>
       <c r="H102" s="3">
-        <v>-199200</v>
+        <v>-199600</v>
       </c>
       <c r="I102" s="3">
-        <v>203400</v>
+        <v>203900</v>
       </c>
       <c r="J102" s="3">
-        <v>118000</v>
+        <v>118300</v>
       </c>
       <c r="K102" s="3">
         <v>18700</v>
